--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="language" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="204">
   <si>
     <t>myself</t>
   </si>
@@ -48,13 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信息提示</t>
-  </si>
-  <si>
-    <t>信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后台获取数据失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FESDiagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>projectName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,6 +371,438 @@
   </si>
   <si>
     <t>all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>displacement</t>
+  </si>
+  <si>
+    <t>pointCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>SPM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagramWorkType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimizationSuggestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStress</t>
+  </si>
+  <si>
+    <t>rodStressRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod2</t>
+  </si>
+  <si>
+    <t>rod3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rod4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpFSDiagram</t>
+  </si>
+  <si>
+    <t>pumpEfficiencyComposition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWattDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>degreeBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torqueCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>torque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crankAngle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveTowardOutside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveTowardInside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crankTorque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balanceTorque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netTorque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balanceTorque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netTorque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentTorqueCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current torque curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectTorqueCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect torque curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downStrokeMaxValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStrokeMaxValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click on different areas or tabs of the pie chart to view the corresponding statistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statPieChartToolTip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>errorInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There was a problem with the back office</t>
+  </si>
+  <si>
+    <t>historyCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiledDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiled diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagram overlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagramSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyDiagramSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history diagram setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportDiagramSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report diagram setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infotip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourlyValidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an integer ranging from 0 to 23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minuteValidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secondValidData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an integer ranging from 0 to 59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid data,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleDeviceReport</t>
+  </si>
+  <si>
+    <t>hourly report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourlyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +870,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -754,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -768,13 +1192,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,10 +1228,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,10 +1250,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,10 +1261,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,10 +1272,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,10 +1283,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -873,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -884,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,28 +1327,32 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -933,7 +1361,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -942,7 +1370,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -950,19 +1378,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,7 +1401,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,7 +1410,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -989,7 +1419,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,7 +1428,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1007,7 +1437,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1016,7 +1446,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1025,7 +1455,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,7 +1464,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1043,7 +1473,7 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1052,7 +1482,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1061,7 +1491,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,7 +1500,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,26 +1509,28 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -1111,22 +1543,18 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1134,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1145,10 +1573,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1156,16 +1584,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -1371,6 +1805,11 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1395,13 +1834,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,10 +1859,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,7 +1870,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1440,7 +1879,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1449,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1566,27 +2005,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,21 +2033,495 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1618,27 +2531,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C265"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1646,10 +2559,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1657,10 +2570,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1668,10 +2581,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1679,10 +2592,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1690,10 +2603,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1701,10 +2614,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1723,10 +2636,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1734,10 +2647,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1745,10 +2658,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1756,10 +2669,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1767,10 +2680,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1778,10 +2691,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1789,10 +2702,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1800,10 +2713,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1811,10 +2724,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1822,10 +2735,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1833,10 +2746,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1844,10 +2757,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1855,10 +2768,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1866,10 +2779,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1877,10 +2790,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1888,38 +2801,1420 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="301">
   <si>
     <t>myself</t>
   </si>
@@ -76,37 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认</t>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,10 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>export</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,9 +568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>错误</t>
-  </si>
-  <si>
     <t>errorInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -803,6 +765,425 @@
   </si>
   <si>
     <t>report data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>bulkExportData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulk export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateWait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateSuccessfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update data, please wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data update failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data updated successfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkOne</t>
+  </si>
+  <si>
+    <t>You must select a row of data for manipulation</t>
+  </si>
+  <si>
+    <t>No data has been modified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noDataChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to delete it?</t>
+  </si>
+  <si>
+    <t>Do you want to delete the selected data?</t>
+  </si>
+  <si>
+    <t>confirmDeleteData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daliyReportCurve</t>
+  </si>
+  <si>
+    <t>daliy report curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourlyReportCurve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hourly report curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twoHours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two hours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FESDiagramResultAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatusAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commStatusAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numericValueAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumValueAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchingValueAlarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLevel1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLevel2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLevel3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSendMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDeviceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportAlarmData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FESDiagramResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numericValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchingValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSendEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCPCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editHistoryDataCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linkProductionDataCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportRequestData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPCCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>reTotalCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabProperties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMSInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addProtocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnMappingTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocoDeviceTypeChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatusConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatusColumnSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runConditionConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stopConditionConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sortNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolBelongTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belong to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocol name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeProtocolBelongToFail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeProtocolBelongToSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save success.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save fail.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1178,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1192,13 +1573,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1206,10 +1587,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1228,10 +1609,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1239,10 +1620,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1250,10 +1631,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1261,10 +1642,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1272,10 +1653,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1283,10 +1664,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1297,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1308,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1316,10 +1697,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1327,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1338,10 +1719,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1349,28 +1730,32 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,10 +1763,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,10 +1774,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,7 +1786,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1410,25 +1795,29 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1437,7 +1826,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1446,7 +1835,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,7 +1844,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,7 +1853,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,52 +1862,62 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1526,35 +1925,43 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1562,10 +1969,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,21 +1980,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1602,39 +2007,73 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
@@ -1810,6 +2249,41 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1834,13 +2308,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1848,10 +2322,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1859,10 +2333,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,7 +2344,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1879,7 +2353,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1888,7 +2362,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -2019,13 +2493,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2033,10 +2507,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2044,10 +2518,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2055,10 +2529,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2066,10 +2540,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2077,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2088,10 +2562,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2099,10 +2573,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2110,10 +2584,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2121,10 +2595,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2132,10 +2606,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2143,10 +2617,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2154,10 +2628,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2165,10 +2639,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2176,10 +2650,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2187,10 +2661,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2198,10 +2672,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2209,10 +2683,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2220,10 +2694,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2231,10 +2705,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2242,10 +2716,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2253,10 +2727,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2264,10 +2738,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2275,10 +2749,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2286,10 +2760,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2297,10 +2771,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2308,10 +2782,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2319,10 +2793,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2330,10 +2804,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2341,10 +2815,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2352,10 +2826,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2363,10 +2837,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2374,10 +2848,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2385,10 +2859,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2396,10 +2870,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2407,10 +2881,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2418,10 +2892,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2429,10 +2903,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2440,10 +2914,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2451,10 +2925,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2462,10 +2936,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2473,10 +2947,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2484,10 +2958,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2495,10 +2969,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2506,10 +2980,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2517,10 +2991,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2531,27 +3005,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C265"/>
+  <dimension ref="A1:C268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2559,10 +3033,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2570,10 +3044,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2581,10 +3055,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2592,10 +3066,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2603,10 +3077,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2614,10 +3088,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2636,10 +3110,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2647,10 +3121,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2658,10 +3132,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2669,10 +3143,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2680,10 +3154,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2691,10 +3165,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2702,10 +3176,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2713,10 +3187,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2724,10 +3198,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2735,10 +3209,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2746,10 +3220,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2757,10 +3231,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2768,10 +3242,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2779,10 +3253,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2790,10 +3264,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2801,10 +3275,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2812,10 +3286,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2823,10 +3297,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2834,10 +3308,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2845,10 +3319,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2856,10 +3330,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2867,10 +3341,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2878,10 +3352,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2889,10 +3363,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2900,10 +3374,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2911,10 +3385,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2922,10 +3396,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2933,10 +3407,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2944,10 +3418,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2955,10 +3429,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2966,10 +3440,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2977,10 +3451,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2988,10 +3462,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2999,10 +3473,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3010,10 +3484,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3021,21 +3495,21 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3043,21 +3517,21 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3065,21 +3539,21 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3087,21 +3561,21 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3109,21 +3583,21 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3131,21 +3605,21 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3153,21 +3627,21 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3175,321 +3649,693 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
@@ -4215,6 +5061,21 @@
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="460">
   <si>
     <t>myself</t>
   </si>
@@ -1185,6 +1185,635 @@
   <si>
     <t>save fail.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeOwner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajaxError400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajaxError404</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajaxError500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syntax error, server request failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadSuccessfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load successfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionThrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception throw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noDataCanBeSaved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contactAdmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect upload data format!</t>
+  </si>
+  <si>
+    <t>uploadDataError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail to upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadFail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeOwnerSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changeOwnerFail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can not be empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotBeEmpty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No data can be saved.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please contact your administrator.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadFileTooLarge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The file content is too large, please reduce the content and re-upload!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginAgain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unauthorized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contactSupplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session timeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry,your software is not yet licensed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please log in again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonExceptionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The system failed to convert JSON information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errotCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptionTip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailed information</t>
+  </si>
+  <si>
+    <t>detailedInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,please contact the product provider.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server request failed! Check the server connection or SQL/HQL execution statements.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The server is abnormal!</t>
+  </si>
+  <si>
+    <t>HTTP version not supported!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajaxError505</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionTimeoutInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Session timed out, please log in again!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object does not exist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgChangeOwnerFail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The migration failed because the target organization could not be itself or all its children.</t>
+  </si>
+  <si>
+    <t>acqUnitConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqItemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAcqUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAcqGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupTimingInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupSavingInterval</t>
+  </si>
+  <si>
+    <t>groupDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectGroupType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select group type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root node</t>
+  </si>
+  <si>
+    <t>The same group already exists in the unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rootNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupCollisionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleaseConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>please confirm!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqUnitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmUnitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayUnitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportUnitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadUnitList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqInstanceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmInstanceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayInstanceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportInstanceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMSInstanceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protocolExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqUnitExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayUnitExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmUnitExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportUnitExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqInstanceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayInstanceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmInstanceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportInstanceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMSInstanceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveSuccessfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save successfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>save failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operationFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataTypeError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data type error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayUnitConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisitionItemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlItemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputItemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateItemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addDisplayUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectCalculateType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goOnline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runStatusNoData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmUnitConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmItemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numericValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchingValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAlarmUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmColorConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchingValueList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumValueList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroundColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foregroundColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportUnitConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addReportUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportContentConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReportTemplateList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReportTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReportContentConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReportTemplateList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReportTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReportContentConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReportTemplateList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReportTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReportContentConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config</t>
   </si>
 </sst>
 </file>
@@ -1559,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1741,10 +2370,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>213</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,10 +2381,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>310</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>214</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,10 +2392,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>217</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,28 +2403,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>219</v>
+        <v>314</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>218</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1803,10 +2436,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,46 +2447,54 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>175</v>
+        <v>326</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>176</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1862,18 +2503,16 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1881,10 +2520,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,65 +2531,55 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>197</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,10 +2587,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,10 +2598,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,19 +2609,21 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>201</v>
+        <v>415</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>201</v>
+        <v>416</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2000,35 +2631,43 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2036,10 +2675,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2047,10 +2686,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2058,10 +2697,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2069,181 +2708,375 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -2284,6 +3117,76 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3005,15 +3908,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C268"/>
+  <dimension ref="A1:C275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3854,14 +4757,14 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>244</v>
+        <v>435</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>244</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3869,21 +4772,21 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3891,10 +4794,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3902,21 +4805,21 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3924,21 +4827,21 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3946,21 +4849,21 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3968,21 +4871,21 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3990,21 +4893,21 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -4012,21 +4915,21 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -4034,21 +4937,21 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -4056,21 +4959,21 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -4078,21 +4981,21 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -4100,21 +5003,21 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -4122,21 +5025,21 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -4144,21 +5047,21 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -4166,21 +5069,21 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -4188,21 +5091,21 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -4210,21 +5113,21 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -4232,21 +5135,21 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -4254,21 +5157,21 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -4276,21 +5179,21 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4298,21 +5201,21 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -4320,427 +5223,913 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-    </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
@@ -5076,6 +6465,41 @@
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="537">
   <si>
     <t>myself</t>
   </si>
@@ -56,26 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询单位信息…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1439,10 +1419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acqItemConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>addAcqUnit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1814,6 +1790,332 @@
   </si>
   <si>
     <t>config</t>
+  </si>
+  <si>
+    <t>acqAndCtrlItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisitionItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqAndCtrlItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqAndCtrlItemConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAcqUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAcqUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAcqInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqProtocolType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrlProtocolType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signInPrefixSuffixHex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signInPrefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signInSuffix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signInIDHex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heartbeatPrefixSuffixHex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heartbeatPrefix</t>
+  </si>
+  <si>
+    <t>heartbeatSuffix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>packetSendInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instanceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectDisplayUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAlarmUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReportContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReportContent</t>
+  </si>
+  <si>
+    <t>areaDailyReportContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReportContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectReportUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectProtocolType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owning device type</t>
+  </si>
+  <si>
+    <t>owningDeviceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectDeviceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select device type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgRootNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org root node</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addSuccessfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add successfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwordReset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userOrgChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterPasswordAgain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterpwdNotEqual</t>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneNumberFormatError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The mobile phone number format is incorrect</t>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailFormatError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The email format you entered is incorrect</t>
+  </si>
+  <si>
+    <t>userQuickLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quick login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveAlarmSMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive alarm mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveAlarmMail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive alarm SMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectLanguage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alreadyExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgParentChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgParentChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owning org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owningOrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2188,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2202,13 +2504,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2216,10 +2518,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2238,10 +2540,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2249,10 +2551,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2260,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2271,10 +2573,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2282,10 +2584,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2293,10 +2595,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2307,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2318,7 +2620,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2326,10 +2628,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2337,10 +2639,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2348,10 +2650,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2359,10 +2661,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2370,10 +2672,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2381,10 +2683,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2392,10 +2694,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2403,10 +2705,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2414,10 +2716,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2425,10 +2727,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2436,10 +2738,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2447,10 +2749,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2458,10 +2760,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2469,10 +2771,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2480,10 +2782,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2491,10 +2793,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2520,10 +2822,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2531,55 +2833,65 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>493</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2587,10 +2899,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>210</v>
+        <v>408</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>210</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2598,10 +2910,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2609,10 +2921,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>415</v>
+        <v>199</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>416</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2620,10 +2932,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>414</v>
+        <v>200</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>417</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2631,10 +2943,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2642,10 +2954,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2653,10 +2965,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2664,10 +2976,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2675,10 +2987,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2686,21 +2998,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2708,66 +3018,68 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>39</v>
+        <v>427</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>39</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>433</v>
+        <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>433</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2775,10 +3087,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2786,10 +3098,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>5</v>
+        <v>428</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>5</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2797,10 +3109,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2808,10 +3120,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>7</v>
+        <v>324</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>7</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2819,10 +3131,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>434</v>
+        <v>325</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>434</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2830,10 +3142,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>31</v>
+        <v>326</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>31</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2841,10 +3153,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2852,10 +3164,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2863,10 +3175,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2874,10 +3186,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2885,10 +3197,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2896,10 +3208,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2907,7 +3219,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>337</v>
@@ -2918,10 +3230,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2929,10 +3241,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2940,7 +3252,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>342</v>
@@ -2951,7 +3263,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>344</v>
@@ -2962,10 +3274,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2973,10 +3285,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2984,10 +3296,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2995,10 +3307,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3006,10 +3318,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3017,10 +3329,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>308</v>
+        <v>412</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>352</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3028,10 +3340,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>353</v>
+        <v>415</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3039,44 +3351,26 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>358</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>419</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>421</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>423</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -3172,21 +3466,6 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3211,13 +3490,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3225,10 +3504,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3236,10 +3515,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3247,7 +3526,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -3256,7 +3535,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -3265,7 +3544,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -3396,13 +3675,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3410,10 +3689,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3421,10 +3700,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3432,10 +3711,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3443,10 +3722,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3454,10 +3733,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3465,10 +3744,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3476,10 +3755,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3487,10 +3766,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3498,10 +3777,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3509,10 +3788,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3520,10 +3799,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3531,10 +3810,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3542,10 +3821,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3553,10 +3832,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3564,10 +3843,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3575,10 +3854,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3586,10 +3865,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3597,10 +3876,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3608,10 +3887,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3619,10 +3898,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3630,10 +3909,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3641,10 +3920,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3652,10 +3931,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3663,10 +3942,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3674,10 +3953,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3685,10 +3964,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3696,10 +3975,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3707,10 +3986,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3718,10 +3997,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3729,10 +4008,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3740,10 +4019,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3751,10 +4030,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3762,10 +4041,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3773,10 +4052,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3784,10 +4063,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3795,10 +4074,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3806,10 +4085,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3817,10 +4096,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3828,10 +4107,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3839,10 +4118,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3850,10 +4129,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3861,10 +4140,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3872,10 +4151,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3883,10 +4162,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3894,10 +4173,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3908,10 +4187,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C275"/>
+  <dimension ref="A1:C294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3922,13 +4201,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3936,10 +4215,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3947,10 +4226,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3958,10 +4237,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3969,10 +4248,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3980,10 +4259,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3991,10 +4270,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4013,10 +4292,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4024,10 +4303,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4035,10 +4314,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4046,10 +4325,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4057,10 +4336,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4068,10 +4347,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4079,10 +4358,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4090,10 +4369,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4101,10 +4380,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4112,10 +4391,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4123,10 +4402,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4134,10 +4413,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4145,10 +4424,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4156,10 +4435,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4167,10 +4446,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4178,10 +4457,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4189,10 +4468,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4200,10 +4479,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4211,10 +4490,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4222,10 +4501,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4233,10 +4512,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4244,10 +4523,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4255,10 +4534,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4266,10 +4545,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4277,10 +4556,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4288,10 +4567,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4299,10 +4578,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4310,10 +4589,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -4321,10 +4600,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4332,10 +4611,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -4343,10 +4622,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4354,10 +4633,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -4365,10 +4644,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4376,10 +4655,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4387,10 +4666,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4398,10 +4677,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -4409,10 +4688,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4420,10 +4699,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -4431,10 +4710,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4442,10 +4721,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -4453,10 +4732,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4464,10 +4743,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -4475,10 +4754,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4486,10 +4765,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -4497,10 +4776,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4508,10 +4787,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4519,10 +4798,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -4530,10 +4809,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4541,10 +4820,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4552,10 +4831,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4563,10 +4842,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4574,10 +4853,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4585,10 +4864,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4596,10 +4875,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4607,10 +4886,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4618,10 +4897,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4629,10 +4908,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4640,10 +4919,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4651,10 +4930,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4662,10 +4941,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4673,10 +4952,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4684,10 +4963,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4695,10 +4974,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4706,10 +4985,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4717,10 +4996,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4728,10 +5007,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4739,10 +5018,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4750,10 +5029,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4761,10 +5040,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -4772,10 +5051,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -4783,10 +5062,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -4794,10 +5073,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -4805,10 +5084,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -4816,10 +5095,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -4827,10 +5106,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -4838,10 +5117,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -4849,10 +5128,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -4860,10 +5139,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -4871,10 +5150,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -4882,10 +5161,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -4893,10 +5172,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -4904,10 +5183,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -4915,10 +5194,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -4926,10 +5205,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -4937,10 +5216,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -4948,10 +5227,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -4959,10 +5238,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>269</v>
+        <v>486</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>269</v>
+        <v>487</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -4970,10 +5249,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -4981,10 +5260,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -4992,10 +5271,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -5003,10 +5282,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5014,10 +5293,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>274</v>
+        <v>460</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>274</v>
+        <v>459</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -5025,10 +5304,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -5036,10 +5315,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>276</v>
+        <v>476</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>276</v>
+        <v>476</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -5047,10 +5326,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -5058,10 +5337,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>278</v>
+        <v>477</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>278</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -5069,10 +5348,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -5080,10 +5359,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>280</v>
+        <v>482</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>280</v>
+        <v>482</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -5091,10 +5370,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5102,10 +5381,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -5113,10 +5392,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -5124,10 +5403,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -5135,10 +5414,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -5146,10 +5425,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -5157,10 +5436,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -5168,10 +5447,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5179,10 +5458,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -5190,10 +5469,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -5201,10 +5480,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -5212,10 +5491,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -5223,10 +5502,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -5234,10 +5513,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5245,10 +5524,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -5256,10 +5535,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -5267,10 +5546,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -5278,10 +5557,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>361</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -5289,10 +5568,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>362</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -5300,10 +5579,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>360</v>
+        <v>292</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -5311,10 +5590,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>323</v>
+        <v>485</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>322</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -5322,10 +5601,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>364</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5333,10 +5612,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>365</v>
+        <v>296</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -5344,10 +5623,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -5355,10 +5634,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -5366,10 +5645,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -5377,10 +5656,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -5388,10 +5667,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -5399,10 +5678,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>371</v>
+        <v>457</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>371</v>
+        <v>454</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -5410,10 +5689,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>372</v>
+        <v>455</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>372</v>
+        <v>455</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -5421,10 +5700,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>379</v>
+        <v>456</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -5432,10 +5711,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>377</v>
+        <v>474</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>380</v>
+        <v>474</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -5443,10 +5722,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>378</v>
+        <v>475</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>381</v>
+        <v>475</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -5454,10 +5733,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>373</v>
+        <v>458</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>373</v>
+        <v>458</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -5465,10 +5744,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -5476,10 +5755,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -5487,10 +5766,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -5498,10 +5777,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -5509,10 +5788,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -5520,10 +5799,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -5531,10 +5810,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -5542,10 +5821,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -5553,10 +5832,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -5564,10 +5843,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5575,10 +5854,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -5586,10 +5865,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -5597,10 +5876,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -5608,10 +5887,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -5619,10 +5898,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>397</v>
+        <v>488</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>397</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -5630,10 +5909,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -5641,10 +5920,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -5652,10 +5931,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -5663,10 +5942,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -5674,10 +5953,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -5685,10 +5964,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -5696,10 +5975,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -5707,10 +5986,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -5718,10 +5997,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -5729,10 +6008,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -5740,10 +6019,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -5751,10 +6030,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -5762,10 +6041,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -5773,10 +6052,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -5784,10 +6063,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -5795,10 +6074,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -5806,10 +6085,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -5817,10 +6096,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -5828,10 +6107,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -5839,10 +6118,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -5850,10 +6129,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -5861,10 +6140,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -5872,10 +6151,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -5883,10 +6162,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>437</v>
+        <v>400</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -5894,10 +6173,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>438</v>
+        <v>401</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -5905,10 +6184,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>439</v>
+        <v>402</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -5916,10 +6195,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -5927,10 +6206,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -5938,10 +6217,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -5949,10 +6228,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -5960,10 +6239,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -5971,10 +6250,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -5982,10 +6261,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -5993,10 +6272,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -6004,10 +6283,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -6015,10 +6294,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -6026,10 +6305,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -6037,10 +6316,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -6048,10 +6327,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -6059,10 +6338,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -6070,10 +6349,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -6081,10 +6360,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -6092,10 +6371,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -6103,10 +6382,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -6114,10 +6393,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -6125,311 +6404,671 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-    </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
@@ -6500,6 +7139,101 @@
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="651">
   <si>
     <t>myself</t>
   </si>
@@ -2115,6 +2115,452 @@
   </si>
   <si>
     <t>add user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add an organization first</t>
+  </si>
+  <si>
+    <t>addOrgFirst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleLicense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewFlag</t>
+  </si>
+  <si>
+    <t>deviceTypeLicense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module license</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>controlFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type license</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataShowLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data show level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleVideoKeyEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video key edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleRemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adddDevie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteDevice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceOrgChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateDataConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editVideoKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicationScenarios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectApplicationScenarios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAcqInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectdisplayInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectReportInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAlarmInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceTcpType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectDeviceTcpType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signInId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipPort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peakDelay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productionData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpingInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectAppScenarios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicationScenarios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataCollision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data collision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collisionInfo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collisionInfo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The registration package ID/IP port and secondary address of the device conflict with another device</t>
+  </si>
+  <si>
+    <t>he IP port of the lower host conflicts with that of another device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumping</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>moduleMemo</t>
+  </si>
+  <si>
+    <t>moduleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleView</t>
+  </si>
+  <si>
+    <t>moduleControlller</t>
+  </si>
+  <si>
+    <t>moduleIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataModuleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataModuleCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictionaryBelongTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectLeafNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addParameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select a leaf node</t>
+  </si>
+  <si>
+    <t>add param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editDictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataColumnName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataColumnCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataColumnParams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addDataItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add data item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editDataItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit data item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text boxes marked with * are required</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4187,10 +4633,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C294"/>
+  <dimension ref="A1:C822"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C261" sqref="C261"/>
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4288,14 +4734,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>565</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4303,21 +4749,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4325,21 +4771,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4347,21 +4793,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4369,21 +4815,21 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4391,21 +4837,21 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4413,21 +4859,21 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4435,21 +4881,21 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4457,21 +4903,21 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4479,21 +4925,21 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4501,21 +4947,21 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4523,21 +4969,21 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4545,21 +4991,21 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4567,21 +5013,21 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4589,21 +5035,21 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -4611,21 +5057,21 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -4633,21 +5079,21 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -4655,21 +5101,21 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -4677,21 +5123,21 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -4699,21 +5145,21 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -4721,21 +5167,21 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -4743,21 +5189,21 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -4765,21 +5211,21 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4787,21 +5233,21 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -4809,21 +5255,21 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4831,21 +5277,21 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4853,21 +5299,21 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4875,21 +5321,21 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4897,21 +5343,21 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4919,21 +5365,21 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4941,21 +5387,21 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4963,21 +5409,21 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4985,21 +5431,21 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -5007,21 +5453,21 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -5029,10 +5475,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5040,10 +5486,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>429</v>
+        <v>238</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>429</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5051,10 +5497,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>239</v>
+        <v>429</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>239</v>
+        <v>429</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -5062,10 +5508,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5073,10 +5519,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -5084,10 +5530,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -5095,10 +5541,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -5106,10 +5552,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -5117,10 +5563,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -5128,10 +5574,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5139,10 +5585,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -5150,10 +5596,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -5161,10 +5607,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -5172,10 +5618,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -5183,10 +5629,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -5194,10 +5640,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -5205,10 +5651,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -5216,10 +5662,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5227,10 +5673,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5238,10 +5684,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>486</v>
+        <v>263</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>487</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -5249,10 +5695,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>264</v>
+        <v>486</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>264</v>
+        <v>487</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -5260,10 +5706,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -5271,10 +5717,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -5282,10 +5728,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -5293,10 +5739,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>460</v>
+        <v>267</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>459</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -5304,10 +5750,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>268</v>
+        <v>460</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>268</v>
+        <v>459</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -5315,10 +5761,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>476</v>
+        <v>268</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>476</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -5326,10 +5772,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>269</v>
+        <v>476</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>269</v>
+        <v>476</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -5337,10 +5783,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>477</v>
+        <v>269</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>477</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -5348,10 +5794,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>270</v>
+        <v>477</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>270</v>
+        <v>477</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -5359,10 +5805,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>482</v>
+        <v>270</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>482</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -5370,10 +5816,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>271</v>
+        <v>482</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>271</v>
+        <v>482</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -5381,10 +5827,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -5392,10 +5838,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -5403,10 +5849,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -5414,10 +5860,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -5425,10 +5871,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -5436,10 +5882,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -5447,10 +5893,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5458,10 +5904,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -5469,10 +5915,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -5480,10 +5926,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -5491,10 +5937,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -5502,10 +5948,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -5513,10 +5959,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -5524,10 +5970,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -5535,10 +5981,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -5546,10 +5992,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -5557,10 +6003,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -5568,10 +6014,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -5579,10 +6025,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -5590,10 +6036,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>485</v>
+        <v>292</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>484</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -5601,10 +6047,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>298</v>
+        <v>485</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>297</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -5612,10 +6058,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -5623,10 +6069,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -5634,10 +6080,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -5645,10 +6091,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -5656,10 +6102,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -5667,10 +6113,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -5678,10 +6124,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>457</v>
+        <v>359</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>454</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -5689,10 +6135,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -5700,10 +6146,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -5711,10 +6157,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -5722,10 +6168,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -5733,10 +6179,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -5744,10 +6190,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>360</v>
+        <v>458</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>360</v>
+        <v>458</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -5755,10 +6201,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -5766,10 +6212,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -5777,10 +6223,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -5788,10 +6234,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -5799,10 +6245,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -5810,10 +6256,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -5821,10 +6267,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -5832,10 +6278,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -5843,10 +6289,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5854,10 +6300,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -5865,10 +6311,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -5876,10 +6322,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -5887,10 +6333,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -5898,10 +6344,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>488</v>
+        <v>378</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>489</v>
+        <v>376</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -5909,10 +6355,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>379</v>
+        <v>488</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>379</v>
+        <v>489</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -5920,10 +6366,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -5931,10 +6377,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -5942,10 +6388,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -5953,10 +6399,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -5964,10 +6410,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -5975,10 +6421,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -5986,10 +6432,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -5997,10 +6443,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>473</v>
+        <v>387</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>473</v>
+        <v>387</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -6008,10 +6454,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>388</v>
+        <v>473</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>388</v>
+        <v>473</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -6019,10 +6465,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -6030,10 +6476,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -6041,10 +6487,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -6052,10 +6498,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -6063,10 +6509,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -6074,10 +6520,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -6085,10 +6531,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -6096,10 +6542,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -6107,10 +6553,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -6118,10 +6564,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -6129,10 +6575,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -6140,10 +6586,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -6151,10 +6597,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -6162,10 +6608,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -6173,10 +6619,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -6184,10 +6630,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -6195,10 +6641,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -6206,10 +6652,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -6217,10 +6663,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -6228,10 +6674,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -6239,10 +6685,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -6250,10 +6696,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -6261,10 +6707,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -6272,10 +6718,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -6283,10 +6729,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -6294,10 +6740,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -6305,10 +6751,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -6316,10 +6762,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -6327,10 +6773,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -6338,10 +6784,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -6349,10 +6795,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -6360,10 +6806,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -6371,10 +6817,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -6382,10 +6828,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -6393,10 +6839,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -6404,10 +6850,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -6415,10 +6861,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -6426,10 +6872,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -6437,10 +6883,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -6448,10 +6894,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -6459,10 +6905,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -6470,10 +6916,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -6481,10 +6927,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -6492,10 +6938,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -6503,10 +6949,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -6514,10 +6960,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -6525,10 +6971,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -6536,10 +6982,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -6547,10 +6993,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -6558,10 +7004,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -6569,10 +7015,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -6580,10 +7026,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -6591,10 +7037,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -6602,10 +7048,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -6613,10 +7059,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -6624,10 +7070,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -6635,10 +7081,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -6646,10 +7092,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -6657,10 +7103,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -6668,10 +7114,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -6679,10 +7125,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -6690,10 +7136,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -6701,10 +7147,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -6712,10 +7158,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -6723,10 +7169,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -6734,10 +7180,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>523</v>
+        <v>472</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>524</v>
+        <v>472</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -6745,10 +7191,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -6756,10 +7202,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -6767,10 +7213,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -6778,10 +7224,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>494</v>
+        <v>527</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -6789,10 +7235,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -6800,10 +7246,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -6811,10 +7257,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -6822,10 +7268,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -6833,10 +7279,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -6844,10 +7290,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -6855,10 +7301,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -6866,10 +7312,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -6877,10 +7323,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -6888,10 +7334,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -6899,10 +7345,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -6910,10 +7356,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -6921,10 +7367,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -6932,10 +7378,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -6943,10 +7389,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -6954,10 +7400,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -6965,10 +7411,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -6976,10 +7422,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -6987,10 +7433,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -6998,10 +7444,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -7009,10 +7455,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -7020,10 +7466,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -7031,10 +7477,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -7042,10 +7488,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>534</v>
+        <v>649</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>532</v>
+        <v>650</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -7053,10 +7499,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -7064,176 +7510,3236 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C263" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-    </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-      <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
-      <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1"/>
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1"/>
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1"/>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1"/>
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1"/>
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1"/>
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1"/>
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1"/>
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1"/>
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1"/>
+      <c r="B424" s="1"/>
+      <c r="C424" s="1"/>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1"/>
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1"/>
+      <c r="B426" s="1"/>
+      <c r="C426" s="1"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1"/>
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1"/>
+      <c r="B428" s="1"/>
+      <c r="C428" s="1"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1"/>
+      <c r="B429" s="1"/>
+      <c r="C429" s="1"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1"/>
+      <c r="B430" s="1"/>
+      <c r="C430" s="1"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1"/>
+      <c r="B431" s="1"/>
+      <c r="C431" s="1"/>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1"/>
+      <c r="B432" s="1"/>
+      <c r="C432" s="1"/>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1"/>
+      <c r="B433" s="1"/>
+      <c r="C433" s="1"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1"/>
+      <c r="B434" s="1"/>
+      <c r="C434" s="1"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1"/>
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1"/>
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1"/>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1"/>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1"/>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="1"/>
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1"/>
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1"/>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1"/>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1"/>
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1"/>
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1"/>
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1"/>
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1"/>
+      <c r="B448" s="1"/>
+      <c r="C448" s="1"/>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1"/>
+      <c r="B449" s="1"/>
+      <c r="C449" s="1"/>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1"/>
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1"/>
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1"/>
+      <c r="B452" s="1"/>
+      <c r="C452" s="1"/>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1"/>
+      <c r="B453" s="1"/>
+      <c r="C453" s="1"/>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1"/>
+      <c r="B454" s="1"/>
+      <c r="C454" s="1"/>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1"/>
+      <c r="B455" s="1"/>
+      <c r="C455" s="1"/>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1"/>
+      <c r="B456" s="1"/>
+      <c r="C456" s="1"/>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1"/>
+      <c r="B457" s="1"/>
+      <c r="C457" s="1"/>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1"/>
+      <c r="B458" s="1"/>
+      <c r="C458" s="1"/>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1"/>
+      <c r="B459" s="1"/>
+      <c r="C459" s="1"/>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1"/>
+      <c r="B460" s="1"/>
+      <c r="C460" s="1"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1"/>
+      <c r="B461" s="1"/>
+      <c r="C461" s="1"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1"/>
+      <c r="B462" s="1"/>
+      <c r="C462" s="1"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1"/>
+      <c r="B463" s="1"/>
+      <c r="C463" s="1"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1"/>
+      <c r="B464" s="1"/>
+      <c r="C464" s="1"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1"/>
+      <c r="B465" s="1"/>
+      <c r="C465" s="1"/>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1"/>
+      <c r="B466" s="1"/>
+      <c r="C466" s="1"/>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1"/>
+      <c r="B467" s="1"/>
+      <c r="C467" s="1"/>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1"/>
+      <c r="B468" s="1"/>
+      <c r="C468" s="1"/>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1"/>
+      <c r="B469" s="1"/>
+      <c r="C469" s="1"/>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1"/>
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1"/>
+      <c r="B471" s="1"/>
+      <c r="C471" s="1"/>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1"/>
+      <c r="B472" s="1"/>
+      <c r="C472" s="1"/>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1"/>
+      <c r="B473" s="1"/>
+      <c r="C473" s="1"/>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1"/>
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1"/>
+      <c r="B475" s="1"/>
+      <c r="C475" s="1"/>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1"/>
+      <c r="B476" s="1"/>
+      <c r="C476" s="1"/>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1"/>
+      <c r="B477" s="1"/>
+      <c r="C477" s="1"/>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1"/>
+      <c r="B478" s="1"/>
+      <c r="C478" s="1"/>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1"/>
+      <c r="B479" s="1"/>
+      <c r="C479" s="1"/>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1"/>
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1"/>
+      <c r="B481" s="1"/>
+      <c r="C481" s="1"/>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1"/>
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1"/>
+      <c r="B483" s="1"/>
+      <c r="C483" s="1"/>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1"/>
+      <c r="B484" s="1"/>
+      <c r="C484" s="1"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1"/>
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1"/>
+      <c r="B486" s="1"/>
+      <c r="C486" s="1"/>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1"/>
+      <c r="B487" s="1"/>
+      <c r="C487" s="1"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1"/>
+      <c r="B488" s="1"/>
+      <c r="C488" s="1"/>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1"/>
+      <c r="B489" s="1"/>
+      <c r="C489" s="1"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1"/>
+      <c r="B490" s="1"/>
+      <c r="C490" s="1"/>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1"/>
+      <c r="B491" s="1"/>
+      <c r="C491" s="1"/>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1"/>
+      <c r="B492" s="1"/>
+      <c r="C492" s="1"/>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1"/>
+      <c r="B493" s="1"/>
+      <c r="C493" s="1"/>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1"/>
+      <c r="B494" s="1"/>
+      <c r="C494" s="1"/>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1"/>
+      <c r="B495" s="1"/>
+      <c r="C495" s="1"/>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1"/>
+      <c r="B496" s="1"/>
+      <c r="C496" s="1"/>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1"/>
+      <c r="B497" s="1"/>
+      <c r="C497" s="1"/>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1"/>
+      <c r="B498" s="1"/>
+      <c r="C498" s="1"/>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1"/>
+      <c r="B499" s="1"/>
+      <c r="C499" s="1"/>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1"/>
+      <c r="B500" s="1"/>
+      <c r="C500" s="1"/>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1"/>
+      <c r="B501" s="1"/>
+      <c r="C501" s="1"/>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1"/>
+      <c r="B502" s="1"/>
+      <c r="C502" s="1"/>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1"/>
+      <c r="B503" s="1"/>
+      <c r="C503" s="1"/>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1"/>
+      <c r="B504" s="1"/>
+      <c r="C504" s="1"/>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1"/>
+      <c r="B505" s="1"/>
+      <c r="C505" s="1"/>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1"/>
+      <c r="B506" s="1"/>
+      <c r="C506" s="1"/>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1"/>
+      <c r="B507" s="1"/>
+      <c r="C507" s="1"/>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1"/>
+      <c r="B508" s="1"/>
+      <c r="C508" s="1"/>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1"/>
+      <c r="B509" s="1"/>
+      <c r="C509" s="1"/>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1"/>
+      <c r="B510" s="1"/>
+      <c r="C510" s="1"/>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1"/>
+      <c r="B511" s="1"/>
+      <c r="C511" s="1"/>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1"/>
+      <c r="B512" s="1"/>
+      <c r="C512" s="1"/>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513" s="1"/>
+      <c r="B513" s="1"/>
+      <c r="C513" s="1"/>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1"/>
+      <c r="B514" s="1"/>
+      <c r="C514" s="1"/>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1"/>
+      <c r="B515" s="1"/>
+      <c r="C515" s="1"/>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1"/>
+      <c r="B516" s="1"/>
+      <c r="C516" s="1"/>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1"/>
+      <c r="B517" s="1"/>
+      <c r="C517" s="1"/>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1"/>
+      <c r="B518" s="1"/>
+      <c r="C518" s="1"/>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1"/>
+      <c r="B519" s="1"/>
+      <c r="C519" s="1"/>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1"/>
+      <c r="B520" s="1"/>
+      <c r="C520" s="1"/>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1"/>
+      <c r="B521" s="1"/>
+      <c r="C521" s="1"/>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1"/>
+      <c r="B522" s="1"/>
+      <c r="C522" s="1"/>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1"/>
+      <c r="B523" s="1"/>
+      <c r="C523" s="1"/>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1"/>
+      <c r="B524" s="1"/>
+      <c r="C524" s="1"/>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1"/>
+      <c r="B525" s="1"/>
+      <c r="C525" s="1"/>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1"/>
+      <c r="B526" s="1"/>
+      <c r="C526" s="1"/>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1"/>
+      <c r="B527" s="1"/>
+      <c r="C527" s="1"/>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1"/>
+      <c r="B528" s="1"/>
+      <c r="C528" s="1"/>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1"/>
+      <c r="B529" s="1"/>
+      <c r="C529" s="1"/>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1"/>
+      <c r="B530" s="1"/>
+      <c r="C530" s="1"/>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1"/>
+      <c r="B531" s="1"/>
+      <c r="C531" s="1"/>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1"/>
+      <c r="B532" s="1"/>
+      <c r="C532" s="1"/>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1"/>
+      <c r="B533" s="1"/>
+      <c r="C533" s="1"/>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1"/>
+      <c r="B534" s="1"/>
+      <c r="C534" s="1"/>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1"/>
+      <c r="B535" s="1"/>
+      <c r="C535" s="1"/>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1"/>
+      <c r="B536" s="1"/>
+      <c r="C536" s="1"/>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1"/>
+      <c r="B537" s="1"/>
+      <c r="C537" s="1"/>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1"/>
+      <c r="B538" s="1"/>
+      <c r="C538" s="1"/>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1"/>
+      <c r="B539" s="1"/>
+      <c r="C539" s="1"/>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1"/>
+      <c r="B540" s="1"/>
+      <c r="C540" s="1"/>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1"/>
+      <c r="B541" s="1"/>
+      <c r="C541" s="1"/>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1"/>
+      <c r="B542" s="1"/>
+      <c r="C542" s="1"/>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1"/>
+      <c r="B543" s="1"/>
+      <c r="C543" s="1"/>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1"/>
+      <c r="B544" s="1"/>
+      <c r="C544" s="1"/>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1"/>
+      <c r="B545" s="1"/>
+      <c r="C545" s="1"/>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1"/>
+      <c r="B546" s="1"/>
+      <c r="C546" s="1"/>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1"/>
+      <c r="B547" s="1"/>
+      <c r="C547" s="1"/>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1"/>
+      <c r="B548" s="1"/>
+      <c r="C548" s="1"/>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1"/>
+      <c r="B549" s="1"/>
+      <c r="C549" s="1"/>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1"/>
+      <c r="B550" s="1"/>
+      <c r="C550" s="1"/>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1"/>
+      <c r="B551" s="1"/>
+      <c r="C551" s="1"/>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1"/>
+      <c r="B552" s="1"/>
+      <c r="C552" s="1"/>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1"/>
+      <c r="B553" s="1"/>
+      <c r="C553" s="1"/>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1"/>
+      <c r="B554" s="1"/>
+      <c r="C554" s="1"/>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1"/>
+      <c r="B555" s="1"/>
+      <c r="C555" s="1"/>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1"/>
+      <c r="B556" s="1"/>
+      <c r="C556" s="1"/>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1"/>
+      <c r="B557" s="1"/>
+      <c r="C557" s="1"/>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1"/>
+      <c r="B558" s="1"/>
+      <c r="C558" s="1"/>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1"/>
+      <c r="B559" s="1"/>
+      <c r="C559" s="1"/>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1"/>
+      <c r="B560" s="1"/>
+      <c r="C560" s="1"/>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1"/>
+      <c r="B561" s="1"/>
+      <c r="C561" s="1"/>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1"/>
+      <c r="B562" s="1"/>
+      <c r="C562" s="1"/>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1"/>
+      <c r="B563" s="1"/>
+      <c r="C563" s="1"/>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1"/>
+      <c r="B564" s="1"/>
+      <c r="C564" s="1"/>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1"/>
+      <c r="B565" s="1"/>
+      <c r="C565" s="1"/>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1"/>
+      <c r="B566" s="1"/>
+      <c r="C566" s="1"/>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1"/>
+      <c r="B567" s="1"/>
+      <c r="C567" s="1"/>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1"/>
+      <c r="B568" s="1"/>
+      <c r="C568" s="1"/>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1"/>
+      <c r="B569" s="1"/>
+      <c r="C569" s="1"/>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1"/>
+      <c r="B570" s="1"/>
+      <c r="C570" s="1"/>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1"/>
+      <c r="B571" s="1"/>
+      <c r="C571" s="1"/>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1"/>
+      <c r="B572" s="1"/>
+      <c r="C572" s="1"/>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1"/>
+      <c r="B573" s="1"/>
+      <c r="C573" s="1"/>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1"/>
+      <c r="B574" s="1"/>
+      <c r="C574" s="1"/>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1"/>
+      <c r="B575" s="1"/>
+      <c r="C575" s="1"/>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1"/>
+      <c r="B576" s="1"/>
+      <c r="C576" s="1"/>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1"/>
+      <c r="B577" s="1"/>
+      <c r="C577" s="1"/>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1"/>
+      <c r="B578" s="1"/>
+      <c r="C578" s="1"/>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1"/>
+      <c r="B579" s="1"/>
+      <c r="C579" s="1"/>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1"/>
+      <c r="B580" s="1"/>
+      <c r="C580" s="1"/>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1"/>
+      <c r="B581" s="1"/>
+      <c r="C581" s="1"/>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1"/>
+      <c r="B582" s="1"/>
+      <c r="C582" s="1"/>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1"/>
+      <c r="B583" s="1"/>
+      <c r="C583" s="1"/>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1"/>
+      <c r="B584" s="1"/>
+      <c r="C584" s="1"/>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1"/>
+      <c r="B585" s="1"/>
+      <c r="C585" s="1"/>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586" s="1"/>
+      <c r="B586" s="1"/>
+      <c r="C586" s="1"/>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1"/>
+      <c r="B587" s="1"/>
+      <c r="C587" s="1"/>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1"/>
+      <c r="B588" s="1"/>
+      <c r="C588" s="1"/>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1"/>
+      <c r="B589" s="1"/>
+      <c r="C589" s="1"/>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1"/>
+      <c r="B590" s="1"/>
+      <c r="C590" s="1"/>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1"/>
+      <c r="B591" s="1"/>
+      <c r="C591" s="1"/>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1"/>
+      <c r="B592" s="1"/>
+      <c r="C592" s="1"/>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1"/>
+      <c r="B593" s="1"/>
+      <c r="C593" s="1"/>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1"/>
+      <c r="B594" s="1"/>
+      <c r="C594" s="1"/>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1"/>
+      <c r="B595" s="1"/>
+      <c r="C595" s="1"/>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1"/>
+      <c r="B596" s="1"/>
+      <c r="C596" s="1"/>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1"/>
+      <c r="B597" s="1"/>
+      <c r="C597" s="1"/>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1"/>
+      <c r="B598" s="1"/>
+      <c r="C598" s="1"/>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1"/>
+      <c r="B599" s="1"/>
+      <c r="C599" s="1"/>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1"/>
+      <c r="B600" s="1"/>
+      <c r="C600" s="1"/>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1"/>
+      <c r="B601" s="1"/>
+      <c r="C601" s="1"/>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1"/>
+      <c r="B602" s="1"/>
+      <c r="C602" s="1"/>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1"/>
+      <c r="B603" s="1"/>
+      <c r="C603" s="1"/>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1"/>
+      <c r="B604" s="1"/>
+      <c r="C604" s="1"/>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1"/>
+      <c r="B605" s="1"/>
+      <c r="C605" s="1"/>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1"/>
+      <c r="B606" s="1"/>
+      <c r="C606" s="1"/>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1"/>
+      <c r="B607" s="1"/>
+      <c r="C607" s="1"/>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1"/>
+      <c r="B608" s="1"/>
+      <c r="C608" s="1"/>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1"/>
+      <c r="B609" s="1"/>
+      <c r="C609" s="1"/>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1"/>
+      <c r="B610" s="1"/>
+      <c r="C610" s="1"/>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1"/>
+      <c r="B611" s="1"/>
+      <c r="C611" s="1"/>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1"/>
+      <c r="B612" s="1"/>
+      <c r="C612" s="1"/>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1"/>
+      <c r="B613" s="1"/>
+      <c r="C613" s="1"/>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1"/>
+      <c r="B614" s="1"/>
+      <c r="C614" s="1"/>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1"/>
+      <c r="B615" s="1"/>
+      <c r="C615" s="1"/>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1"/>
+      <c r="B616" s="1"/>
+      <c r="C616" s="1"/>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1"/>
+      <c r="B617" s="1"/>
+      <c r="C617" s="1"/>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1"/>
+      <c r="B618" s="1"/>
+      <c r="C618" s="1"/>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1"/>
+      <c r="B619" s="1"/>
+      <c r="C619" s="1"/>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1"/>
+      <c r="B620" s="1"/>
+      <c r="C620" s="1"/>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1"/>
+      <c r="B621" s="1"/>
+      <c r="C621" s="1"/>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1"/>
+      <c r="B622" s="1"/>
+      <c r="C622" s="1"/>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1"/>
+      <c r="B623" s="1"/>
+      <c r="C623" s="1"/>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1"/>
+      <c r="B624" s="1"/>
+      <c r="C624" s="1"/>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1"/>
+      <c r="B625" s="1"/>
+      <c r="C625" s="1"/>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1"/>
+      <c r="B626" s="1"/>
+      <c r="C626" s="1"/>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1"/>
+      <c r="B627" s="1"/>
+      <c r="C627" s="1"/>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1"/>
+      <c r="B628" s="1"/>
+      <c r="C628" s="1"/>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1"/>
+      <c r="B629" s="1"/>
+      <c r="C629" s="1"/>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1"/>
+      <c r="B630" s="1"/>
+      <c r="C630" s="1"/>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1"/>
+      <c r="B631" s="1"/>
+      <c r="C631" s="1"/>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1"/>
+      <c r="B632" s="1"/>
+      <c r="C632" s="1"/>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1"/>
+      <c r="B633" s="1"/>
+      <c r="C633" s="1"/>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1"/>
+      <c r="B634" s="1"/>
+      <c r="C634" s="1"/>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1"/>
+      <c r="B635" s="1"/>
+      <c r="C635" s="1"/>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1"/>
+      <c r="B636" s="1"/>
+      <c r="C636" s="1"/>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1"/>
+      <c r="B637" s="1"/>
+      <c r="C637" s="1"/>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1"/>
+      <c r="B638" s="1"/>
+      <c r="C638" s="1"/>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1"/>
+      <c r="B639" s="1"/>
+      <c r="C639" s="1"/>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1"/>
+      <c r="B640" s="1"/>
+      <c r="C640" s="1"/>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1"/>
+      <c r="B641" s="1"/>
+      <c r="C641" s="1"/>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1"/>
+      <c r="B642" s="1"/>
+      <c r="C642" s="1"/>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1"/>
+      <c r="B643" s="1"/>
+      <c r="C643" s="1"/>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1"/>
+      <c r="B644" s="1"/>
+      <c r="C644" s="1"/>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1"/>
+      <c r="B645" s="1"/>
+      <c r="C645" s="1"/>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1"/>
+      <c r="B646" s="1"/>
+      <c r="C646" s="1"/>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1"/>
+      <c r="B647" s="1"/>
+      <c r="C647" s="1"/>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1"/>
+      <c r="B648" s="1"/>
+      <c r="C648" s="1"/>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1"/>
+      <c r="B649" s="1"/>
+      <c r="C649" s="1"/>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1"/>
+      <c r="B650" s="1"/>
+      <c r="C650" s="1"/>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1"/>
+      <c r="B651" s="1"/>
+      <c r="C651" s="1"/>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1"/>
+      <c r="B652" s="1"/>
+      <c r="C652" s="1"/>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1"/>
+      <c r="B653" s="1"/>
+      <c r="C653" s="1"/>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1"/>
+      <c r="B654" s="1"/>
+      <c r="C654" s="1"/>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1"/>
+      <c r="B655" s="1"/>
+      <c r="C655" s="1"/>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1"/>
+      <c r="B656" s="1"/>
+      <c r="C656" s="1"/>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1"/>
+      <c r="B657" s="1"/>
+      <c r="C657" s="1"/>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1"/>
+      <c r="B658" s="1"/>
+      <c r="C658" s="1"/>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659" s="1"/>
+      <c r="B659" s="1"/>
+      <c r="C659" s="1"/>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1"/>
+      <c r="B660" s="1"/>
+      <c r="C660" s="1"/>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1"/>
+      <c r="B661" s="1"/>
+      <c r="C661" s="1"/>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1"/>
+      <c r="B662" s="1"/>
+      <c r="C662" s="1"/>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1"/>
+      <c r="B663" s="1"/>
+      <c r="C663" s="1"/>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1"/>
+      <c r="B664" s="1"/>
+      <c r="C664" s="1"/>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1"/>
+      <c r="B665" s="1"/>
+      <c r="C665" s="1"/>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1"/>
+      <c r="B666" s="1"/>
+      <c r="C666" s="1"/>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1"/>
+      <c r="B667" s="1"/>
+      <c r="C667" s="1"/>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1"/>
+      <c r="B668" s="1"/>
+      <c r="C668" s="1"/>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1"/>
+      <c r="B669" s="1"/>
+      <c r="C669" s="1"/>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1"/>
+      <c r="B670" s="1"/>
+      <c r="C670" s="1"/>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1"/>
+      <c r="B671" s="1"/>
+      <c r="C671" s="1"/>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1"/>
+      <c r="B672" s="1"/>
+      <c r="C672" s="1"/>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="1"/>
+      <c r="B673" s="1"/>
+      <c r="C673" s="1"/>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="1"/>
+      <c r="B674" s="1"/>
+      <c r="C674" s="1"/>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="1"/>
+      <c r="B675" s="1"/>
+      <c r="C675" s="1"/>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="1"/>
+      <c r="B676" s="1"/>
+      <c r="C676" s="1"/>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="1"/>
+      <c r="B677" s="1"/>
+      <c r="C677" s="1"/>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="1"/>
+      <c r="B678" s="1"/>
+      <c r="C678" s="1"/>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="1"/>
+      <c r="B679" s="1"/>
+      <c r="C679" s="1"/>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="1"/>
+      <c r="B680" s="1"/>
+      <c r="C680" s="1"/>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="1"/>
+      <c r="B681" s="1"/>
+      <c r="C681" s="1"/>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="1"/>
+      <c r="B682" s="1"/>
+      <c r="C682" s="1"/>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="1"/>
+      <c r="B683" s="1"/>
+      <c r="C683" s="1"/>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="1"/>
+      <c r="B684" s="1"/>
+      <c r="C684" s="1"/>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="1"/>
+      <c r="B685" s="1"/>
+      <c r="C685" s="1"/>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="1"/>
+      <c r="B686" s="1"/>
+      <c r="C686" s="1"/>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="1"/>
+      <c r="B687" s="1"/>
+      <c r="C687" s="1"/>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="1"/>
+      <c r="B688" s="1"/>
+      <c r="C688" s="1"/>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="1"/>
+      <c r="B689" s="1"/>
+      <c r="C689" s="1"/>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="1"/>
+      <c r="B690" s="1"/>
+      <c r="C690" s="1"/>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="1"/>
+      <c r="B691" s="1"/>
+      <c r="C691" s="1"/>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="1"/>
+      <c r="B692" s="1"/>
+      <c r="C692" s="1"/>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="1"/>
+      <c r="B693" s="1"/>
+      <c r="C693" s="1"/>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="1"/>
+      <c r="B694" s="1"/>
+      <c r="C694" s="1"/>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="1"/>
+      <c r="B695" s="1"/>
+      <c r="C695" s="1"/>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="1"/>
+      <c r="B696" s="1"/>
+      <c r="C696" s="1"/>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="1"/>
+      <c r="B697" s="1"/>
+      <c r="C697" s="1"/>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="1"/>
+      <c r="B698" s="1"/>
+      <c r="C698" s="1"/>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="1"/>
+      <c r="B699" s="1"/>
+      <c r="C699" s="1"/>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="1"/>
+      <c r="B700" s="1"/>
+      <c r="C700" s="1"/>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="1"/>
+      <c r="B701" s="1"/>
+      <c r="C701" s="1"/>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="1"/>
+      <c r="B702" s="1"/>
+      <c r="C702" s="1"/>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="1"/>
+      <c r="B703" s="1"/>
+      <c r="C703" s="1"/>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="1"/>
+      <c r="B704" s="1"/>
+      <c r="C704" s="1"/>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="1"/>
+      <c r="B705" s="1"/>
+      <c r="C705" s="1"/>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="1"/>
+      <c r="B706" s="1"/>
+      <c r="C706" s="1"/>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="1"/>
+      <c r="B707" s="1"/>
+      <c r="C707" s="1"/>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="1"/>
+      <c r="B708" s="1"/>
+      <c r="C708" s="1"/>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="1"/>
+      <c r="B709" s="1"/>
+      <c r="C709" s="1"/>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="1"/>
+      <c r="B710" s="1"/>
+      <c r="C710" s="1"/>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="1"/>
+      <c r="B711" s="1"/>
+      <c r="C711" s="1"/>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="1"/>
+      <c r="B712" s="1"/>
+      <c r="C712" s="1"/>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="1"/>
+      <c r="B713" s="1"/>
+      <c r="C713" s="1"/>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="1"/>
+      <c r="B714" s="1"/>
+      <c r="C714" s="1"/>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="1"/>
+      <c r="B715" s="1"/>
+      <c r="C715" s="1"/>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="1"/>
+      <c r="B716" s="1"/>
+      <c r="C716" s="1"/>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="1"/>
+      <c r="B717" s="1"/>
+      <c r="C717" s="1"/>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="1"/>
+      <c r="B718" s="1"/>
+      <c r="C718" s="1"/>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="1"/>
+      <c r="B719" s="1"/>
+      <c r="C719" s="1"/>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="1"/>
+      <c r="B720" s="1"/>
+      <c r="C720" s="1"/>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="1"/>
+      <c r="B721" s="1"/>
+      <c r="C721" s="1"/>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="1"/>
+      <c r="B722" s="1"/>
+      <c r="C722" s="1"/>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="1"/>
+      <c r="B723" s="1"/>
+      <c r="C723" s="1"/>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="1"/>
+      <c r="B724" s="1"/>
+      <c r="C724" s="1"/>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="1"/>
+      <c r="B725" s="1"/>
+      <c r="C725" s="1"/>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="1"/>
+      <c r="B726" s="1"/>
+      <c r="C726" s="1"/>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="1"/>
+      <c r="B727" s="1"/>
+      <c r="C727" s="1"/>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="1"/>
+      <c r="B728" s="1"/>
+      <c r="C728" s="1"/>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="1"/>
+      <c r="B729" s="1"/>
+      <c r="C729" s="1"/>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="1"/>
+      <c r="B730" s="1"/>
+      <c r="C730" s="1"/>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="1"/>
+      <c r="B731" s="1"/>
+      <c r="C731" s="1"/>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" s="1"/>
+      <c r="B732" s="1"/>
+      <c r="C732" s="1"/>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" s="1"/>
+      <c r="B733" s="1"/>
+      <c r="C733" s="1"/>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734" s="1"/>
+      <c r="B734" s="1"/>
+      <c r="C734" s="1"/>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735" s="1"/>
+      <c r="B735" s="1"/>
+      <c r="C735" s="1"/>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" s="1"/>
+      <c r="B736" s="1"/>
+      <c r="C736" s="1"/>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" s="1"/>
+      <c r="B737" s="1"/>
+      <c r="C737" s="1"/>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" s="1"/>
+      <c r="B738" s="1"/>
+      <c r="C738" s="1"/>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" s="1"/>
+      <c r="B739" s="1"/>
+      <c r="C739" s="1"/>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" s="1"/>
+      <c r="B740" s="1"/>
+      <c r="C740" s="1"/>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741" s="1"/>
+      <c r="B741" s="1"/>
+      <c r="C741" s="1"/>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" s="1"/>
+      <c r="B742" s="1"/>
+      <c r="C742" s="1"/>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" s="1"/>
+      <c r="B743" s="1"/>
+      <c r="C743" s="1"/>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A744" s="1"/>
+      <c r="B744" s="1"/>
+      <c r="C744" s="1"/>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A745" s="1"/>
+      <c r="B745" s="1"/>
+      <c r="C745" s="1"/>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A746" s="1"/>
+      <c r="B746" s="1"/>
+      <c r="C746" s="1"/>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A747" s="1"/>
+      <c r="B747" s="1"/>
+      <c r="C747" s="1"/>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" s="1"/>
+      <c r="B748" s="1"/>
+      <c r="C748" s="1"/>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" s="1"/>
+      <c r="B749" s="1"/>
+      <c r="C749" s="1"/>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" s="1"/>
+      <c r="B750" s="1"/>
+      <c r="C750" s="1"/>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" s="1"/>
+      <c r="B751" s="1"/>
+      <c r="C751" s="1"/>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" s="1"/>
+      <c r="B752" s="1"/>
+      <c r="C752" s="1"/>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" s="1"/>
+      <c r="B753" s="1"/>
+      <c r="C753" s="1"/>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754" s="1"/>
+      <c r="B754" s="1"/>
+      <c r="C754" s="1"/>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A755" s="1"/>
+      <c r="B755" s="1"/>
+      <c r="C755" s="1"/>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A756" s="1"/>
+      <c r="B756" s="1"/>
+      <c r="C756" s="1"/>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A757" s="1"/>
+      <c r="B757" s="1"/>
+      <c r="C757" s="1"/>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A758" s="1"/>
+      <c r="B758" s="1"/>
+      <c r="C758" s="1"/>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A759" s="1"/>
+      <c r="B759" s="1"/>
+      <c r="C759" s="1"/>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A760" s="1"/>
+      <c r="B760" s="1"/>
+      <c r="C760" s="1"/>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A761" s="1"/>
+      <c r="B761" s="1"/>
+      <c r="C761" s="1"/>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A762" s="1"/>
+      <c r="B762" s="1"/>
+      <c r="C762" s="1"/>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A763" s="1"/>
+      <c r="B763" s="1"/>
+      <c r="C763" s="1"/>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A764" s="1"/>
+      <c r="B764" s="1"/>
+      <c r="C764" s="1"/>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765" s="1"/>
+      <c r="B765" s="1"/>
+      <c r="C765" s="1"/>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A766" s="1"/>
+      <c r="B766" s="1"/>
+      <c r="C766" s="1"/>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A767" s="1"/>
+      <c r="B767" s="1"/>
+      <c r="C767" s="1"/>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A768" s="1"/>
+      <c r="B768" s="1"/>
+      <c r="C768" s="1"/>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" s="1"/>
+      <c r="B769" s="1"/>
+      <c r="C769" s="1"/>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" s="1"/>
+      <c r="B770" s="1"/>
+      <c r="C770" s="1"/>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" s="1"/>
+      <c r="B771" s="1"/>
+      <c r="C771" s="1"/>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" s="1"/>
+      <c r="B772" s="1"/>
+      <c r="C772" s="1"/>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773" s="1"/>
+      <c r="B773" s="1"/>
+      <c r="C773" s="1"/>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774" s="1"/>
+      <c r="B774" s="1"/>
+      <c r="C774" s="1"/>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775" s="1"/>
+      <c r="B775" s="1"/>
+      <c r="C775" s="1"/>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776" s="1"/>
+      <c r="B776" s="1"/>
+      <c r="C776" s="1"/>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777" s="1"/>
+      <c r="B777" s="1"/>
+      <c r="C777" s="1"/>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778" s="1"/>
+      <c r="B778" s="1"/>
+      <c r="C778" s="1"/>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" s="1"/>
+      <c r="B779" s="1"/>
+      <c r="C779" s="1"/>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A780" s="1"/>
+      <c r="B780" s="1"/>
+      <c r="C780" s="1"/>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A781" s="1"/>
+      <c r="B781" s="1"/>
+      <c r="C781" s="1"/>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A782" s="1"/>
+      <c r="B782" s="1"/>
+      <c r="C782" s="1"/>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A783" s="1"/>
+      <c r="B783" s="1"/>
+      <c r="C783" s="1"/>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A784" s="1"/>
+      <c r="B784" s="1"/>
+      <c r="C784" s="1"/>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A785" s="1"/>
+      <c r="B785" s="1"/>
+      <c r="C785" s="1"/>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A786" s="1"/>
+      <c r="B786" s="1"/>
+      <c r="C786" s="1"/>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A787" s="1"/>
+      <c r="B787" s="1"/>
+      <c r="C787" s="1"/>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A788" s="1"/>
+      <c r="B788" s="1"/>
+      <c r="C788" s="1"/>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A789" s="1"/>
+      <c r="B789" s="1"/>
+      <c r="C789" s="1"/>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A790" s="1"/>
+      <c r="B790" s="1"/>
+      <c r="C790" s="1"/>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A791" s="1"/>
+      <c r="B791" s="1"/>
+      <c r="C791" s="1"/>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A792" s="1"/>
+      <c r="B792" s="1"/>
+      <c r="C792" s="1"/>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A793" s="1"/>
+      <c r="B793" s="1"/>
+      <c r="C793" s="1"/>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A794" s="1"/>
+      <c r="B794" s="1"/>
+      <c r="C794" s="1"/>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A795" s="1"/>
+      <c r="B795" s="1"/>
+      <c r="C795" s="1"/>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A796" s="1"/>
+      <c r="B796" s="1"/>
+      <c r="C796" s="1"/>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A797" s="1"/>
+      <c r="B797" s="1"/>
+      <c r="C797" s="1"/>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A798" s="1"/>
+      <c r="B798" s="1"/>
+      <c r="C798" s="1"/>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A799" s="1"/>
+      <c r="B799" s="1"/>
+      <c r="C799" s="1"/>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A800" s="1"/>
+      <c r="B800" s="1"/>
+      <c r="C800" s="1"/>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A801" s="1"/>
+      <c r="B801" s="1"/>
+      <c r="C801" s="1"/>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A802" s="1"/>
+      <c r="B802" s="1"/>
+      <c r="C802" s="1"/>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A803" s="1"/>
+      <c r="B803" s="1"/>
+      <c r="C803" s="1"/>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A804" s="1"/>
+      <c r="B804" s="1"/>
+      <c r="C804" s="1"/>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A805" s="1"/>
+      <c r="B805" s="1"/>
+      <c r="C805" s="1"/>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A806" s="1"/>
+      <c r="B806" s="1"/>
+      <c r="C806" s="1"/>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A807" s="1"/>
+      <c r="B807" s="1"/>
+      <c r="C807" s="1"/>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A808" s="1"/>
+      <c r="B808" s="1"/>
+      <c r="C808" s="1"/>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A809" s="1"/>
+      <c r="B809" s="1"/>
+      <c r="C809" s="1"/>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A810" s="1"/>
+      <c r="B810" s="1"/>
+      <c r="C810" s="1"/>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A811" s="1"/>
+      <c r="B811" s="1"/>
+      <c r="C811" s="1"/>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A812" s="1"/>
+      <c r="B812" s="1"/>
+      <c r="C812" s="1"/>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A813" s="1"/>
+      <c r="B813" s="1"/>
+      <c r="C813" s="1"/>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A814" s="1"/>
+      <c r="B814" s="1"/>
+      <c r="C814" s="1"/>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A815" s="1"/>
+      <c r="B815" s="1"/>
+      <c r="C815" s="1"/>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A816" s="1"/>
+      <c r="B816" s="1"/>
+      <c r="C816" s="1"/>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A817" s="1"/>
+      <c r="B817" s="1"/>
+      <c r="C817" s="1"/>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A818" s="1"/>
+      <c r="B818" s="1"/>
+      <c r="C818" s="1"/>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A819" s="1"/>
+      <c r="B819" s="1"/>
+      <c r="C819" s="1"/>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A820" s="1"/>
+      <c r="B820" s="1"/>
+      <c r="C820" s="1"/>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A821" s="1"/>
+      <c r="B821" s="1"/>
+      <c r="C821" s="1"/>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A822" s="1"/>
+      <c r="B822" s="1"/>
+      <c r="C822" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="775">
   <si>
     <t>myself</t>
   </si>
@@ -2556,12 +2556,494 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Text boxes marked with * are required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>requiredInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Text boxes marked with * are required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>crudeOilDensity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原油密度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterDensity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水密度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naturalGasRelativeDensity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天然气相对密度</t>
+  </si>
+  <si>
+    <t>saturationPressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱和压力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservoirDepth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油层中部深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservoirTemperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油层中部温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservoirDepth_cbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤层中部深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservoirTemperature_cbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤层中部温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubingPressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubingPressure_cbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casingPressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wellHeadTemperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井口温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterCut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含水率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productionGasOilRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产气油比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>producingfluidLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动液面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpSettingDepth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrelType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵筒类型</t>
+  </si>
+  <si>
+    <t>pumpGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵级别</t>
+  </si>
+  <si>
+    <t>pumpBoreDiameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plungerLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱塞长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubingStringInsideDiameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油管内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubingStringOutsideDiameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套管内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级杆类型</t>
+  </si>
+  <si>
+    <t>rodGrade1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级杆级别</t>
+  </si>
+  <si>
+    <t>rodStringOutsideDiameter1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级杆外径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringInsideDiameter1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级杆内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringLength1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级杆长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级杆类型</t>
+  </si>
+  <si>
+    <t>rodGrade2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级杆级别</t>
+  </si>
+  <si>
+    <t>rodStringOutsideDiameter2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级杆外径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringInsideDiameter2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级杆内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringLength2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级杆长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级杆类型</t>
+  </si>
+  <si>
+    <t>rodGrade3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级杆级别</t>
+  </si>
+  <si>
+    <t>rodStringOutsideDiameter3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级杆外径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringInsideDiameter3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级杆内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringLength3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级杆长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级杆类型</t>
+  </si>
+  <si>
+    <t>四级杆级别</t>
+  </si>
+  <si>
+    <t>四级杆外径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级杆内径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四级杆长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manualInterventionCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工况干预</t>
+  </si>
+  <si>
+    <t>netGrossRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净毛比(小数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netGrossValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净毛值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelCorrectValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反演液面校正值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BarrelLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵筒长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BarrelSeries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泵级数</t>
+  </si>
+  <si>
+    <t>RotorDiameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转子直径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公称排量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerComputer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperComputer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RWType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolutionMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower computer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper computer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meaning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculationColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyCalculateColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
   </si>
 </sst>
 </file>
@@ -2628,12 +3110,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2938,7 +3423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -4107,10 +4592,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4625,6 +5110,556 @@
         <v>119</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4633,10 +5668,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C822"/>
+  <dimension ref="A1:C824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C262" sqref="C262"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="C356" sqref="C356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7488,10 +8523,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -8236,10 +9271,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>637</v>
+        <v>745</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>639</v>
+        <v>746</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -8247,10 +9282,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -8258,10 +9293,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -8269,10 +9304,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -8280,136 +9315,286 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="C332" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="1"/>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
-    </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="1"/>
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="1"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="1"/>
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="1"/>
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="1"/>
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="1"/>
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="1"/>
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="1"/>
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="1"/>
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="1"/>
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="1"/>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="1"/>
-      <c r="B344" s="1"/>
-      <c r="C344" s="1"/>
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="1"/>
-      <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="1"/>
-      <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="1"/>
-      <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="1"/>
-      <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="1"/>
-      <c r="B349" s="1"/>
-      <c r="C349" s="1"/>
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="1"/>
-      <c r="B350" s="1"/>
-      <c r="C350" s="1"/>
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="1"/>
-      <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="1"/>
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="1"/>
-      <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="1"/>
-      <c r="B356" s="1"/>
-      <c r="C356" s="1"/>
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
@@ -10740,6 +11925,16 @@
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A823" s="1"/>
+      <c r="B823" s="1"/>
+      <c r="C823" s="1"/>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A824" s="1"/>
+      <c r="B824" s="1"/>
+      <c r="C824" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="819">
   <si>
     <t>myself</t>
   </si>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IDX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3044,6 +3040,184 @@
   </si>
   <si>
     <t>address</t>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceTypeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceTypeRootNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rootNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realtimeMonitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hystersis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retriggerTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchItemAlarmValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>averageSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click the button or double click the table to view the historical data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showHistoryBtnTooltip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realtimeMonitoringExpFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realtime monitoring data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagramSetTooltip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Y-axis coordinate ADAPTS again based on the set maximum and minimum value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yAxisMaxSetValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yAxisMinSetValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmTime</t>
+  </si>
+  <si>
+    <t>模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSDiagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISDiagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveSMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveMail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specificType</t>
   </si>
 </sst>
 </file>
@@ -3421,10 +3595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3435,13 +3609,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3449,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3471,10 +3645,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3482,10 +3656,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3493,10 +3667,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3504,10 +3678,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3515,10 +3689,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3526,10 +3700,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3540,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3551,7 +3725,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3559,10 +3733,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3570,10 +3744,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3581,10 +3755,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3592,10 +3766,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3603,10 +3777,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3614,10 +3788,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3625,10 +3799,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3636,10 +3810,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3647,10 +3821,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3658,10 +3832,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3669,10 +3843,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3680,10 +3854,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3691,10 +3865,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3702,10 +3876,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3713,10 +3887,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3724,10 +3898,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3753,10 +3927,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3764,10 +3938,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3775,10 +3949,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3786,10 +3960,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3797,10 +3971,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3808,10 +3982,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3819,10 +3993,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3830,10 +4004,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3841,10 +4015,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3852,10 +4026,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3863,10 +4037,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3874,10 +4048,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3885,10 +4059,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3896,10 +4070,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3907,10 +4081,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3918,10 +4092,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3929,31 +4103,29 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C47" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -3966,18 +4138,22 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>427</v>
+        <v>4</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>427</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3985,10 +4161,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3996,10 +4172,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -4007,10 +4183,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4018,10 +4194,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>7</v>
+        <v>427</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -4029,10 +4205,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>428</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>428</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4040,10 +4216,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>26</v>
+        <v>323</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>26</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4054,7 +4230,7 @@
         <v>324</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4065,7 +4241,7 @@
         <v>325</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4073,10 +4249,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4084,10 +4260,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4095,10 +4271,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4106,7 +4282,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>331</v>
@@ -4120,7 +4296,7 @@
         <v>333</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4128,10 +4304,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4139,10 +4315,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4150,10 +4326,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4161,10 +4337,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4172,7 +4348,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>341</v>
@@ -4186,7 +4362,7 @@
         <v>343</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4194,10 +4370,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,7 +4384,7 @@
         <v>301</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4227,7 +4403,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>347</v>
@@ -4238,10 +4414,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4249,10 +4425,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>354</v>
+        <v>411</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4260,10 +4436,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -4271,22 +4447,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>417</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
@@ -4392,11 +4562,6 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4421,13 +4586,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4435,10 +4600,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4446,10 +4611,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4457,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -4466,7 +4631,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -4475,7 +4640,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -4606,13 +4771,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4620,10 +4785,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4631,10 +4796,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4642,10 +4807,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4653,10 +4818,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4664,10 +4829,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -4675,10 +4840,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -4686,10 +4851,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4697,10 +4862,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -4708,10 +4873,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4719,10 +4884,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -4730,10 +4895,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -4741,10 +4906,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -4752,10 +4917,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -4763,10 +4928,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4774,10 +4939,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4785,10 +4950,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -4796,10 +4961,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -4807,10 +4972,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4818,10 +4983,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -4829,10 +4994,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -4840,10 +5005,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4851,10 +5016,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -4862,10 +5027,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -4873,10 +5038,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4884,10 +5049,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -4895,10 +5060,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -4906,10 +5071,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -4917,10 +5082,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4928,10 +5093,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4939,10 +5104,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4950,10 +5115,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -4961,10 +5126,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4972,10 +5137,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -4983,10 +5148,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -4994,10 +5159,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5005,10 +5170,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5016,10 +5181,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5027,10 +5192,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5038,10 +5203,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5049,10 +5214,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5060,10 +5225,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5071,10 +5236,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5082,10 +5247,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,10 +5258,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5104,10 +5269,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5115,10 +5280,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5126,10 +5291,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5137,10 +5302,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5148,10 +5313,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5159,10 +5324,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5170,10 +5335,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5181,10 +5346,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5192,10 +5357,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5203,10 +5368,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5214,10 +5379,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -5225,10 +5390,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5236,10 +5401,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5247,10 +5412,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -5258,10 +5423,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -5269,10 +5434,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -5280,10 +5445,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -5291,10 +5456,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -5302,10 +5467,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -5313,10 +5478,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -5324,10 +5489,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -5335,10 +5500,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -5346,10 +5511,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -5357,10 +5522,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -5368,10 +5533,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5379,10 +5544,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5390,10 +5555,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -5401,10 +5566,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -5412,10 +5577,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -5423,10 +5588,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -5434,10 +5599,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5445,10 +5610,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5456,10 +5621,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -5467,10 +5632,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5478,10 +5643,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -5489,10 +5654,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -5500,10 +5665,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -5511,10 +5676,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -5522,10 +5687,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -5533,10 +5698,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5544,10 +5709,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -5555,10 +5720,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -5566,10 +5731,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -5577,10 +5742,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -5588,10 +5753,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -5599,10 +5764,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -5610,10 +5775,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -5621,10 +5786,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>737</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5632,10 +5797,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>739</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -5643,10 +5808,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>741</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -5654,10 +5819,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>743</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -5668,10 +5833,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C824"/>
+  <dimension ref="A1:C844"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="C356" sqref="C356"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="C324" sqref="C324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5682,13 +5847,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5696,10 +5861,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5707,10 +5872,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5718,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5729,10 +5894,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5740,10 +5905,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5751,10 +5916,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5773,10 +5938,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5784,10 +5949,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5795,10 +5960,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5806,10 +5971,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5817,10 +5982,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5828,10 +5993,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5839,10 +6004,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5850,10 +6015,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5861,10 +6026,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5872,10 +6037,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5883,10 +6048,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5894,10 +6059,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5905,10 +6070,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5916,10 +6081,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5927,10 +6092,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>796</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>795</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5938,10 +6103,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5949,10 +6114,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5960,10 +6125,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5971,10 +6136,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>129</v>
+        <v>797</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>128</v>
+        <v>798</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5982,10 +6147,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5993,10 +6158,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -6004,10 +6169,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -6015,10 +6180,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6026,10 +6191,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -6037,10 +6202,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -6048,10 +6213,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6059,10 +6224,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -6070,10 +6235,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>144</v>
+        <v>794</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>145</v>
+        <v>794</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6081,10 +6246,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>146</v>
+        <v>799</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>147</v>
+        <v>799</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6092,10 +6257,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -6103,10 +6268,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -6114,10 +6279,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -6125,10 +6290,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -6136,10 +6301,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6147,10 +6312,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6158,10 +6323,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6169,10 +6334,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>157</v>
+        <v>800</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>157</v>
+        <v>801</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6180,10 +6345,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>158</v>
+        <v>806</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>158</v>
+        <v>804</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6191,10 +6356,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>159</v>
+        <v>807</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>160</v>
+        <v>805</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6202,10 +6367,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>163</v>
+        <v>802</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>169</v>
+        <v>802</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6213,10 +6378,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>164</v>
+        <v>803</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>165</v>
+        <v>803</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6224,10 +6389,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6235,10 +6400,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6246,10 +6411,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6257,10 +6422,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6268,10 +6433,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6279,10 +6444,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6290,10 +6455,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6301,10 +6466,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6312,10 +6477,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6323,10 +6488,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6334,10 +6499,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6345,10 +6510,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>186</v>
+        <v>814</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>186</v>
+        <v>811</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6356,10 +6521,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>218</v>
+        <v>812</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>219</v>
+        <v>812</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6367,10 +6532,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>220</v>
+        <v>813</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>221</v>
+        <v>813</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6378,10 +6543,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6389,10 +6554,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>223</v>
+        <v>176</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6400,10 +6565,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6411,10 +6576,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6422,10 +6587,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6433,10 +6598,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6444,10 +6609,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6455,10 +6620,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -6466,10 +6631,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6477,10 +6642,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6488,10 +6653,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6499,10 +6664,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -6510,10 +6675,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6521,10 +6686,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6532,10 +6697,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>429</v>
+        <v>226</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>429</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6543,10 +6708,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -6554,10 +6719,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -6565,10 +6730,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -6576,10 +6741,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -6587,10 +6752,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -6598,10 +6763,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -6609,10 +6774,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -6620,10 +6785,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -6631,10 +6796,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -6642,10 +6807,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -6653,10 +6818,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -6664,10 +6829,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>256</v>
+        <v>428</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>256</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -6675,10 +6840,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -6686,10 +6851,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -6697,10 +6862,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -6708,10 +6873,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -6719,10 +6884,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>263</v>
+        <v>808</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>263</v>
+        <v>808</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -6730,10 +6895,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>486</v>
+        <v>249</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>487</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -6741,10 +6906,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -6752,10 +6917,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -6763,10 +6928,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -6774,10 +6939,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -6785,10 +6950,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>460</v>
+        <v>253</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>459</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -6796,10 +6961,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -6807,10 +6972,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>476</v>
+        <v>255</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>476</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -6818,10 +6983,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -6829,10 +6994,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>477</v>
+        <v>257</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>477</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -6840,10 +7005,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -6851,10 +7016,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>482</v>
+        <v>260</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>482</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -6862,10 +7027,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -6873,10 +7038,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>272</v>
+        <v>485</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>272</v>
+        <v>486</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -6884,10 +7049,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>273</v>
+        <v>775</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>273</v>
+        <v>775</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -6895,10 +7060,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>274</v>
+        <v>776</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>274</v>
+        <v>777</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -6906,10 +7071,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -6917,10 +7082,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -6928,10 +7093,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -6939,10 +7104,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -6950,10 +7115,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>279</v>
+        <v>459</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>279</v>
+        <v>458</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -6961,10 +7126,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -6972,10 +7137,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>281</v>
+        <v>475</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>281</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -6983,10 +7148,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -6994,10 +7159,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>283</v>
+        <v>476</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>283</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -7005,10 +7170,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -7016,10 +7181,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>285</v>
+        <v>481</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>285</v>
+        <v>481</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -7027,10 +7192,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -7038,10 +7203,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -7049,10 +7214,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -7060,10 +7225,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -7071,10 +7236,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -7082,10 +7247,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>485</v>
+        <v>275</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>484</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -7093,10 +7258,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -7104,10 +7269,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -7115,10 +7280,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>356</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -7126,10 +7291,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>357</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -7137,10 +7302,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>355</v>
+        <v>280</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>358</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -7148,10 +7313,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -7159,10 +7324,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>359</v>
+        <v>282</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>359</v>
+        <v>282</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -7170,10 +7335,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>457</v>
+        <v>283</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>454</v>
+        <v>283</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -7181,10 +7346,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>455</v>
+        <v>284</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>455</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -7192,10 +7357,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>456</v>
+        <v>285</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>456</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -7203,10 +7368,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>474</v>
+        <v>286</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>474</v>
+        <v>287</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -7214,10 +7379,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>475</v>
+        <v>288</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>475</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -7225,10 +7390,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>458</v>
+        <v>292</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>458</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -7236,10 +7401,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>360</v>
+        <v>291</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -7247,10 +7412,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>361</v>
+        <v>484</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>361</v>
+        <v>483</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -7258,10 +7423,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -7269,10 +7434,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -7280,10 +7445,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -7291,10 +7456,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -7302,10 +7467,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -7313,10 +7478,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -7324,10 +7489,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -7335,10 +7500,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>372</v>
+        <v>456</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -7346,10 +7511,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>367</v>
+        <v>454</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>367</v>
+        <v>454</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -7357,10 +7522,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>368</v>
+        <v>455</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>368</v>
+        <v>455</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -7368,10 +7533,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>369</v>
+        <v>473</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>369</v>
+        <v>473</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -7379,10 +7544,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>378</v>
+        <v>474</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>376</v>
+        <v>474</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -7390,10 +7555,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -7401,10 +7566,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -7412,10 +7577,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -7423,10 +7588,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -7434,10 +7599,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -7445,10 +7610,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -7456,10 +7621,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -7467,10 +7632,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -7478,10 +7643,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -7489,10 +7654,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>473</v>
+        <v>370</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>473</v>
+        <v>373</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -7500,10 +7665,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -7511,10 +7676,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -7522,10 +7687,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -7533,10 +7698,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -7544,10 +7709,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -7555,10 +7720,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>393</v>
+        <v>487</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>393</v>
+        <v>488</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -7566,10 +7731,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -7577,10 +7742,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -7588,10 +7753,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -7599,10 +7764,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -7610,10 +7775,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -7621,10 +7786,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -7632,10 +7797,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -7643,10 +7808,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -7654,10 +7819,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>400</v>
+        <v>472</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>400</v>
+        <v>472</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -7665,10 +7830,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -7676,10 +7841,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -7687,10 +7852,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -7698,10 +7863,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -7709,10 +7874,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -7720,10 +7885,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -7731,10 +7896,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -7742,10 +7907,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -7753,10 +7918,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -7764,10 +7929,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -7775,10 +7940,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -7786,10 +7951,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -7797,10 +7962,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -7808,10 +7973,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -7819,10 +7984,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -7830,10 +7995,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -7841,10 +8006,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -7852,10 +8017,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -7863,10 +8028,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -7874,10 +8039,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -7885,10 +8050,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -7896,10 +8061,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -7907,10 +8072,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -7918,10 +8083,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -7929,10 +8094,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -7940,10 +8105,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -7951,10 +8116,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -7962,10 +8127,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -7973,10 +8138,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -7984,10 +8149,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -7995,10 +8160,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -8006,10 +8171,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -8017,10 +8182,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -8028,10 +8193,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -8039,10 +8204,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -8050,10 +8215,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -8061,10 +8226,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -8072,10 +8237,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -8083,10 +8248,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -8094,10 +8259,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>462</v>
+        <v>810</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>462</v>
+        <v>809</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -8105,10 +8270,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -8116,10 +8281,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -8127,10 +8292,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -8138,10 +8303,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -8149,10 +8314,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -8160,10 +8325,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -8171,10 +8336,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -8182,10 +8347,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -8193,10 +8358,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -8204,10 +8369,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -8215,10 +8380,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -8226,10 +8391,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>523</v>
+        <v>451</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>524</v>
+        <v>451</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -8237,10 +8402,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>525</v>
+        <v>452</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>528</v>
+        <v>452</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -8248,10 +8413,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>526</v>
+        <v>442</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>529</v>
+        <v>442</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -8259,10 +8424,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>530</v>
+        <v>460</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -8270,10 +8435,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -8281,10 +8446,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -8292,10 +8457,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -8303,10 +8468,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -8314,10 +8479,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -8325,10 +8490,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -8336,10 +8501,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -8347,10 +8512,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -8358,10 +8523,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -8369,10 +8534,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -8380,10 +8545,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -8391,10 +8556,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -8402,10 +8567,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -8413,10 +8578,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -8424,10 +8589,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -8435,10 +8600,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -8446,10 +8611,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -8457,10 +8622,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -8468,10 +8633,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -8479,10 +8644,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -8490,10 +8655,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -8501,10 +8666,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -8512,10 +8677,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -8523,10 +8688,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>649</v>
+        <v>500</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -8534,10 +8699,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -8545,10 +8710,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -8556,10 +8721,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -8567,10 +8732,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -8578,10 +8743,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -8589,10 +8754,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>547</v>
+        <v>508</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -8600,10 +8765,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>548</v>
+        <v>510</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -8611,10 +8776,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -8622,10 +8787,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>550</v>
+        <v>512</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -8633,10 +8798,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>552</v>
+        <v>515</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -8644,10 +8809,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>553</v>
+        <v>516</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>554</v>
+        <v>516</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -8655,10 +8820,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>555</v>
+        <v>517</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -8666,10 +8831,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>556</v>
+        <v>518</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -8677,10 +8842,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>557</v>
+        <v>519</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -8688,10 +8853,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>558</v>
+        <v>520</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -8699,10 +8864,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>559</v>
+        <v>649</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>560</v>
+        <v>648</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -8710,10 +8875,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>562</v>
+        <v>521</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -8721,10 +8886,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -8732,10 +8897,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>566</v>
+        <v>530</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>566</v>
+        <v>532</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -8743,10 +8908,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -8754,10 +8919,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -8765,10 +8930,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>569</v>
+        <v>815</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>569</v>
+        <v>815</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -8776,10 +8941,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>570</v>
+        <v>816</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>570</v>
+        <v>816</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -8787,10 +8952,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>571</v>
+        <v>817</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>571</v>
+        <v>817</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -8798,10 +8963,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -8809,10 +8974,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>588</v>
+        <v>547</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -8820,10 +8985,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>587</v>
+        <v>548</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -8831,10 +8996,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>575</v>
+        <v>541</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -8842,10 +9007,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -8853,10 +9018,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -8864,10 +9029,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -8875,10 +9040,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -8886,10 +9051,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -8897,10 +9062,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -8908,10 +9073,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -8919,10 +9084,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -8930,10 +9095,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -8941,10 +9106,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -8952,10 +9117,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -8963,10 +9128,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -8974,10 +9139,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -8985,10 +9150,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -8996,10 +9161,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -9007,10 +9172,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -9018,10 +9183,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -9029,10 +9194,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>618</v>
+        <v>573</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -9040,10 +9205,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>620</v>
+        <v>574</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>621</v>
+        <v>574</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -9051,10 +9216,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -9062,10 +9227,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -9073,10 +9238,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -9084,10 +9249,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -9095,10 +9260,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -9106,10 +9271,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -9117,10 +9282,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -9128,10 +9293,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -9139,10 +9304,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -9150,10 +9315,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -9161,10 +9326,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>622</v>
+        <v>585</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>622</v>
+        <v>585</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -9172,10 +9337,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>634</v>
+        <v>588</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>634</v>
+        <v>589</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -9183,10 +9348,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>629</v>
+        <v>592</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -9194,10 +9359,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>630</v>
+        <v>593</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -9205,10 +9370,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>631</v>
+        <v>594</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -9216,10 +9381,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>626</v>
+        <v>595</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>632</v>
+        <v>595</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -9227,10 +9392,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>613</v>
+        <v>596</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -9238,10 +9403,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>628</v>
+        <v>818</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>633</v>
+        <v>818</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -9249,10 +9414,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -9260,10 +9425,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -9271,10 +9436,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>745</v>
+        <v>597</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>746</v>
+        <v>606</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -9282,10 +9447,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>637</v>
+        <v>598</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>639</v>
+        <v>607</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -9293,10 +9458,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>638</v>
+        <v>599</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>640</v>
+        <v>608</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -9304,10 +9469,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>643</v>
+        <v>600</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>644</v>
+        <v>609</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -9315,10 +9480,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -9326,10 +9491,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>647</v>
+        <v>602</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>648</v>
+        <v>611</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -9337,10 +9502,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>747</v>
+        <v>616</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>761</v>
+        <v>612</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -9348,10 +9513,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>748</v>
+        <v>603</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>762</v>
+        <v>613</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -9359,10 +9524,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>749</v>
+        <v>604</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>749</v>
+        <v>614</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -9370,10 +9535,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>751</v>
+        <v>605</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>750</v>
+        <v>615</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -9381,10 +9546,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>752</v>
+        <v>621</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>752</v>
+        <v>621</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -9392,10 +9557,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>753</v>
+        <v>633</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>753</v>
+        <v>633</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -9403,10 +9568,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>754</v>
+        <v>622</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>754</v>
+        <v>628</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -9414,10 +9579,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>755</v>
+        <v>623</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>755</v>
+        <v>629</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -9425,10 +9590,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>756</v>
+        <v>624</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>756</v>
+        <v>630</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -9436,10 +9601,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>757</v>
+        <v>625</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>757</v>
+        <v>631</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -9447,10 +9612,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>758</v>
+        <v>626</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>758</v>
+        <v>612</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -9458,10 +9623,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>759</v>
+        <v>627</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>759</v>
+        <v>632</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -9469,10 +9634,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>760</v>
+        <v>634</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>760</v>
+        <v>641</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -9480,10 +9645,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>763</v>
+        <v>635</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>763</v>
+        <v>640</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -9491,10 +9656,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -9502,10 +9667,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>764</v>
+        <v>636</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>764</v>
+        <v>638</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -9513,10 +9678,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>765</v>
+        <v>637</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>765</v>
+        <v>639</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -9524,10 +9689,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>767</v>
+        <v>642</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>768</v>
+        <v>643</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -9535,10 +9700,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>769</v>
+        <v>644</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>769</v>
+        <v>645</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -9546,10 +9711,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>770</v>
+        <v>646</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>770</v>
+        <v>647</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -9557,10 +9722,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -9568,10 +9733,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -9579,10 +9744,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -9590,186 +9755,396 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C356" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="1"/>
-      <c r="B357" s="1"/>
-      <c r="C357" s="1"/>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="1"/>
-      <c r="B358" s="1"/>
-      <c r="C358" s="1"/>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
-      <c r="C359" s="1"/>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="1"/>
-      <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="1"/>
-      <c r="B361" s="1"/>
-      <c r="C361" s="1"/>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="1"/>
-      <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="1"/>
-      <c r="B363" s="1"/>
-      <c r="C363" s="1"/>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="1"/>
-      <c r="B364" s="1"/>
-      <c r="C364" s="1"/>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="1"/>
-      <c r="B365" s="1"/>
-      <c r="C365" s="1"/>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="1"/>
-      <c r="B366" s="1"/>
-      <c r="C366" s="1"/>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="1"/>
-      <c r="B367" s="1"/>
-      <c r="C367" s="1"/>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="1"/>
-      <c r="B368" s="1"/>
-      <c r="C368" s="1"/>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="1"/>
-      <c r="B369" s="1"/>
-      <c r="C369" s="1"/>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="1"/>
-      <c r="B370" s="1"/>
-      <c r="C370" s="1"/>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="1"/>
-      <c r="B371" s="1"/>
-      <c r="C371" s="1"/>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="1"/>
-      <c r="B372" s="1"/>
-      <c r="C372" s="1"/>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="1"/>
-      <c r="B373" s="1"/>
-      <c r="C373" s="1"/>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="1"/>
-      <c r="B374" s="1"/>
-      <c r="C374" s="1"/>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="1"/>
-      <c r="B375" s="1"/>
-      <c r="C375" s="1"/>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="1"/>
-      <c r="B376" s="1"/>
-      <c r="C376" s="1"/>
+      <c r="C376" s="1" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="1"/>
-      <c r="B377" s="1"/>
-      <c r="C377" s="1"/>
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="1"/>
-      <c r="B378" s="1"/>
-      <c r="C378" s="1"/>
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="1"/>
-      <c r="B379" s="1"/>
-      <c r="C379" s="1"/>
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="1"/>
-      <c r="B380" s="1"/>
-      <c r="C380" s="1"/>
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="1"/>
-      <c r="B381" s="1"/>
-      <c r="C381" s="1"/>
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="1"/>
-      <c r="B382" s="1"/>
-      <c r="C382" s="1"/>
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="1"/>
-      <c r="B383" s="1"/>
-      <c r="C383" s="1"/>
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="1"/>
-      <c r="B384" s="1"/>
-      <c r="C384" s="1"/>
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="1"/>
-      <c r="B385" s="1"/>
-      <c r="C385" s="1"/>
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="1"/>
-      <c r="B386" s="1"/>
-      <c r="C386" s="1"/>
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="1"/>
-      <c r="B387" s="1"/>
-      <c r="C387" s="1"/>
+      <c r="A387" s="1">
+        <v>386</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="1"/>
-      <c r="B388" s="1"/>
-      <c r="C388" s="1"/>
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="1"/>
-      <c r="B389" s="1"/>
-      <c r="C389" s="1"/>
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="1"/>
-      <c r="B390" s="1"/>
-      <c r="C390" s="1"/>
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="1"/>
-      <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
@@ -11935,6 +12310,106 @@
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A825" s="1"/>
+      <c r="B825" s="1"/>
+      <c r="C825" s="1"/>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A826" s="1"/>
+      <c r="B826" s="1"/>
+      <c r="C826" s="1"/>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A827" s="1"/>
+      <c r="B827" s="1"/>
+      <c r="C827" s="1"/>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A828" s="1"/>
+      <c r="B828" s="1"/>
+      <c r="C828" s="1"/>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A829" s="1"/>
+      <c r="B829" s="1"/>
+      <c r="C829" s="1"/>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A830" s="1"/>
+      <c r="B830" s="1"/>
+      <c r="C830" s="1"/>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A831" s="1"/>
+      <c r="B831" s="1"/>
+      <c r="C831" s="1"/>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A832" s="1"/>
+      <c r="B832" s="1"/>
+      <c r="C832" s="1"/>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A833" s="1"/>
+      <c r="B833" s="1"/>
+      <c r="C833" s="1"/>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A834" s="1"/>
+      <c r="B834" s="1"/>
+      <c r="C834" s="1"/>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A835" s="1"/>
+      <c r="B835" s="1"/>
+      <c r="C835" s="1"/>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A836" s="1"/>
+      <c r="B836" s="1"/>
+      <c r="C836" s="1"/>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A837" s="1"/>
+      <c r="B837" s="1"/>
+      <c r="C837" s="1"/>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A838" s="1"/>
+      <c r="B838" s="1"/>
+      <c r="C838" s="1"/>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A839" s="1"/>
+      <c r="B839" s="1"/>
+      <c r="C839" s="1"/>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A840" s="1"/>
+      <c r="B840" s="1"/>
+      <c r="C840" s="1"/>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A841" s="1"/>
+      <c r="B841" s="1"/>
+      <c r="C841" s="1"/>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A842" s="1"/>
+      <c r="B842" s="1"/>
+      <c r="C842" s="1"/>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A843" s="1"/>
+      <c r="B843" s="1"/>
+      <c r="C843" s="1"/>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A844" s="1"/>
+      <c r="B844" s="1"/>
+      <c r="C844" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="language" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="869">
   <si>
     <t>myself</t>
   </si>
@@ -3218,6 +3218,203 @@
   </si>
   <si>
     <t>specificType</t>
+  </si>
+  <si>
+    <t>specificType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteProtocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeAcqModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveAcqModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writeOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editAcqGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteAcqGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>acquisition</t>
+  </si>
+  <si>
+    <t>maxValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avgValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newestValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldestValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyTotalValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType_avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoUrl</t>
+  </si>
+  <si>
+    <t>addVideoKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteVideoKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrelType_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrelType_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringTypeValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringTypeValue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringTypeValue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steel rod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glass steel rod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hollow sucker rod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4757,10 +4954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD96"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5825,6 +6022,61 @@
         <v>743</v>
       </c>
     </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5833,10 +6085,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C844"/>
+  <dimension ref="A1:C865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="C324" sqref="C324"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="C417" sqref="C417:C420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7489,10 +7741,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>358</v>
+        <v>820</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>358</v>
+        <v>826</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -7500,10 +7752,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>456</v>
+        <v>829</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>453</v>
+        <v>821</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -7511,10 +7763,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>454</v>
+        <v>830</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>454</v>
+        <v>822</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -7522,10 +7774,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>455</v>
+        <v>831</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>455</v>
+        <v>823</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -7533,10 +7785,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>473</v>
+        <v>827</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>473</v>
+        <v>824</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -7544,10 +7796,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>474</v>
+        <v>828</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>474</v>
+        <v>825</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -7555,10 +7807,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>457</v>
+        <v>358</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>457</v>
+        <v>358</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -7566,10 +7818,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>359</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -7577,10 +7829,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>360</v>
+        <v>454</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>360</v>
+        <v>454</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -7588,10 +7840,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>361</v>
+        <v>455</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>361</v>
+        <v>455</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -7599,10 +7851,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>362</v>
+        <v>473</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>362</v>
+        <v>473</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -7610,10 +7862,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>363</v>
+        <v>474</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>363</v>
+        <v>474</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -7621,10 +7873,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>364</v>
+        <v>457</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>364</v>
+        <v>457</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -7632,10 +7884,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -7643,10 +7895,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -7654,10 +7906,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>370</v>
+        <v>832</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>373</v>
+        <v>832</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -7665,10 +7917,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>371</v>
+        <v>833</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>374</v>
+        <v>833</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -7676,10 +7928,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -7687,10 +7939,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -7698,10 +7950,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -7709,10 +7961,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -7720,10 +7972,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>487</v>
+        <v>365</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>488</v>
+        <v>365</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -7731,10 +7983,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -7742,10 +7994,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -7753,10 +8005,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -7764,10 +8016,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -7775,10 +8027,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -7786,10 +8038,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -7797,10 +8049,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -7808,10 +8060,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>386</v>
+        <v>487</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>386</v>
+        <v>488</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -7819,10 +8071,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -7830,10 +8082,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -7841,10 +8093,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -7852,10 +8104,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -7863,10 +8115,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -7874,10 +8126,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -7885,10 +8137,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -7896,10 +8148,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -7907,10 +8159,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>393</v>
+        <v>472</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>393</v>
+        <v>472</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -7918,10 +8170,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -7929,10 +8181,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -7940,10 +8192,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -7951,10 +8203,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -7962,10 +8214,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -7973,10 +8225,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -7984,10 +8236,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -7995,10 +8247,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -8006,10 +8258,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -8017,10 +8269,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -8028,10 +8280,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -8039,10 +8291,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -8050,10 +8302,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -8061,10 +8313,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -8072,10 +8324,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -8083,10 +8335,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -8094,10 +8346,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -8105,10 +8357,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -8116,10 +8368,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -8127,10 +8379,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -8138,10 +8390,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -8149,10 +8401,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -8160,10 +8412,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -8171,10 +8423,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -8182,10 +8434,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -8193,10 +8445,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -8204,10 +8456,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -8215,10 +8467,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -8226,10 +8478,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -8237,10 +8489,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -8248,10 +8500,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -8259,10 +8511,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>810</v>
+        <v>434</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>809</v>
+        <v>434</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -8270,10 +8522,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -8281,10 +8533,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -8292,10 +8544,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -8303,10 +8555,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -8314,10 +8566,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -8325,10 +8577,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -8336,10 +8588,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>478</v>
+        <v>441</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -8347,10 +8599,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>448</v>
+        <v>810</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>448</v>
+        <v>809</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -8358,10 +8610,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>449</v>
+        <v>843</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>449</v>
+        <v>843</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -8369,10 +8621,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -8380,10 +8632,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>480</v>
+        <v>444</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -8391,10 +8643,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -8402,10 +8654,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -8413,10 +8665,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>442</v>
+        <v>844</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>442</v>
+        <v>844</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -8424,10 +8676,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -8435,10 +8687,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -8446,10 +8698,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -8457,10 +8709,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -8468,10 +8720,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>482</v>
+        <v>845</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>482</v>
+        <v>845</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -8479,10 +8731,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -8490,10 +8742,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -8501,10 +8753,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -8512,10 +8764,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -8523,10 +8775,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -8534,10 +8786,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -8545,10 +8797,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>470</v>
+        <v>834</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>470</v>
+        <v>834</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -8556,10 +8808,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>471</v>
+        <v>835</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>471</v>
+        <v>835</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -8567,10 +8819,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>522</v>
+        <v>836</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>523</v>
+        <v>836</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -8578,10 +8830,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>524</v>
+        <v>854</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>527</v>
+        <v>847</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -8589,10 +8841,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>525</v>
+        <v>837</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>528</v>
+        <v>837</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -8600,10 +8852,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>526</v>
+        <v>838</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>529</v>
+        <v>838</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -8611,10 +8863,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>493</v>
+        <v>839</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>493</v>
+        <v>839</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -8622,10 +8874,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>494</v>
+        <v>840</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>494</v>
+        <v>840</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -8633,10 +8885,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>495</v>
+        <v>841</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>495</v>
+        <v>841</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -8644,21 +8896,21 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>496</v>
+        <v>842</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>497</v>
+        <v>460</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>497</v>
+        <v>460</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -8666,10 +8918,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>498</v>
+        <v>461</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>498</v>
+        <v>461</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -8677,10 +8929,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>499</v>
+        <v>462</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -8688,10 +8940,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -8699,10 +8951,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -8710,10 +8962,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -8721,10 +8973,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -8732,10 +8984,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -8743,10 +8995,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -8754,10 +9006,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -8765,10 +9017,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -8776,10 +9028,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -8787,10 +9039,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -8798,10 +9050,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -8809,10 +9061,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -8820,10 +9072,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -8831,10 +9083,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -8842,10 +9094,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -8853,10 +9105,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -8864,10 +9116,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>649</v>
+        <v>495</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>648</v>
+        <v>495</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -8875,10 +9127,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -8886,10 +9138,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -8897,10 +9149,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>530</v>
+        <v>498</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -8908,10 +9160,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>534</v>
+        <v>499</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>535</v>
+        <v>499</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -8919,10 +9171,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>537</v>
+        <v>500</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>536</v>
+        <v>500</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -8930,10 +9182,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>815</v>
+        <v>501</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>815</v>
+        <v>501</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -8941,10 +9193,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>816</v>
+        <v>502</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>816</v>
+        <v>502</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -8952,10 +9204,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>817</v>
+        <v>503</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>817</v>
+        <v>503</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -8963,10 +9215,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>546</v>
+        <v>505</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -8974,10 +9226,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -8985,10 +9237,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -8996,10 +9248,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>549</v>
+        <v>510</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -9007,10 +9259,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>551</v>
+        <v>514</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -9018,10 +9270,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -9029,10 +9281,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -9040,10 +9292,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>555</v>
+        <v>516</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -9051,10 +9303,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>556</v>
+        <v>517</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -9062,10 +9314,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -9073,10 +9325,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -9084,10 +9336,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>561</v>
+        <v>520</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -9095,10 +9347,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>562</v>
+        <v>649</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>563</v>
+        <v>648</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -9106,10 +9358,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>565</v>
+        <v>521</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>565</v>
+        <v>521</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -9117,10 +9369,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -9128,10 +9380,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -9139,10 +9391,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>568</v>
+        <v>534</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -9150,10 +9402,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -9161,10 +9413,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>570</v>
+        <v>815</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>570</v>
+        <v>815</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -9172,10 +9424,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>571</v>
+        <v>816</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>571</v>
+        <v>816</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -9183,10 +9435,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>572</v>
+        <v>817</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>587</v>
+        <v>817</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -9194,10 +9446,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>573</v>
+        <v>538</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -9205,10 +9457,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -9216,10 +9468,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>575</v>
+        <v>548</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -9227,10 +9479,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -9238,10 +9490,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -9249,10 +9501,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -9260,10 +9512,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>579</v>
+        <v>542</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -9271,10 +9523,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>580</v>
+        <v>543</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -9282,10 +9534,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>581</v>
+        <v>544</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -9293,10 +9545,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>582</v>
+        <v>545</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -9304,10 +9556,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -9315,10 +9567,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -9326,10 +9578,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -9337,10 +9589,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -9348,10 +9600,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -9359,10 +9611,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>593</v>
+        <v>567</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -9370,10 +9622,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -9381,10 +9633,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>595</v>
+        <v>569</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -9392,10 +9644,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>596</v>
+        <v>570</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -9403,10 +9655,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>818</v>
+        <v>571</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>818</v>
+        <v>571</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -9414,10 +9666,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>617</v>
+        <v>572</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>618</v>
+        <v>587</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -9425,10 +9677,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>619</v>
+        <v>573</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>620</v>
+        <v>586</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -9436,10 +9688,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -9447,10 +9699,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -9458,10 +9710,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>608</v>
+        <v>576</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -9469,10 +9721,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>609</v>
+        <v>577</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -9480,10 +9732,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -9491,10 +9743,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -9502,10 +9754,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -9513,10 +9765,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -9524,10 +9776,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -9535,10 +9787,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -9546,10 +9798,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>621</v>
+        <v>584</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -9557,10 +9809,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -9568,10 +9820,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>628</v>
+        <v>589</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -9579,10 +9831,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>629</v>
+        <v>592</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -9590,10 +9842,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>630</v>
+        <v>593</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -9601,10 +9853,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>631</v>
+        <v>594</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -9612,10 +9864,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>626</v>
+        <v>595</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -9623,10 +9875,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -9634,10 +9886,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>634</v>
+        <v>819</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>641</v>
+        <v>818</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -9645,10 +9897,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -9656,10 +9908,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>744</v>
+        <v>619</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>745</v>
+        <v>620</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -9667,10 +9919,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>636</v>
+        <v>597</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>638</v>
+        <v>606</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -9678,10 +9930,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>637</v>
+        <v>598</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>639</v>
+        <v>607</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -9689,10 +9941,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>642</v>
+        <v>599</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>643</v>
+        <v>608</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -9700,10 +9952,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -9711,10 +9963,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>646</v>
+        <v>601</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>647</v>
+        <v>610</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -9722,10 +9974,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>746</v>
+        <v>602</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>760</v>
+        <v>611</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -9733,10 +9985,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>747</v>
+        <v>616</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>761</v>
+        <v>612</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -9744,10 +9996,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>748</v>
+        <v>603</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>748</v>
+        <v>613</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -9755,10 +10007,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>750</v>
+        <v>604</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>749</v>
+        <v>614</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -9766,10 +10018,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>751</v>
+        <v>605</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>751</v>
+        <v>615</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -9777,10 +10029,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>752</v>
+        <v>621</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>752</v>
+        <v>621</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -9788,10 +10040,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>753</v>
+        <v>633</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>753</v>
+        <v>633</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -9799,10 +10051,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>754</v>
+        <v>622</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>754</v>
+        <v>628</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -9810,10 +10062,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>755</v>
+        <v>623</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>755</v>
+        <v>629</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -9821,10 +10073,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>756</v>
+        <v>624</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>756</v>
+        <v>630</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -9832,10 +10084,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>757</v>
+        <v>625</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>757</v>
+        <v>631</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -9843,10 +10095,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>758</v>
+        <v>626</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>758</v>
+        <v>612</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -9854,10 +10106,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>759</v>
+        <v>627</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>759</v>
+        <v>632</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -9865,10 +10117,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>762</v>
+        <v>634</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>762</v>
+        <v>641</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -9876,10 +10128,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>765</v>
+        <v>635</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>765</v>
+        <v>640</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -9887,10 +10139,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -9898,10 +10150,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>764</v>
+        <v>636</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>764</v>
+        <v>638</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -9909,10 +10161,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>766</v>
+        <v>637</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>767</v>
+        <v>639</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -9920,10 +10172,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>768</v>
+        <v>642</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>768</v>
+        <v>643</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -9931,10 +10183,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>769</v>
+        <v>644</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>769</v>
+        <v>645</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -9942,10 +10194,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>770</v>
+        <v>646</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>770</v>
+        <v>647</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -9953,10 +10205,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -9964,10 +10216,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -9975,10 +10227,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -9986,10 +10238,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>778</v>
+        <v>749</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -9997,10 +10249,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -10008,10 +10260,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -10019,10 +10271,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -10030,10 +10282,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -10041,10 +10293,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -10052,10 +10304,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -10063,10 +10315,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -10074,10 +10326,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -10085,10 +10337,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>788</v>
+        <v>759</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -10096,10 +10348,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>789</v>
+        <v>762</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>789</v>
+        <v>762</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -10107,10 +10359,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -10118,10 +10370,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -10129,10 +10381,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -10140,156 +10392,330 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>392</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>393</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1">
+        <v>394</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1">
+        <v>395</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1">
+        <v>396</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1">
+        <v>397</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1">
+        <v>398</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>399</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1">
+        <v>400</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1">
+        <v>401</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1">
+        <v>402</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1">
+        <v>403</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1">
+        <v>404</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1">
+        <v>405</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1">
+        <v>406</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1">
+        <v>407</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1">
+        <v>408</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1">
+        <v>409</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>410</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1">
+        <v>411</v>
+      </c>
+      <c r="B412" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="C391" s="1" t="s">
+      <c r="C412" s="1" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="1"/>
-      <c r="B392" s="1"/>
-      <c r="C392" s="1"/>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="1"/>
-      <c r="B393" s="1"/>
-      <c r="C393" s="1"/>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="1"/>
-      <c r="B394" s="1"/>
-      <c r="C394" s="1"/>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="1"/>
-      <c r="B395" s="1"/>
-      <c r="C395" s="1"/>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="1"/>
-      <c r="B396" s="1"/>
-      <c r="C396" s="1"/>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="1"/>
-      <c r="B397" s="1"/>
-      <c r="C397" s="1"/>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="1"/>
-      <c r="B398" s="1"/>
-      <c r="C398" s="1"/>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="1"/>
-      <c r="B399" s="1"/>
-      <c r="C399" s="1"/>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="1"/>
-      <c r="B400" s="1"/>
-      <c r="C400" s="1"/>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="1"/>
-      <c r="B401" s="1"/>
-      <c r="C401" s="1"/>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="1"/>
-      <c r="B402" s="1"/>
-      <c r="C402" s="1"/>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="1"/>
-      <c r="B403" s="1"/>
-      <c r="C403" s="1"/>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="1"/>
-      <c r="B404" s="1"/>
-      <c r="C404" s="1"/>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="1"/>
-      <c r="B405" s="1"/>
-      <c r="C405" s="1"/>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="1"/>
-      <c r="B406" s="1"/>
-      <c r="C406" s="1"/>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="1"/>
-      <c r="B407" s="1"/>
-      <c r="C407" s="1"/>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="1"/>
-      <c r="B408" s="1"/>
-      <c r="C408" s="1"/>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="1"/>
-      <c r="B409" s="1"/>
-      <c r="C409" s="1"/>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="1"/>
-      <c r="B410" s="1"/>
-      <c r="C410" s="1"/>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="1"/>
-      <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="1"/>
-      <c r="B412" s="1"/>
-      <c r="C412" s="1"/>
-    </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="1"/>
-      <c r="B413" s="1"/>
-      <c r="C413" s="1"/>
+      <c r="A413" s="1">
+        <v>412</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="1"/>
-      <c r="B414" s="1"/>
-      <c r="C414" s="1"/>
+      <c r="A414" s="1">
+        <v>413</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="1"/>
-      <c r="B415" s="1"/>
-      <c r="C415" s="1"/>
+      <c r="A415" s="1">
+        <v>414</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="1"/>
-      <c r="B416" s="1"/>
-      <c r="C416" s="1"/>
+      <c r="A416" s="1">
+        <v>415</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>853</v>
+      </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" s="1"/>
-      <c r="B417" s="1"/>
-      <c r="C417" s="1"/>
+      <c r="A417" s="1">
+        <v>416</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="1"/>
-      <c r="B418" s="1"/>
-      <c r="C418" s="1"/>
+      <c r="A418" s="1">
+        <v>417</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="1"/>
-      <c r="B419" s="1"/>
-      <c r="C419" s="1"/>
+      <c r="A419" s="1">
+        <v>418</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="1"/>
-      <c r="B420" s="1"/>
-      <c r="C420" s="1"/>
+      <c r="A420" s="1">
+        <v>419</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
@@ -12410,6 +12836,111 @@
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A845" s="1"/>
+      <c r="B845" s="1"/>
+      <c r="C845" s="1"/>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A846" s="1"/>
+      <c r="B846" s="1"/>
+      <c r="C846" s="1"/>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A847" s="1"/>
+      <c r="B847" s="1"/>
+      <c r="C847" s="1"/>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A848" s="1"/>
+      <c r="B848" s="1"/>
+      <c r="C848" s="1"/>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A849" s="1"/>
+      <c r="B849" s="1"/>
+      <c r="C849" s="1"/>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A850" s="1"/>
+      <c r="B850" s="1"/>
+      <c r="C850" s="1"/>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A851" s="1"/>
+      <c r="B851" s="1"/>
+      <c r="C851" s="1"/>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A852" s="1"/>
+      <c r="B852" s="1"/>
+      <c r="C852" s="1"/>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A853" s="1"/>
+      <c r="B853" s="1"/>
+      <c r="C853" s="1"/>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A854" s="1"/>
+      <c r="B854" s="1"/>
+      <c r="C854" s="1"/>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A855" s="1"/>
+      <c r="B855" s="1"/>
+      <c r="C855" s="1"/>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A856" s="1"/>
+      <c r="B856" s="1"/>
+      <c r="C856" s="1"/>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A857" s="1"/>
+      <c r="B857" s="1"/>
+      <c r="C857" s="1"/>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A858" s="1"/>
+      <c r="B858" s="1"/>
+      <c r="C858" s="1"/>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A859" s="1"/>
+      <c r="B859" s="1"/>
+      <c r="C859" s="1"/>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A860" s="1"/>
+      <c r="B860" s="1"/>
+      <c r="C860" s="1"/>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A861" s="1"/>
+      <c r="B861" s="1"/>
+      <c r="C861" s="1"/>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A862" s="1"/>
+      <c r="B862" s="1"/>
+      <c r="C862" s="1"/>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A863" s="1"/>
+      <c r="B863" s="1"/>
+      <c r="C863" s="1"/>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A864" s="1"/>
+      <c r="B864" s="1"/>
+      <c r="C864" s="1"/>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A865" s="1"/>
+      <c r="B865" s="1"/>
+      <c r="C865" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="1016">
   <si>
     <t>myself</t>
   </si>
@@ -2564,172 +2564,613 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原油密度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>waterDensity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>水密度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>naturalGasRelativeDensity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天然气相对密度</t>
-  </si>
-  <si>
     <t>saturationPressure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>饱和压力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reservoirDepth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>油层中部深度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reservoirTemperature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>油层中部温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reservoirDepth_cbm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>煤层中部深度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reservoirTemperature_cbm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>煤层中部温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tubingPressure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>油压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tubingPressure_cbm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>casingPressure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>套压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wellHeadTemperature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>井口温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>waterCut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>含水率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>productionGasOilRatio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生产气油比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>producingfluidLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动液面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pumpSettingDepth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泵挂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>barrelType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泵筒类型</t>
-  </si>
-  <si>
     <t>pumpGrade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泵级别</t>
-  </si>
-  <si>
     <t>pumpBoreDiameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泵径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>plungerLength</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>柱塞长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tubingStringInsideDiameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>油管内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tubingStringOutsideDiameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>套管内径</t>
+    <t>manualInterventionCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netGrossRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netGrossValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelCorrectValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BarrelLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BarrelSeries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotorDiameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerComputer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperComputer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RWType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acqMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resolutionMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower computer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper computer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meaning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculationColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmLogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyCalculateColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceTypeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceTypeRootNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rootNode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realtimeMonitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hystersis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retriggerTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>switchItemAlarmValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>averageSign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click the button or double click the table to view the historical data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showHistoryBtnTooltip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realtimeMonitoringExpFileName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>realtime monitoring data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diagramSetTooltip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Y-axis coordinate ADAPTS again based on the set maximum and minimum value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yAxisMaxSetValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yAxisMinSetValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alarmTime</t>
+  </si>
+  <si>
+    <t>模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSDiagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISDiagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagramOverlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveSMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveMail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specificType</t>
+  </si>
+  <si>
+    <t>specificType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteProtocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeAcqModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveAcqModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writeOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readWrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editAcqGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteAcqGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>acquisition</t>
+  </si>
+  <si>
+    <t>maxValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avgValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newestValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldestValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailyTotalValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceHourlyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceDailyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaDailyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType_avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveStatType_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>videoUrl</t>
+  </si>
+  <si>
+    <t>addVideoKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteVideoKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrelType_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrelType_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringTypeValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringTypeValue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringTypeValue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steel rod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glass steel rod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hollow sucker rod</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2737,684 +3178,829 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一级杆类型</t>
-  </si>
-  <si>
     <t>rodGrade1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一级杆级别</t>
-  </si>
-  <si>
     <t>rodStringOutsideDiameter1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一级杆外径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rodStringInsideDiameter1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一级杆内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rodStringLength1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一级杆长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级杆类型</t>
+    <t>rodStringType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rodGrade2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二级杆级别</t>
-  </si>
-  <si>
     <t>rodStringOutsideDiameter2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二级杆外径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rodStringInsideDiameter2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二级杆内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rodStringLength2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二级杆长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rodStringType3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三级杆类型</t>
-  </si>
-  <si>
     <t>rodGrade3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三级杆级别</t>
-  </si>
-  <si>
     <t>rodStringOutsideDiameter3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三级杆外径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rodStringInsideDiameter3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三级杆内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rodStringLength3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三级杆长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级杆类型</t>
-  </si>
-  <si>
-    <t>四级杆级别</t>
-  </si>
-  <si>
-    <t>四级杆外径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级杆内径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四级杆长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manualInterventionCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工况干预</t>
-  </si>
-  <si>
-    <t>netGrossRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净毛比(小数)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netGrossValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净毛值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelCorrectValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反演液面校正值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BarrelLength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵筒长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BarrelSeries</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泵级数</t>
-  </si>
-  <si>
-    <t>RotorDiameter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转子直径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QPR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公称排量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataColumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lowerComputer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upperComputer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>variable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeDataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RWType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acqMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IFDataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resolutionMode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lower computer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upper computer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meaning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calculationColumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmLogic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailyCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailyCalculateColumn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>columnSort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataSort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceTypeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceTypeRootNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rootNode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>realtimeMonitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>historyQuery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curveConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upperLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lowerLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hystersis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>retriggerTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmSign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>switchItemAlarmValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trigger state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataSource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sumSign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>averageSign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curveStatType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click the button or double click the table to view the historical data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showHistoryBtnTooltip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>realtimeMonitoringExpFileName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>realtime monitoring data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diagramSetTooltip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Y-axis coordinate ADAPTS again based on the set maximum and minimum value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yAxisMaxSetValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yAxisMinSetValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alarmTime</t>
-  </si>
-  <si>
-    <t>模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSDiagramOverlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSDiagramOverlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISDiagramOverlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSDiagramOverlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveSMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveMail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>specificType</t>
-  </si>
-  <si>
-    <t>specificType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteProtocol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete protocol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activeAcqModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passiveAcqModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>readOnly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>writeOnly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>readWrite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editAcqGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteAcqGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>acquisition</t>
-  </si>
-  <si>
-    <t>maxValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avgValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newestValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldestValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailyTotalValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceHourlyReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deviceDailyReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaDailyReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curveStatType_sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curveStatType_avg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>avg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curveStatType_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curveStatType_min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sumValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>videoKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>videoUrl</t>
-  </si>
-  <si>
-    <t>addVideoKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteVideoKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>barrelType_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>barrelType_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringTypeValue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringTypeValue2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodStringTypeValue3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>steel rod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>glass steel rod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hollow sucker rod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>rodStringType4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodGrade4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringOutsideDiameter4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringInsideDiameter4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodStringLength4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noIntervention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noIntervention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balanceInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yAxisPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectYAxisPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yAxisPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colorSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curveColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lineWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lineDash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectLineDash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameplateStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crankRotationDirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offsetAngleOfCrank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crankGravityRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleCrankWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleCrankPinWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structuralUnbalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balanceWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balancePosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotationDirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clockwise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anticlockwise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommTime</t>
+  </si>
+  <si>
+    <t>CommTimeEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunTimeEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fmax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlungerStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvailablePlungerStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoLiquidAvailablePlungerStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullnessCoefficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoLiquidFullnessCoefficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpperLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LowerLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpperLoadLineOfExact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheoreticalProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiquidVolumetricProduction</t>
+  </si>
+  <si>
+    <t>OilVolumetricProduction</t>
+  </si>
+  <si>
+    <t>WaterVolumetricProduction</t>
+  </si>
+  <si>
+    <t>AvailablePlungerStrokeProd_v</t>
+  </si>
+  <si>
+    <t>PumpClearanceleakProd_v</t>
+  </si>
+  <si>
+    <t>TVLeakVolumetricProduction</t>
+  </si>
+  <si>
+    <t>SVLeakVolumetricProduction</t>
+  </si>
+  <si>
+    <t>GasInfluenceProd_v</t>
+  </si>
+  <si>
+    <t>LiquidVolumetricProduction_l</t>
+  </si>
+  <si>
+    <t>OilVolumetricProduction_l</t>
+  </si>
+  <si>
+    <t>WaterVolumetricProduction_l</t>
+  </si>
+  <si>
+    <t>LiquidWeightProduction</t>
+  </si>
+  <si>
+    <t>OilWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvailablePlungerStrokeProd_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpClearanceleakProd_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVLeakWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVLeakWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GasInfluenceProd_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiquidWeightProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OilWeightProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterWeightProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AverageWatt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolishRodPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SurfaceSystemEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WellDownSystemEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyPer100mLift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RodFlexLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TubingFlexLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InertiaLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpEff1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpEff2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpEff3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpEff4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpEff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpIntakeP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpIntakeT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpIntakeGOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpIntakeVisl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpIntakeBo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpOutletP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpOutletT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpOutletGOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpOutletVisl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PumpOutletBo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpStrokeIMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownStrokeIMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpStrokeWattMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownStrokeWattMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDegreeBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WattDegreeBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeltaRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelDifferenceValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalcProducingfluidLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submergence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commTimeEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runTimeEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plungerStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>availablePlungerStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noLiquidAvailablePlungerStroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fullnessCoefficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noLiquidFullnessCoefficient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lowerLoadLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upperLoadLineOfExact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theoreticalProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidVolumetricProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oilVolumetricProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterVolumetricProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>availablePlungerStrokeProd_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpClearanceleakProd_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gasInfluenceProd_v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidVolumetricProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oilVolumetricProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterVolumetricProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oilWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>availablePlungerStrokeProd_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpClearanceleakProd_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVLeakWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVLeakWeightProduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gasInfluenceProd_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liquidWeightProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oilWeightProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterWeightProduction_l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>averageWatt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>polishRodPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surfaceSystemEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wellDownSystemEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyPer100mLift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodFlexLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tubingFlexLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inertiaLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeGOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeVisl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpIntakeBo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletGOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletVisl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpOutletBo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStrokeIMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downStrokeIMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upStrokeWattMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>downStrokeWattMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iDegreeBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wattDegreeBalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deltaRadius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelDifferenceValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calcProducingfluidLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submergence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff1_pcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpEff2_pcp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BottomHolePressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottomHolePressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPM</t>
   </si>
 </sst>
 </file>
@@ -4954,10 +5540,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5480,7 +6066,7 @@
         <v>650</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5488,10 +6074,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5499,10 +6085,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5510,10 +6096,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5521,10 +6107,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5532,10 +6118,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5543,10 +6129,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5554,10 +6140,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5565,10 +6151,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5576,10 +6162,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -5587,10 +6173,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5598,10 +6184,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5609,10 +6195,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -5620,10 +6206,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -5631,10 +6217,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -5642,10 +6228,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -5653,10 +6239,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -5664,10 +6250,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -5675,10 +6261,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -5686,10 +6272,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -5697,10 +6283,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>691</v>
+        <v>670</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -5708,10 +6294,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>692</v>
+        <v>671</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>693</v>
+        <v>671</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -5719,10 +6305,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>694</v>
+        <v>805</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>695</v>
+        <v>805</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -5730,10 +6316,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>696</v>
+        <v>806</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5741,10 +6327,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>698</v>
+        <v>807</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>699</v>
+        <v>807</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5752,10 +6338,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>700</v>
+        <v>808</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>701</v>
+        <v>808</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -5763,10 +6349,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>702</v>
+        <v>809</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>703</v>
+        <v>809</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -5774,10 +6360,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>694</v>
+        <v>810</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>704</v>
+        <v>810</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -5785,10 +6371,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>705</v>
+        <v>811</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>706</v>
+        <v>811</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -5796,10 +6382,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>707</v>
+        <v>812</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>708</v>
+        <v>812</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5807,10 +6393,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>709</v>
+        <v>813</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>710</v>
+        <v>813</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5818,10 +6404,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>711</v>
+        <v>814</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>712</v>
+        <v>814</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -5829,10 +6415,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>713</v>
+        <v>815</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>714</v>
+        <v>815</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5840,10 +6426,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>715</v>
+        <v>816</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>716</v>
+        <v>816</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -5851,10 +6437,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>717</v>
+        <v>817</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>718</v>
+        <v>817</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -5862,10 +6448,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>719</v>
+        <v>818</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>720</v>
+        <v>818</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -5873,10 +6459,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>721</v>
+        <v>819</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>722</v>
+        <v>819</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -5884,10 +6470,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>713</v>
+        <v>820</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>723</v>
+        <v>820</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -5895,10 +6481,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>715</v>
+        <v>821</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>724</v>
+        <v>821</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5906,10 +6492,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>717</v>
+        <v>822</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>725</v>
+        <v>822</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -5917,10 +6503,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>719</v>
+        <v>823</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>726</v>
+        <v>823</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -5928,10 +6514,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>721</v>
+        <v>824</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>727</v>
+        <v>824</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -5939,10 +6525,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>728</v>
+        <v>672</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>729</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -5950,10 +6536,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>730</v>
+        <v>673</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>731</v>
+        <v>673</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -5961,10 +6547,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>732</v>
+        <v>674</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>733</v>
+        <v>674</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -5972,10 +6558,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>735</v>
+        <v>675</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -5983,10 +6569,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>737</v>
+        <v>676</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -5994,10 +6580,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>739</v>
+        <v>677</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -6005,10 +6591,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>741</v>
+        <v>678</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -6016,10 +6602,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>743</v>
+        <v>679</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -6027,10 +6613,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>859</v>
+        <v>795</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>861</v>
+        <v>797</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -6038,10 +6624,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>860</v>
+        <v>796</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>862</v>
+        <v>798</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -6049,10 +6635,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>863</v>
+        <v>799</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>866</v>
+        <v>802</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -6060,10 +6646,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>864</v>
+        <v>800</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>867</v>
+        <v>803</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -6071,10 +6657,1077 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C101" s="1" t="s">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>868</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -6087,8 +7740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C865"/>
   <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="C417" sqref="C417:C420"/>
+    <sheetView topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="B434" sqref="B434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6344,10 +7997,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>796</v>
+        <v>732</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>795</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6388,10 +8041,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>797</v>
+        <v>733</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>798</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -6487,10 +8140,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>794</v>
+        <v>730</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>794</v>
+        <v>730</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -6498,10 +8151,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>799</v>
+        <v>735</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>799</v>
+        <v>735</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -6586,10 +8239,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>800</v>
+        <v>736</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>801</v>
+        <v>737</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6597,10 +8250,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>806</v>
+        <v>742</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>804</v>
+        <v>740</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6608,10 +8261,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>807</v>
+        <v>743</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>805</v>
+        <v>741</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6619,10 +8272,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>802</v>
+        <v>738</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>802</v>
+        <v>738</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6630,10 +8283,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>803</v>
+        <v>739</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>803</v>
+        <v>739</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6762,10 +8415,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>814</v>
+        <v>750</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>811</v>
+        <v>747</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6773,10 +8426,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>812</v>
+        <v>748</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>812</v>
+        <v>748</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6784,10 +8437,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>813</v>
+        <v>749</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>813</v>
+        <v>749</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -7136,10 +8789,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>808</v>
+        <v>744</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>808</v>
+        <v>744</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -7301,10 +8954,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>775</v>
+        <v>711</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>775</v>
+        <v>711</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -7312,10 +8965,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>776</v>
+        <v>712</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>777</v>
+        <v>713</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -7741,10 +9394,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>820</v>
+        <v>756</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>826</v>
+        <v>762</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -7752,10 +9405,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>829</v>
+        <v>765</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>821</v>
+        <v>757</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -7763,10 +9416,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>830</v>
+        <v>766</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>822</v>
+        <v>758</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -7774,10 +9427,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>831</v>
+        <v>767</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>823</v>
+        <v>759</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -7785,10 +9438,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>827</v>
+        <v>763</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>824</v>
+        <v>760</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -7796,10 +9449,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>828</v>
+        <v>764</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>825</v>
+        <v>761</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -7906,10 +9559,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>832</v>
+        <v>768</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>832</v>
+        <v>768</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -7917,10 +9570,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>833</v>
+        <v>769</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>833</v>
+        <v>769</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -8599,10 +10252,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>810</v>
+        <v>746</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>809</v>
+        <v>745</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -8610,10 +10263,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>843</v>
+        <v>779</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>843</v>
+        <v>779</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -8665,10 +10318,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>844</v>
+        <v>780</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>844</v>
+        <v>780</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -8720,10 +10373,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>845</v>
+        <v>781</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>845</v>
+        <v>781</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -8797,10 +10450,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>834</v>
+        <v>770</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>834</v>
+        <v>770</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -8808,10 +10461,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>835</v>
+        <v>771</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>835</v>
+        <v>771</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -8819,10 +10472,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>836</v>
+        <v>772</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>836</v>
+        <v>772</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -8830,10 +10483,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>854</v>
+        <v>790</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>847</v>
+        <v>783</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -8841,10 +10494,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>837</v>
+        <v>773</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>837</v>
+        <v>773</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -8852,10 +10505,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>838</v>
+        <v>774</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>838</v>
+        <v>774</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -8863,10 +10516,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>839</v>
+        <v>775</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>839</v>
+        <v>775</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -8874,10 +10527,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>840</v>
+        <v>776</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>840</v>
+        <v>776</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -8885,10 +10538,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>841</v>
+        <v>777</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>841</v>
+        <v>777</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -8896,10 +10549,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>842</v>
+        <v>778</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>842</v>
+        <v>778</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -9413,10 +11066,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>815</v>
+        <v>751</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>815</v>
+        <v>751</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -9424,10 +11077,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>816</v>
+        <v>752</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>816</v>
+        <v>752</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -9435,10 +11088,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>817</v>
+        <v>753</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>817</v>
+        <v>753</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -9886,10 +11539,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>819</v>
+        <v>755</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>818</v>
+        <v>754</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -10139,10 +11792,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>744</v>
+        <v>680</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>745</v>
+        <v>681</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -10205,10 +11858,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>746</v>
+        <v>682</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>760</v>
+        <v>696</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -10216,10 +11869,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>747</v>
+        <v>683</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>761</v>
+        <v>697</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -10227,10 +11880,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>748</v>
+        <v>684</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>748</v>
+        <v>684</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -10238,10 +11891,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>750</v>
+        <v>686</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>749</v>
+        <v>685</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -10249,10 +11902,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>751</v>
+        <v>687</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>751</v>
+        <v>687</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -10260,10 +11913,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>752</v>
+        <v>688</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>752</v>
+        <v>688</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -10271,10 +11924,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>753</v>
+        <v>689</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>753</v>
+        <v>689</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -10282,10 +11935,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>754</v>
+        <v>690</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>754</v>
+        <v>690</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -10293,10 +11946,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>755</v>
+        <v>691</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>755</v>
+        <v>691</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -10304,10 +11957,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>756</v>
+        <v>692</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>756</v>
+        <v>692</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -10315,10 +11968,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>757</v>
+        <v>693</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>757</v>
+        <v>693</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -10326,10 +11979,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>758</v>
+        <v>694</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>758</v>
+        <v>694</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -10337,10 +11990,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>759</v>
+        <v>695</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>759</v>
+        <v>695</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -10348,10 +12001,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>762</v>
+        <v>698</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>762</v>
+        <v>698</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -10359,10 +12012,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>765</v>
+        <v>701</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>765</v>
+        <v>701</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -10370,10 +12023,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>763</v>
+        <v>699</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>763</v>
+        <v>699</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -10381,10 +12034,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>764</v>
+        <v>700</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>764</v>
+        <v>700</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -10392,10 +12045,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>766</v>
+        <v>702</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>767</v>
+        <v>703</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -10403,10 +12056,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>768</v>
+        <v>704</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>768</v>
+        <v>704</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -10414,10 +12067,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>769</v>
+        <v>705</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>769</v>
+        <v>705</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -10425,10 +12078,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>770</v>
+        <v>706</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>770</v>
+        <v>706</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -10436,10 +12089,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>771</v>
+        <v>707</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>771</v>
+        <v>707</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -10447,10 +12100,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>772</v>
+        <v>708</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>772</v>
+        <v>708</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -10458,10 +12111,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>774</v>
+        <v>710</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>773</v>
+        <v>709</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -10469,10 +12122,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>778</v>
+        <v>714</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>778</v>
+        <v>714</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -10480,10 +12133,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>779</v>
+        <v>715</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>779</v>
+        <v>715</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -10491,10 +12144,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>780</v>
+        <v>716</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>780</v>
+        <v>716</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -10502,10 +12155,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>781</v>
+        <v>717</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>781</v>
+        <v>717</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -10513,10 +12166,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>782</v>
+        <v>718</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>782</v>
+        <v>718</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -10524,10 +12177,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>783</v>
+        <v>719</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>783</v>
+        <v>719</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -10535,10 +12188,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>784</v>
+        <v>720</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>784</v>
+        <v>720</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -10546,10 +12199,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>785</v>
+        <v>721</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>785</v>
+        <v>721</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -10557,10 +12210,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>786</v>
+        <v>722</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>786</v>
+        <v>722</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -10568,10 +12221,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>787</v>
+        <v>723</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>788</v>
+        <v>724</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -10579,10 +12232,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>789</v>
+        <v>725</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>789</v>
+        <v>725</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -10590,10 +12243,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>790</v>
+        <v>726</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>790</v>
+        <v>726</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -10601,10 +12254,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>791</v>
+        <v>727</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>791</v>
+        <v>727</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -10612,10 +12265,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>792</v>
+        <v>728</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>792</v>
+        <v>728</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -10623,10 +12276,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>793</v>
+        <v>729</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>793</v>
+        <v>729</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -10634,10 +12287,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>846</v>
+        <v>782</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>847</v>
+        <v>783</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -10645,10 +12298,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>848</v>
+        <v>784</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>849</v>
+        <v>785</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -10656,10 +12309,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>850</v>
+        <v>786</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>851</v>
+        <v>787</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -10667,10 +12320,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>852</v>
+        <v>788</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>853</v>
+        <v>789</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -10678,10 +12331,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>855</v>
+        <v>791</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>855</v>
+        <v>791</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -10689,10 +12342,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>856</v>
+        <v>792</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>856</v>
+        <v>792</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -10700,10 +12353,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>857</v>
+        <v>793</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>857</v>
+        <v>793</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -10711,81 +12364,165 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>858</v>
+        <v>794</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>858</v>
+        <v>794</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" s="1"/>
-      <c r="B421" s="1"/>
-      <c r="C421" s="1"/>
+      <c r="A421" s="1">
+        <v>420</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422" s="1"/>
-      <c r="B422" s="1"/>
-      <c r="C422" s="1"/>
+      <c r="A422" s="1">
+        <v>421</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" s="1"/>
-      <c r="B423" s="1"/>
-      <c r="C423" s="1"/>
+      <c r="A423" s="1">
+        <v>422</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="1"/>
-      <c r="B424" s="1"/>
-      <c r="C424" s="1"/>
+      <c r="A424" s="1">
+        <v>423</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" s="1"/>
-      <c r="B425" s="1"/>
-      <c r="C425" s="1"/>
+      <c r="A425" s="1">
+        <v>424</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="1"/>
-      <c r="B426" s="1"/>
-      <c r="C426" s="1"/>
+      <c r="A426" s="1">
+        <v>425</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="1"/>
-      <c r="B427" s="1"/>
-      <c r="C427" s="1"/>
+      <c r="A427" s="1">
+        <v>426</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" s="1"/>
-      <c r="B428" s="1"/>
-      <c r="C428" s="1"/>
+      <c r="A428" s="1">
+        <v>427</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="1"/>
-      <c r="B429" s="1"/>
-      <c r="C429" s="1"/>
+      <c r="A429" s="1">
+        <v>428</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="1"/>
-      <c r="B430" s="1"/>
-      <c r="C430" s="1"/>
+      <c r="A430" s="1">
+        <v>429</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="1"/>
-      <c r="B431" s="1"/>
-      <c r="C431" s="1"/>
+      <c r="A431" s="1">
+        <v>430</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" s="1"/>
-      <c r="B432" s="1"/>
-      <c r="C432" s="1"/>
+      <c r="A432" s="1">
+        <v>431</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433" s="1"/>
-      <c r="B433" s="1"/>
-      <c r="C433" s="1"/>
+      <c r="A433" s="1">
+        <v>432</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="1"/>
-      <c r="B434" s="1"/>
-      <c r="C434" s="1"/>
+      <c r="A434" s="1">
+        <v>433</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>1011</v>
+      </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="language" sheetId="1" r:id="rId1"/>
     <sheet name="oem" sheetId="2" r:id="rId2"/>
     <sheet name="calculate" sheetId="3" r:id="rId3"/>
     <sheet name="module" sheetId="4" r:id="rId4"/>
+    <sheet name="tbl_code" sheetId="5" r:id="rId5"/>
+    <sheet name="worktype" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1226">
   <si>
     <t>myself</t>
   </si>
@@ -4001,6 +4003,652 @@
   </si>
   <si>
     <t>RPM</t>
+  </si>
+  <si>
+    <t>IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEMCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEMNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEMVALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLECODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>添加设备</t>
+  </si>
+  <si>
+    <t>修改设备</t>
+  </si>
+  <si>
+    <t>删除设备</t>
+  </si>
+  <si>
+    <t>控制设备</t>
+  </si>
+  <si>
+    <t>APPLICATIONSCENARIOS</t>
+  </si>
+  <si>
+    <t>煤层气井</t>
+  </si>
+  <si>
+    <t>应用场景</t>
+  </si>
+  <si>
+    <t>油井</t>
+  </si>
+  <si>
+    <t>BJJB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>一级报警</t>
+  </si>
+  <si>
+    <t>二级报警</t>
+  </si>
+  <si>
+    <t>三级报警</t>
+  </si>
+  <si>
+    <t>BJJB</t>
+  </si>
+  <si>
+    <t>离线</t>
+  </si>
+  <si>
+    <t>BJLX</t>
+  </si>
+  <si>
+    <t>通信报警</t>
+  </si>
+  <si>
+    <t>采集报警</t>
+  </si>
+  <si>
+    <t>视频和RFID报警</t>
+  </si>
+  <si>
+    <t>视频报警</t>
+  </si>
+  <si>
+    <t>RFID报警</t>
+  </si>
+  <si>
+    <t>工况报警</t>
+  </si>
+  <si>
+    <t>平衡报警</t>
+  </si>
+  <si>
+    <t>设备报警</t>
+  </si>
+  <si>
+    <t>载荷传感器报警</t>
+  </si>
+  <si>
+    <t>压力传感器报警</t>
+  </si>
+  <si>
+    <t>温度传感器报警</t>
+  </si>
+  <si>
+    <t>波动报警</t>
+  </si>
+  <si>
+    <t>电参报警</t>
+  </si>
+  <si>
+    <t>运行状态报警</t>
+  </si>
+  <si>
+    <t>BJQJYS</t>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc2828</t>
+  </si>
+  <si>
+    <t>f09614</t>
+  </si>
+  <si>
+    <t>fae600</t>
+  </si>
+  <si>
+    <t>BJYS</t>
+  </si>
+  <si>
+    <t>00ff00</t>
+  </si>
+  <si>
+    <t>#808080</t>
+  </si>
+  <si>
+    <t>BJYSTMD</t>
+  </si>
+  <si>
+    <t>BJYSTMD3</t>
+  </si>
+  <si>
+    <t>BJZT</t>
+  </si>
+  <si>
+    <t>报警</t>
+  </si>
+  <si>
+    <t>DEVICETYPE</t>
+  </si>
+  <si>
+    <t>抽油机</t>
+  </si>
+  <si>
+    <t>螺杆泵</t>
+  </si>
+  <si>
+    <t>短信设备</t>
+  </si>
+  <si>
+    <t>JSBZ</t>
+  </si>
+  <si>
+    <t>请求数据读取失败</t>
+  </si>
+  <si>
+    <t>请求数据解码失败</t>
+  </si>
+  <si>
+    <t>井数许可超限</t>
+  </si>
+  <si>
+    <t>计算异常</t>
+  </si>
+  <si>
+    <t>相应数据编码失败</t>
+  </si>
+  <si>
+    <t>数据校验错误</t>
+  </si>
+  <si>
+    <t>未计算</t>
+  </si>
+  <si>
+    <t>计算成功</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>zh_CN</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>LiftingType</t>
+  </si>
+  <si>
+    <t>自喷</t>
+  </si>
+  <si>
+    <t>泡排</t>
+  </si>
+  <si>
+    <t>常规抽油机</t>
+  </si>
+  <si>
+    <t>异相型抽油机</t>
+  </si>
+  <si>
+    <t>双驴头抽油机</t>
+  </si>
+  <si>
+    <t>下偏杠铃抽油机</t>
+  </si>
+  <si>
+    <t>调径变矩抽油机</t>
+  </si>
+  <si>
+    <t>立式皮带机</t>
+  </si>
+  <si>
+    <t>立式链条机</t>
+  </si>
+  <si>
+    <t>直线驱抽油机</t>
+  </si>
+  <si>
+    <t>电潜泵</t>
+  </si>
+  <si>
+    <t>地面驱螺杆泵</t>
+  </si>
+  <si>
+    <t>井下驱螺杆泵</t>
+  </si>
+  <si>
+    <t>水力活塞泵</t>
+  </si>
+  <si>
+    <t>水力射流泵</t>
+  </si>
+  <si>
+    <t>气举</t>
+  </si>
+  <si>
+    <t>柱塞气举</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>MD_TYPE</t>
+  </si>
+  <si>
+    <t>启用模块</t>
+  </si>
+  <si>
+    <t>备用模块</t>
+  </si>
+  <si>
+    <t>ORG_TYPE</t>
+  </si>
+  <si>
+    <t>集团</t>
+  </si>
+  <si>
+    <t>局级</t>
+  </si>
+  <si>
+    <t>厂级</t>
+  </si>
+  <si>
+    <t>矿级</t>
+  </si>
+  <si>
+    <t>队级</t>
+  </si>
+  <si>
+    <t>工区</t>
+  </si>
+  <si>
+    <t>集气站</t>
+  </si>
+  <si>
+    <t>PROTOCOL</t>
+  </si>
+  <si>
+    <t>modbus-tcp</t>
+  </si>
+  <si>
+    <t>modbus-rtu</t>
+  </si>
+  <si>
+    <t>ROLE_FLAG</t>
+  </si>
+  <si>
+    <t>下属部门</t>
+  </si>
+  <si>
+    <t>SYSTEMACTION</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>用户退出</t>
+  </si>
+  <si>
+    <t>驱动配置</t>
+  </si>
+  <si>
+    <t>模块访问</t>
+  </si>
+  <si>
+    <t>数据导出</t>
+  </si>
+  <si>
+    <t>TXBJQJYS</t>
+  </si>
+  <si>
+    <t>6c6262</t>
+  </si>
+  <si>
+    <t>TXBJYS</t>
+  </si>
+  <si>
+    <t>TXBJYSTMD</t>
+  </si>
+  <si>
+    <t>USER_TITLE</t>
+  </si>
+  <si>
+    <t>中控室</t>
+  </si>
+  <si>
+    <t>工况巡检一组</t>
+  </si>
+  <si>
+    <t>工况巡检二组</t>
+  </si>
+  <si>
+    <t>工况巡检三组</t>
+  </si>
+  <si>
+    <t>工况巡检四组</t>
+  </si>
+  <si>
+    <t>USER_TYPE</t>
+  </si>
+  <si>
+    <t>数据分析员</t>
+  </si>
+  <si>
+    <t>系统管理员</t>
+  </si>
+  <si>
+    <t>数据管理员</t>
+  </si>
+  <si>
+    <t>YXBJQJYS</t>
+  </si>
+  <si>
+    <t>YXBJYS</t>
+  </si>
+  <si>
+    <t>YXBJYSTMD</t>
+  </si>
+  <si>
+    <t>alarmType</t>
+  </si>
+  <si>
+    <t>开关量报警</t>
+  </si>
+  <si>
+    <t>枚举量报警</t>
+  </si>
+  <si>
+    <t>数据量报警</t>
+  </si>
+  <si>
+    <t>通信状态报警</t>
+  </si>
+  <si>
+    <t>IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULENAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTDESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTTEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTIMIZATIONSUGGESTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽喷</t>
+  </si>
+  <si>
+    <t>图形在下理论载荷线附近，呈条带状；动液面接近于井口；产量较高，接近或大于理论排量。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>图形呈平行四边形；充满系数≥0.6。</t>
+  </si>
+  <si>
+    <t>充满不足</t>
+  </si>
+  <si>
+    <t>图形四角明显呈角度；增、卸载线平行；0.3≤充满系数﹤0.6。</t>
+  </si>
+  <si>
+    <t>供液不足</t>
+  </si>
+  <si>
+    <t>图形四角明显呈角度；0.1≤充满系数﹤0.3；沉没度较低。</t>
+  </si>
+  <si>
+    <t>间抽或降低冲次</t>
+  </si>
+  <si>
+    <t>供液极差</t>
+  </si>
+  <si>
+    <t>图形下面部分呈角度；充满系数﹤0.1。</t>
+  </si>
+  <si>
+    <t>抽空</t>
+  </si>
+  <si>
+    <t>图形呈条状；产量为零。</t>
+  </si>
+  <si>
+    <t>泵下堵</t>
+  </si>
+  <si>
+    <t>充满系数﹤0.3；沉没度较高。</t>
+  </si>
+  <si>
+    <t>洗井或加药</t>
+  </si>
+  <si>
+    <t>气锁</t>
+  </si>
+  <si>
+    <t>图形靠近上理论载荷线；增、卸载过程缓慢，卸载线平缓；产量为零。</t>
+  </si>
+  <si>
+    <t>合理控制气体</t>
+  </si>
+  <si>
+    <t>气影响</t>
+  </si>
+  <si>
+    <t>图形四角圆滑呈弧度，气油比越高，圆弧的曲率半径越大；增载缓慢，增、卸载线不明显。</t>
+  </si>
+  <si>
+    <t>间隙漏</t>
+  </si>
+  <si>
+    <t>图形上部分倾斜；图形上、下载荷线不平行。</t>
+  </si>
+  <si>
+    <t>检泵</t>
+  </si>
+  <si>
+    <t>油管漏</t>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在下理论载荷线附近；产量下降。</t>
+  </si>
+  <si>
+    <t>油管打压试验</t>
+  </si>
+  <si>
+    <t>游动凡尔漏失</t>
+  </si>
+  <si>
+    <t>图形上部分圆滑、缺损；上载荷线低于上理论载荷线；增载过程缓慢，卸载提前。</t>
+  </si>
+  <si>
+    <t>洗井、碰泵或检泵</t>
+  </si>
+  <si>
+    <t>固定凡尔漏失</t>
+  </si>
+  <si>
+    <t>图形下部分圆滑、缺损；下载荷线高于下理论载荷线；增载提前，卸载过程缓慢。</t>
+  </si>
+  <si>
+    <t>双凡尔漏失</t>
+  </si>
+  <si>
+    <t>图形呈椭圆状；图形在上、下理论载荷线之间；漏失严重时，油井不出油。</t>
+  </si>
+  <si>
+    <t>游动凡尔失灵/油管漏</t>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在下理论载荷线附近；产量为零。</t>
+  </si>
+  <si>
+    <t>洗井、碰泵或检泵/打压、更换油管</t>
+  </si>
+  <si>
+    <t>固定凡尔失灵</t>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在上理论载荷线附近；产量为零。</t>
+  </si>
+  <si>
+    <t>双凡尔失灵</t>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在上、下理论载荷线之间；产量为零。</t>
+  </si>
+  <si>
+    <t>上死点别、碰</t>
+  </si>
+  <si>
+    <t>图形右上角凸起。</t>
+  </si>
+  <si>
+    <t>校正井口设备</t>
+  </si>
+  <si>
+    <t>碰泵</t>
+  </si>
+  <si>
+    <t>图形左下角拖尾。</t>
+  </si>
+  <si>
+    <t>上提（增大）防冲距</t>
+  </si>
+  <si>
+    <t>活塞/底部断脱/未入工作筒</t>
+  </si>
+  <si>
+    <t>检泵/下放（缩小）防冲距</t>
+  </si>
+  <si>
+    <t>柱塞脱出工作筒</t>
+  </si>
+  <si>
+    <t>图形右边缺损；右下角拖尾；增载过程中突然卸载。</t>
+  </si>
+  <si>
+    <t>下放（缩小）防冲距</t>
+  </si>
+  <si>
+    <t>杆断脱</t>
+  </si>
+  <si>
+    <t>图形呈条带状，两端尖；图形在下理论载荷线下方，断杆位置距井口越近图形越下移；产量突然为零。</t>
+  </si>
+  <si>
+    <t>替换抽油杆</t>
+  </si>
+  <si>
+    <t>杆(泵)卡</t>
+  </si>
+  <si>
+    <t>图形呈斜条带状；可通过图形拐点找到被卡位置；油井不出油。</t>
+  </si>
+  <si>
+    <t>洗井或检泵</t>
+  </si>
+  <si>
+    <t>结蜡</t>
+  </si>
+  <si>
+    <t>图形肥大；产量下降。</t>
+  </si>
+  <si>
+    <t>严重结蜡</t>
+  </si>
+  <si>
+    <t>出砂</t>
+  </si>
+  <si>
+    <t>图形呈不规则、不重复的锯齿状；油井出油正常。</t>
+  </si>
+  <si>
+    <t>防砂</t>
+  </si>
+  <si>
+    <t>严重出砂</t>
+  </si>
+  <si>
+    <t>惯性载荷大</t>
+  </si>
+  <si>
+    <t>图形顺时针偏转。</t>
+  </si>
+  <si>
+    <t>降低冲次</t>
+  </si>
+  <si>
+    <t>应力超标</t>
+  </si>
+  <si>
+    <t>优化抽油杆柱组合</t>
+  </si>
+  <si>
+    <t>采集异常</t>
+  </si>
+  <si>
+    <t>检查采集仪表</t>
+  </si>
+  <si>
+    <t>停抽</t>
   </si>
 </sst>
 </file>
@@ -4067,7 +4715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4077,6 +4725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5542,7 +6191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+    <sheetView topLeftCell="A188" workbookViewId="0">
       <selection activeCell="A118" sqref="A118:A198"/>
     </sheetView>
   </sheetViews>
@@ -14684,4 +15333,2922 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G133"/>
+  <sheetViews>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D10" s="1">
+        <v>200</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D11" s="1">
+        <v>300</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D12" s="1">
+        <v>400</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D14" s="1">
+        <v>200</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D15" s="1">
+        <v>300</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D16" s="1">
+        <v>301</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D17" s="1">
+        <v>302</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D18" s="1">
+        <v>303</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D19" s="1">
+        <v>400</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D20" s="1">
+        <v>500</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D21" s="1">
+        <v>600</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D22" s="1">
+        <v>601</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D23" s="1">
+        <v>602</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D24" s="1">
+        <v>603</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D25" s="1">
+        <v>700</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D26" s="1">
+        <v>800</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D27" s="1">
+        <v>900</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D29" s="1">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D30" s="1">
+        <v>200</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D31" s="1">
+        <v>300</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D33" s="1">
+        <v>100</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D34" s="1">
+        <v>200</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D35" s="1">
+        <v>300</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D36" s="1">
+        <v>400</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>100</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>200</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>300</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>100</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>200</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>300</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D47" s="1">
+        <v>101</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D48" s="1">
+        <v>201</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D49" s="1">
+        <v>300</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-44</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-55</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-66</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-77</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-88</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-99</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D61" s="1">
+        <v>100</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D62" s="1">
+        <v>101</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D63" s="1">
+        <v>200</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D64" s="1">
+        <v>201</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D65" s="1">
+        <v>202</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D66" s="1">
+        <v>203</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D67" s="1">
+        <v>204</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D68" s="1">
+        <v>205</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D69" s="1">
+        <v>206</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D70" s="1">
+        <v>207</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D71" s="1">
+        <v>208</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D72" s="1">
+        <v>300</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D73" s="1">
+        <v>400</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D74" s="1">
+        <v>401</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D75" s="1">
+        <v>402</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D76" s="1">
+        <v>500</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D77" s="1">
+        <v>600</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D78" s="1">
+        <v>700</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D79" s="1">
+        <v>701</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D80" s="1">
+        <v>800</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D86" s="1">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D87" s="1">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D88" s="1">
+        <v>5</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D89" s="1">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D90" s="1">
+        <v>7</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D97" s="1">
+        <v>2</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D99" s="1">
+        <v>4</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C106" s="5">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C107" s="5">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C108" s="5">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D111" s="1">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D112" s="1">
+        <v>3</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D113" s="1">
+        <v>4</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D114" s="1">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D122" s="1">
+        <v>1</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C124" s="5">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C125" s="5">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C126" s="5">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D129" s="1">
+        <v>2</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D130" s="1">
+        <v>3</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D131" s="1">
+        <v>4</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D132" s="1">
+        <v>5</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D133" s="1">
+        <v>6</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="93.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1201</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1202</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1203</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1204</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1205</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1206</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1207</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1208</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1209</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1210</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1211</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1212</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1213</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1214</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1215</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1216</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1217</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1218</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1219</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1220</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1221</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1222</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1223</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1224</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1225</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1226</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1227</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1230</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1231</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1232</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1302</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="language" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1183">
   <si>
     <t>myself</t>
   </si>
@@ -4009,646 +4009,531 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ITEMNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEMVALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLECODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>APPLICATIONSCENARIOS</t>
+  </si>
+  <si>
+    <t>煤层气井</t>
+  </si>
+  <si>
+    <t>应用场景</t>
+  </si>
+  <si>
+    <t>油井</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>工况报警</t>
+  </si>
+  <si>
+    <t>运行状态报警</t>
+  </si>
+  <si>
+    <t>BJQJYS</t>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc2828</t>
+  </si>
+  <si>
+    <t>f09614</t>
+  </si>
+  <si>
+    <t>fae600</t>
+  </si>
+  <si>
+    <t>BJYS</t>
+  </si>
+  <si>
+    <t>00ff00</t>
+  </si>
+  <si>
+    <t>#808080</t>
+  </si>
+  <si>
+    <t>BJYSTMD</t>
+  </si>
+  <si>
+    <t>BJYSTMD3</t>
+  </si>
+  <si>
+    <t>DEVICETYPE</t>
+  </si>
+  <si>
+    <t>抽油机</t>
+  </si>
+  <si>
+    <t>螺杆泵</t>
+  </si>
+  <si>
+    <t>短信设备</t>
+  </si>
+  <si>
+    <t>请求数据读取失败</t>
+  </si>
+  <si>
+    <t>请求数据解码失败</t>
+  </si>
+  <si>
+    <t>井数许可超限</t>
+  </si>
+  <si>
+    <t>计算异常</t>
+  </si>
+  <si>
+    <t>相应数据编码失败</t>
+  </si>
+  <si>
+    <t>数据校验错误</t>
+  </si>
+  <si>
+    <t>未计算</t>
+  </si>
+  <si>
+    <t>计算成功</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>zh_CN</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>MD_TYPE</t>
+  </si>
+  <si>
+    <t>PROTOCOL</t>
+  </si>
+  <si>
+    <t>modbus-tcp</t>
+  </si>
+  <si>
+    <t>modbus-rtu</t>
+  </si>
+  <si>
+    <t>SYSTEMACTION</t>
+  </si>
+  <si>
+    <t>TXBJQJYS</t>
+  </si>
+  <si>
+    <t>6c6262</t>
+  </si>
+  <si>
+    <t>TXBJYS</t>
+  </si>
+  <si>
+    <t>TXBJYSTMD</t>
+  </si>
+  <si>
+    <t>USER_TITLE</t>
+  </si>
+  <si>
+    <t>中控室</t>
+  </si>
+  <si>
+    <t>工况巡检一组</t>
+  </si>
+  <si>
+    <t>工况巡检二组</t>
+  </si>
+  <si>
+    <t>工况巡检三组</t>
+  </si>
+  <si>
+    <t>工况巡检四组</t>
+  </si>
+  <si>
+    <t>USER_TYPE</t>
+  </si>
+  <si>
+    <t>数据分析员</t>
+  </si>
+  <si>
+    <t>系统管理员</t>
+  </si>
+  <si>
+    <t>数据管理员</t>
+  </si>
+  <si>
+    <t>YXBJQJYS</t>
+  </si>
+  <si>
+    <t>YXBJYS</t>
+  </si>
+  <si>
+    <t>YXBJYSTMD</t>
+  </si>
+  <si>
+    <t>alarmType</t>
+  </si>
+  <si>
+    <t>开关量报警</t>
+  </si>
+  <si>
+    <t>枚举量报警</t>
+  </si>
+  <si>
+    <t>数据量报警</t>
+  </si>
+  <si>
+    <t>通信状态报警</t>
+  </si>
+  <si>
+    <t>IDX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULENAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTDESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTTEMPLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTIMIZATIONSUGGESTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽喷</t>
+  </si>
+  <si>
+    <t>图形在下理论载荷线附近，呈条带状；动液面接近于井口；产量较高，接近或大于理论排量。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>图形呈平行四边形；充满系数≥0.6。</t>
+  </si>
+  <si>
+    <t>充满不足</t>
+  </si>
+  <si>
+    <t>图形四角明显呈角度；增、卸载线平行；0.3≤充满系数﹤0.6。</t>
+  </si>
+  <si>
+    <t>供液不足</t>
+  </si>
+  <si>
+    <t>图形四角明显呈角度；0.1≤充满系数﹤0.3；沉没度较低。</t>
+  </si>
+  <si>
+    <t>间抽或降低冲次</t>
+  </si>
+  <si>
+    <t>供液极差</t>
+  </si>
+  <si>
+    <t>图形下面部分呈角度；充满系数﹤0.1。</t>
+  </si>
+  <si>
+    <t>抽空</t>
+  </si>
+  <si>
+    <t>图形呈条状；产量为零。</t>
+  </si>
+  <si>
+    <t>泵下堵</t>
+  </si>
+  <si>
+    <t>充满系数﹤0.3；沉没度较高。</t>
+  </si>
+  <si>
+    <t>洗井或加药</t>
+  </si>
+  <si>
+    <t>气锁</t>
+  </si>
+  <si>
+    <t>图形靠近上理论载荷线；增、卸载过程缓慢，卸载线平缓；产量为零。</t>
+  </si>
+  <si>
+    <t>合理控制气体</t>
+  </si>
+  <si>
+    <t>气影响</t>
+  </si>
+  <si>
+    <t>图形四角圆滑呈弧度，气油比越高，圆弧的曲率半径越大；增载缓慢，增、卸载线不明显。</t>
+  </si>
+  <si>
+    <t>间隙漏</t>
+  </si>
+  <si>
+    <t>图形上部分倾斜；图形上、下载荷线不平行。</t>
+  </si>
+  <si>
+    <t>检泵</t>
+  </si>
+  <si>
+    <t>油管漏</t>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在下理论载荷线附近；产量下降。</t>
+  </si>
+  <si>
+    <t>油管打压试验</t>
+  </si>
+  <si>
+    <t>游动凡尔漏失</t>
+  </si>
+  <si>
+    <t>图形上部分圆滑、缺损；上载荷线低于上理论载荷线；增载过程缓慢，卸载提前。</t>
+  </si>
+  <si>
+    <t>洗井、碰泵或检泵</t>
+  </si>
+  <si>
+    <t>固定凡尔漏失</t>
+  </si>
+  <si>
+    <t>图形下部分圆滑、缺损；下载荷线高于下理论载荷线；增载提前，卸载过程缓慢。</t>
+  </si>
+  <si>
+    <t>双凡尔漏失</t>
+  </si>
+  <si>
+    <t>图形呈椭圆状；图形在上、下理论载荷线之间；漏失严重时，油井不出油。</t>
+  </si>
+  <si>
+    <t>游动凡尔失灵/油管漏</t>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在下理论载荷线附近；产量为零。</t>
+  </si>
+  <si>
+    <t>洗井、碰泵或检泵/打压、更换油管</t>
+  </si>
+  <si>
+    <t>固定凡尔失灵</t>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在上理论载荷线附近；产量为零。</t>
+  </si>
+  <si>
+    <t>双凡尔失灵</t>
+  </si>
+  <si>
+    <t>图形呈条带状；图形在上、下理论载荷线之间；产量为零。</t>
+  </si>
+  <si>
+    <t>上死点别、碰</t>
+  </si>
+  <si>
+    <t>图形右上角凸起。</t>
+  </si>
+  <si>
+    <t>校正井口设备</t>
+  </si>
+  <si>
+    <t>碰泵</t>
+  </si>
+  <si>
+    <t>图形左下角拖尾。</t>
+  </si>
+  <si>
+    <t>上提（增大）防冲距</t>
+  </si>
+  <si>
+    <t>活塞/底部断脱/未入工作筒</t>
+  </si>
+  <si>
+    <t>检泵/下放（缩小）防冲距</t>
+  </si>
+  <si>
+    <t>柱塞脱出工作筒</t>
+  </si>
+  <si>
+    <t>图形右边缺损；右下角拖尾；增载过程中突然卸载。</t>
+  </si>
+  <si>
+    <t>下放（缩小）防冲距</t>
+  </si>
+  <si>
+    <t>杆断脱</t>
+  </si>
+  <si>
+    <t>图形呈条带状，两端尖；图形在下理论载荷线下方，断杆位置距井口越近图形越下移；产量突然为零。</t>
+  </si>
+  <si>
+    <t>替换抽油杆</t>
+  </si>
+  <si>
+    <t>杆(泵)卡</t>
+  </si>
+  <si>
+    <t>图形呈斜条带状；可通过图形拐点找到被卡位置；油井不出油。</t>
+  </si>
+  <si>
+    <t>洗井或检泵</t>
+  </si>
+  <si>
+    <t>结蜡</t>
+  </si>
+  <si>
+    <t>图形肥大；产量下降。</t>
+  </si>
+  <si>
+    <t>严重结蜡</t>
+  </si>
+  <si>
+    <t>出砂</t>
+  </si>
+  <si>
+    <t>图形呈不规则、不重复的锯齿状；油井出油正常。</t>
+  </si>
+  <si>
+    <t>防砂</t>
+  </si>
+  <si>
+    <t>严重出砂</t>
+  </si>
+  <si>
+    <t>惯性载荷大</t>
+  </si>
+  <si>
+    <t>图形顺时针偏转。</t>
+  </si>
+  <si>
+    <t>降低冲次</t>
+  </si>
+  <si>
+    <t>应力超标</t>
+  </si>
+  <si>
+    <t>优化抽油杆柱组合</t>
+  </si>
+  <si>
+    <t>采集异常</t>
+  </si>
+  <si>
+    <t>检查采集仪表</t>
+  </si>
+  <si>
+    <t>停抽</t>
+  </si>
+  <si>
     <t>ITEMCODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ITEMNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEMVALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLECODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION</t>
-  </si>
-  <si>
-    <t>添加设备</t>
-  </si>
-  <si>
-    <t>修改设备</t>
-  </si>
-  <si>
-    <t>删除设备</t>
-  </si>
-  <si>
-    <t>控制设备</t>
-  </si>
-  <si>
-    <t>APPLICATIONSCENARIOS</t>
-  </si>
-  <si>
-    <t>煤层气井</t>
-  </si>
-  <si>
-    <t>应用场景</t>
-  </si>
-  <si>
-    <t>油井</t>
-  </si>
-  <si>
-    <t>BJJB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常</t>
-  </si>
-  <si>
-    <t>一级报警</t>
-  </si>
-  <si>
-    <t>二级报警</t>
-  </si>
-  <si>
-    <t>三级报警</t>
-  </si>
-  <si>
-    <t>BJJB</t>
-  </si>
-  <si>
-    <t>离线</t>
-  </si>
-  <si>
-    <t>BJLX</t>
-  </si>
-  <si>
-    <t>通信报警</t>
-  </si>
-  <si>
-    <t>采集报警</t>
-  </si>
-  <si>
-    <t>视频和RFID报警</t>
-  </si>
-  <si>
-    <t>视频报警</t>
-  </si>
-  <si>
-    <t>RFID报警</t>
-  </si>
-  <si>
-    <t>工况报警</t>
-  </si>
-  <si>
-    <t>平衡报警</t>
-  </si>
-  <si>
-    <t>设备报警</t>
-  </si>
-  <si>
-    <t>载荷传感器报警</t>
-  </si>
-  <si>
-    <t>压力传感器报警</t>
-  </si>
-  <si>
-    <t>温度传感器报警</t>
-  </si>
-  <si>
-    <t>波动报警</t>
-  </si>
-  <si>
-    <t>电参报警</t>
-  </si>
-  <si>
-    <t>运行状态报警</t>
-  </si>
-  <si>
-    <t>BJQJYS</t>
-  </si>
-  <si>
-    <t>000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc2828</t>
-  </si>
-  <si>
-    <t>f09614</t>
-  </si>
-  <si>
-    <t>fae600</t>
-  </si>
-  <si>
-    <t>BJYS</t>
-  </si>
-  <si>
-    <t>00ff00</t>
-  </si>
-  <si>
-    <t>#808080</t>
-  </si>
-  <si>
-    <t>BJYSTMD</t>
-  </si>
-  <si>
-    <t>BJYSTMD3</t>
-  </si>
-  <si>
-    <t>BJZT</t>
-  </si>
-  <si>
-    <t>报警</t>
-  </si>
-  <si>
-    <t>DEVICETYPE</t>
-  </si>
-  <si>
-    <t>抽油机</t>
-  </si>
-  <si>
-    <t>螺杆泵</t>
-  </si>
-  <si>
-    <t>短信设备</t>
-  </si>
-  <si>
-    <t>JSBZ</t>
-  </si>
-  <si>
-    <t>请求数据读取失败</t>
-  </si>
-  <si>
-    <t>请求数据解码失败</t>
-  </si>
-  <si>
-    <t>井数许可超限</t>
-  </si>
-  <si>
-    <t>计算异常</t>
-  </si>
-  <si>
-    <t>相应数据编码失败</t>
-  </si>
-  <si>
-    <t>数据校验错误</t>
-  </si>
-  <si>
-    <t>未计算</t>
-  </si>
-  <si>
-    <t>计算成功</t>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-  </si>
-  <si>
-    <t>zh_CN</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ru</t>
-  </si>
-  <si>
-    <t>LiftingType</t>
-  </si>
-  <si>
-    <t>自喷</t>
-  </si>
-  <si>
-    <t>泡排</t>
-  </si>
-  <si>
-    <t>常规抽油机</t>
-  </si>
-  <si>
-    <t>异相型抽油机</t>
-  </si>
-  <si>
-    <t>双驴头抽油机</t>
-  </si>
-  <si>
-    <t>下偏杠铃抽油机</t>
-  </si>
-  <si>
-    <t>调径变矩抽油机</t>
-  </si>
-  <si>
-    <t>立式皮带机</t>
-  </si>
-  <si>
-    <t>立式链条机</t>
-  </si>
-  <si>
-    <t>直线驱抽油机</t>
-  </si>
-  <si>
-    <t>电潜泵</t>
-  </si>
-  <si>
-    <t>地面驱螺杆泵</t>
-  </si>
-  <si>
-    <t>井下驱螺杆泵</t>
-  </si>
-  <si>
-    <t>水力活塞泵</t>
-  </si>
-  <si>
-    <t>水力射流泵</t>
-  </si>
-  <si>
-    <t>气举</t>
-  </si>
-  <si>
-    <t>柱塞气举</t>
-  </si>
-  <si>
-    <t>其他</t>
+    <t>ALARMLEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offline</t>
+  </si>
+  <si>
+    <t>offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTSTATUS</t>
   </si>
   <si>
     <t>MD_TYPE</t>
-  </si>
-  <si>
-    <t>启用模块</t>
-  </si>
-  <si>
-    <t>备用模块</t>
-  </si>
-  <si>
-    <t>ORG_TYPE</t>
-  </si>
-  <si>
-    <t>集团</t>
-  </si>
-  <si>
-    <t>局级</t>
-  </si>
-  <si>
-    <t>厂级</t>
-  </si>
-  <si>
-    <t>矿级</t>
-  </si>
-  <si>
-    <t>队级</t>
-  </si>
-  <si>
-    <t>工区</t>
-  </si>
-  <si>
-    <t>集气站</t>
-  </si>
-  <si>
-    <t>PROTOCOL</t>
-  </si>
-  <si>
-    <t>modbus-tcp</t>
-  </si>
-  <si>
-    <t>modbus-rtu</t>
-  </si>
-  <si>
-    <t>ROLE_FLAG</t>
-  </si>
-  <si>
-    <t>下属部门</t>
-  </si>
-  <si>
-    <t>SYSTEMACTION</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>用户退出</t>
-  </si>
-  <si>
-    <t>驱动配置</t>
-  </si>
-  <si>
-    <t>模块访问</t>
-  </si>
-  <si>
-    <t>数据导出</t>
-  </si>
-  <si>
-    <t>TXBJQJYS</t>
-  </si>
-  <si>
-    <t>6c6262</t>
-  </si>
-  <si>
-    <t>TXBJYS</t>
-  </si>
-  <si>
-    <t>TXBJYSTMD</t>
-  </si>
-  <si>
-    <t>USER_TITLE</t>
-  </si>
-  <si>
-    <t>中控室</t>
-  </si>
-  <si>
-    <t>工况巡检一组</t>
-  </si>
-  <si>
-    <t>工况巡检二组</t>
-  </si>
-  <si>
-    <t>工况巡检三组</t>
-  </si>
-  <si>
-    <t>工况巡检四组</t>
-  </si>
-  <si>
-    <t>USER_TYPE</t>
-  </si>
-  <si>
-    <t>数据分析员</t>
-  </si>
-  <si>
-    <t>系统管理员</t>
-  </si>
-  <si>
-    <t>数据管理员</t>
-  </si>
-  <si>
-    <t>YXBJQJYS</t>
-  </si>
-  <si>
-    <t>YXBJYS</t>
-  </si>
-  <si>
-    <t>YXBJYSTMD</t>
-  </si>
-  <si>
-    <t>alarmType</t>
-  </si>
-  <si>
-    <t>开关量报警</t>
-  </si>
-  <si>
-    <t>枚举量报警</t>
-  </si>
-  <si>
-    <t>数据量报警</t>
-  </si>
-  <si>
-    <t>通信状态报警</t>
-  </si>
-  <si>
-    <t>IDX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTCODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULENAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTDESCRIPTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTTEMPLATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPTIMIZATIONSUGGESTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽喷</t>
-  </si>
-  <si>
-    <t>图形在下理论载荷线附近，呈条带状；动液面接近于井口；产量较高，接近或大于理论排量。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>图形呈平行四边形；充满系数≥0.6。</t>
-  </si>
-  <si>
-    <t>充满不足</t>
-  </si>
-  <si>
-    <t>图形四角明显呈角度；增、卸载线平行；0.3≤充满系数﹤0.6。</t>
-  </si>
-  <si>
-    <t>供液不足</t>
-  </si>
-  <si>
-    <t>图形四角明显呈角度；0.1≤充满系数﹤0.3；沉没度较低。</t>
-  </si>
-  <si>
-    <t>间抽或降低冲次</t>
-  </si>
-  <si>
-    <t>供液极差</t>
-  </si>
-  <si>
-    <t>图形下面部分呈角度；充满系数﹤0.1。</t>
-  </si>
-  <si>
-    <t>抽空</t>
-  </si>
-  <si>
-    <t>图形呈条状；产量为零。</t>
-  </si>
-  <si>
-    <t>泵下堵</t>
-  </si>
-  <si>
-    <t>充满系数﹤0.3；沉没度较高。</t>
-  </si>
-  <si>
-    <t>洗井或加药</t>
-  </si>
-  <si>
-    <t>气锁</t>
-  </si>
-  <si>
-    <t>图形靠近上理论载荷线；增、卸载过程缓慢，卸载线平缓；产量为零。</t>
-  </si>
-  <si>
-    <t>合理控制气体</t>
-  </si>
-  <si>
-    <t>气影响</t>
-  </si>
-  <si>
-    <t>图形四角圆滑呈弧度，气油比越高，圆弧的曲率半径越大；增载缓慢，增、卸载线不明显。</t>
-  </si>
-  <si>
-    <t>间隙漏</t>
-  </si>
-  <si>
-    <t>图形上部分倾斜；图形上、下载荷线不平行。</t>
-  </si>
-  <si>
-    <t>检泵</t>
-  </si>
-  <si>
-    <t>油管漏</t>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在下理论载荷线附近；产量下降。</t>
-  </si>
-  <si>
-    <t>油管打压试验</t>
-  </si>
-  <si>
-    <t>游动凡尔漏失</t>
-  </si>
-  <si>
-    <t>图形上部分圆滑、缺损；上载荷线低于上理论载荷线；增载过程缓慢，卸载提前。</t>
-  </si>
-  <si>
-    <t>洗井、碰泵或检泵</t>
-  </si>
-  <si>
-    <t>固定凡尔漏失</t>
-  </si>
-  <si>
-    <t>图形下部分圆滑、缺损；下载荷线高于下理论载荷线；增载提前，卸载过程缓慢。</t>
-  </si>
-  <si>
-    <t>双凡尔漏失</t>
-  </si>
-  <si>
-    <t>图形呈椭圆状；图形在上、下理论载荷线之间；漏失严重时，油井不出油。</t>
-  </si>
-  <si>
-    <t>游动凡尔失灵/油管漏</t>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在下理论载荷线附近；产量为零。</t>
-  </si>
-  <si>
-    <t>洗井、碰泵或检泵/打压、更换油管</t>
-  </si>
-  <si>
-    <t>固定凡尔失灵</t>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在上理论载荷线附近；产量为零。</t>
-  </si>
-  <si>
-    <t>双凡尔失灵</t>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在上、下理论载荷线之间；产量为零。</t>
-  </si>
-  <si>
-    <t>上死点别、碰</t>
-  </si>
-  <si>
-    <t>图形右上角凸起。</t>
-  </si>
-  <si>
-    <t>校正井口设备</t>
-  </si>
-  <si>
-    <t>碰泵</t>
-  </si>
-  <si>
-    <t>图形左下角拖尾。</t>
-  </si>
-  <si>
-    <t>上提（增大）防冲距</t>
-  </si>
-  <si>
-    <t>活塞/底部断脱/未入工作筒</t>
-  </si>
-  <si>
-    <t>检泵/下放（缩小）防冲距</t>
-  </si>
-  <si>
-    <t>柱塞脱出工作筒</t>
-  </si>
-  <si>
-    <t>图形右边缺损；右下角拖尾；增载过程中突然卸载。</t>
-  </si>
-  <si>
-    <t>下放（缩小）防冲距</t>
-  </si>
-  <si>
-    <t>杆断脱</t>
-  </si>
-  <si>
-    <t>图形呈条带状，两端尖；图形在下理论载荷线下方，断杆位置距井口越近图形越下移；产量突然为零。</t>
-  </si>
-  <si>
-    <t>替换抽油杆</t>
-  </si>
-  <si>
-    <t>杆(泵)卡</t>
-  </si>
-  <si>
-    <t>图形呈斜条带状；可通过图形拐点找到被卡位置；油井不出油。</t>
-  </si>
-  <si>
-    <t>洗井或检泵</t>
-  </si>
-  <si>
-    <t>结蜡</t>
-  </si>
-  <si>
-    <t>图形肥大；产量下降。</t>
-  </si>
-  <si>
-    <t>严重结蜡</t>
-  </si>
-  <si>
-    <t>出砂</t>
-  </si>
-  <si>
-    <t>图形呈不规则、不重复的锯齿状；油井出油正常。</t>
-  </si>
-  <si>
-    <t>防砂</t>
-  </si>
-  <si>
-    <t>严重出砂</t>
-  </si>
-  <si>
-    <t>惯性载荷大</t>
-  </si>
-  <si>
-    <t>图形顺时针偏转。</t>
-  </si>
-  <si>
-    <t>降低冲次</t>
-  </si>
-  <si>
-    <t>应力超标</t>
-  </si>
-  <si>
-    <t>优化抽油杆柱组合</t>
-  </si>
-  <si>
-    <t>采集异常</t>
-  </si>
-  <si>
-    <t>检查采集仪表</t>
-  </si>
-  <si>
-    <t>停抽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5029,8 +4914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -5596,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>5</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -8389,8 +8274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C865"/>
   <sheetViews>
-    <sheetView topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="B434" sqref="B434"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9383,7 +9268,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>428</v>
+        <v>1167</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>428</v>
@@ -15337,15 +15222,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.109375" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
@@ -15358,22 +15243,22 @@
         <v>1016</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1021</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -15381,10 +15266,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1024</v>
+        <v>1170</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -15398,10 +15283,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1025</v>
+        <v>1171</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -15415,10 +15300,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1026</v>
+        <v>1172</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -15432,10 +15317,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1027</v>
+        <v>1173</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -15449,10 +15334,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -15460,7 +15345,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15468,10 +15353,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -15479,7 +15364,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -15487,10 +15372,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1032</v>
+        <v>1165</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1033</v>
+        <v>1166</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -15504,10 +15389,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1034</v>
+        <v>1165</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
@@ -15521,10 +15406,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>1035</v>
+        <v>1165</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="D10" s="1">
         <v>200</v>
@@ -15538,10 +15423,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1036</v>
+        <v>1165</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D11" s="1">
         <v>300</v>
@@ -15555,10 +15440,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1037</v>
+        <v>1165</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1038</v>
+        <v>1168</v>
       </c>
       <c r="D12" s="1">
         <v>400</v>
@@ -15569,16 +15454,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="D13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -15586,16 +15471,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="D14" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -15603,16 +15488,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="D15" s="1">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -15620,16 +15505,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="D16" s="1">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -15637,16 +15522,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="D17" s="1">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -15654,16 +15539,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="D18" s="1">
-        <v>303</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -15671,16 +15556,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="D19" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -15688,16 +15573,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="D20" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -15705,16 +15590,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="D21" s="1">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -15722,16 +15607,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>1048</v>
+        <v>1038</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -15739,16 +15624,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>1049</v>
+        <v>1038</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>602</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -15756,16 +15641,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>1050</v>
+        <v>1038</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>603</v>
+        <v>200</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -15773,16 +15658,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>1051</v>
+        <v>1038</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -15790,16 +15675,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>1052</v>
+      <c r="C26" s="5">
+        <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -15807,16 +15692,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>1053</v>
+      <c r="C27" s="5">
+        <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -15824,16 +15709,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>1055</v>
+        <v>1039</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -15841,16 +15726,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>1056</v>
+        <v>1039</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -15858,16 +15743,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1057</v>
+        <v>1041</v>
       </c>
       <c r="D30" s="1">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -15875,16 +15760,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1058</v>
+        <v>1042</v>
       </c>
       <c r="D31" s="1">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -15892,16 +15777,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -15909,16 +15794,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1059</v>
+        <v>1174</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="D33" s="1">
-        <v>100</v>
+        <v>-44</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -15926,16 +15811,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1059</v>
+        <v>1174</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="D34" s="1">
-        <v>200</v>
+        <v>-55</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -15943,16 +15828,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1059</v>
+        <v>1174</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="D35" s="1">
-        <v>300</v>
+        <v>-66</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -15960,16 +15845,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1059</v>
+        <v>1174</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="D36" s="1">
-        <v>400</v>
+        <v>-77</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -15977,16 +15862,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0</v>
+        <v>1174</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1048</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>-88</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -15994,16 +15879,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0</v>
+        <v>1174</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>1049</v>
       </c>
       <c r="D38" s="1">
-        <v>100</v>
+        <v>-99</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -16011,16 +15896,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C39" s="5">
+        <v>1174</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D39" s="1">
         <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>200</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -16028,16 +15913,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C40" s="5">
-        <v>0</v>
+        <v>1174</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>1051</v>
       </c>
       <c r="D40" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -16045,16 +15930,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C41" s="5">
-        <v>0</v>
+        <v>1052</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>1053</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -16062,16 +15947,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C42" s="5">
-        <v>0</v>
+        <v>1052</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>1054</v>
       </c>
       <c r="D42" s="1">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -16079,16 +15964,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C43" s="5">
-        <v>0</v>
+        <v>1052</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>1055</v>
       </c>
       <c r="D43" s="1">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -16096,16 +15981,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C44" s="5">
+        <v>1175</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D44" s="1">
         <v>0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>300</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -16113,16 +15998,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1033</v>
+        <v>1177</v>
       </c>
       <c r="D45" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -16130,13 +16015,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -16147,16 +16032,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="D47" s="1">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -16164,16 +16049,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1068</v>
+        <v>1178</v>
       </c>
       <c r="D48" s="1">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -16181,16 +16066,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1069</v>
+        <v>1179</v>
       </c>
       <c r="D49" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -16198,16 +16083,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1071</v>
+        <v>1180</v>
       </c>
       <c r="D50" s="1">
-        <v>-44</v>
+        <v>2</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -16215,16 +16100,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1072</v>
+        <v>1181</v>
       </c>
       <c r="D51" s="1">
-        <v>-55</v>
+        <v>3</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -16232,16 +16117,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1073</v>
+        <v>1182</v>
       </c>
       <c r="D52" s="1">
-        <v>-66</v>
+        <v>4</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -16249,16 +16134,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="D53" s="1">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -16266,16 +16151,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1075</v>
+        <v>1036</v>
       </c>
       <c r="D54" s="1">
-        <v>-88</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -16283,16 +16168,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1076</v>
+        <v>1033</v>
       </c>
       <c r="D55" s="1">
-        <v>-99</v>
+        <v>2</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -16300,13 +16185,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1077</v>
+        <v>1063</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -16317,13 +16202,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1078</v>
+        <v>1036</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -16334,16 +16219,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1080</v>
+        <v>1033</v>
       </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -16351,16 +16236,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>1081</v>
+        <v>1065</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -16368,16 +16253,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>1082</v>
+        <v>1065</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -16385,16 +16270,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>1084</v>
+        <v>1065</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -16402,16 +16287,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>1085</v>
+        <v>1067</v>
       </c>
       <c r="D62" s="1">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -16419,16 +16304,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D63" s="1">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -16436,16 +16321,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="D64" s="1">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -16453,16 +16338,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>1087</v>
+        <v>1070</v>
       </c>
       <c r="D65" s="1">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -16470,16 +16355,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="D66" s="1">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -16487,16 +16372,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>1089</v>
+        <v>1056</v>
       </c>
       <c r="D67" s="1">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -16504,16 +16389,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="D68" s="1">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -16521,16 +16406,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
       <c r="D69" s="1">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -16538,16 +16423,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="D70" s="1">
-        <v>207</v>
+        <v>2</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -16555,16 +16440,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>1093</v>
+        <v>1032</v>
       </c>
       <c r="D71" s="1">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -16572,16 +16457,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>1094</v>
+        <v>1036</v>
       </c>
       <c r="D72" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -16589,16 +16474,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>1068</v>
+        <v>1033</v>
       </c>
       <c r="D73" s="1">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -16606,16 +16491,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>1095</v>
+        <v>1032</v>
       </c>
       <c r="D74" s="1">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -16623,16 +16508,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1096</v>
+        <v>1036</v>
       </c>
       <c r="D75" s="1">
-        <v>402</v>
+        <v>1</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -16640,16 +16525,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>1097</v>
+        <v>1033</v>
       </c>
       <c r="D76" s="1">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -16657,16 +16542,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>1098</v>
+        <v>1078</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -16674,16 +16559,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>1099</v>
+        <v>1078</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>700</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -16691,16 +16576,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>1100</v>
+        <v>1078</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>701</v>
+        <v>2</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -16708,16 +16593,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>1101</v>
+        <v>1080</v>
       </c>
       <c r="D80" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -16725,16 +16610,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1102</v>
+        <v>1079</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>1103</v>
+        <v>1081</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -16742,13 +16627,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1102</v>
+        <v>1079</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>1104</v>
+        <v>1082</v>
       </c>
       <c r="D82" s="1">
         <v>2</v>
@@ -16759,16 +16644,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1105</v>
+        <v>1079</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>1106</v>
+        <v>1083</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -16776,16 +16661,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1105</v>
+        <v>1079</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>1107</v>
+        <v>1028</v>
       </c>
       <c r="D84" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -16793,16 +16678,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1105</v>
+        <v>1079</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>1108</v>
+        <v>1082</v>
       </c>
       <c r="D85" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -16810,819 +16695,20 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1105</v>
+        <v>1079</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>1109</v>
+        <v>1029</v>
       </c>
       <c r="D86" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>86</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D87" s="1">
-        <v>4</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D88" s="1">
-        <v>5</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>88</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D89" s="1">
-        <v>6</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>89</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D90" s="1">
-        <v>7</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D91" s="1">
-        <v>1</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D92" s="1">
-        <v>2</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D93" s="1">
-        <v>1</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D94" s="1">
-        <v>2</v>
-      </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>94</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0</v>
-      </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>95</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D96" s="1">
-        <v>1</v>
-      </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>96</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D97" s="1">
-        <v>2</v>
-      </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>97</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D98" s="1">
-        <v>3</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D99" s="1">
-        <v>4</v>
-      </c>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>99</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0</v>
-      </c>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>100</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D101" s="1">
-        <v>1</v>
-      </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>101</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D102" s="1">
-        <v>2</v>
-      </c>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>102</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D103" s="1">
-        <v>0</v>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>103</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D104" s="1">
-        <v>1</v>
-      </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>104</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D105" s="1">
-        <v>2</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>105</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C106" s="5">
-        <v>0</v>
-      </c>
-      <c r="D106" s="1">
-        <v>0</v>
-      </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>106</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C107" s="5">
-        <v>0</v>
-      </c>
-      <c r="D107" s="1">
-        <v>1</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>107</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C108" s="5">
-        <v>0</v>
-      </c>
-      <c r="D108" s="1">
-        <v>2</v>
-      </c>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>108</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D109" s="1">
-        <v>0</v>
-      </c>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>109</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D110" s="1">
-        <v>1</v>
-      </c>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>110</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D111" s="1">
-        <v>2</v>
-      </c>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>111</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D112" s="1">
-        <v>3</v>
-      </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>112</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D113" s="1">
-        <v>4</v>
-      </c>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>113</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D114" s="1">
-        <v>5</v>
-      </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>114</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D115" s="1">
-        <v>0</v>
-      </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>115</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D116" s="1">
-        <v>1</v>
-      </c>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>116</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D117" s="1">
-        <v>2</v>
-      </c>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>117</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D118" s="1">
-        <v>0</v>
-      </c>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>118</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D119" s="1">
-        <v>1</v>
-      </c>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>119</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D120" s="1">
-        <v>2</v>
-      </c>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>120</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D121" s="1">
-        <v>0</v>
-      </c>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>121</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D122" s="1">
-        <v>1</v>
-      </c>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>122</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D123" s="1">
-        <v>2</v>
-      </c>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>123</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C124" s="5">
-        <v>0</v>
-      </c>
-      <c r="D124" s="1">
-        <v>0</v>
-      </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>124</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C125" s="5">
-        <v>0</v>
-      </c>
-      <c r="D125" s="1">
-        <v>1</v>
-      </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>125</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C126" s="5">
-        <v>0</v>
-      </c>
-      <c r="D126" s="1">
-        <v>2</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>126</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D127" s="1">
-        <v>0</v>
-      </c>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>127</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D128" s="1">
-        <v>1</v>
-      </c>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>128</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D129" s="1">
-        <v>2</v>
-      </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>129</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D130" s="1">
-        <v>3</v>
-      </c>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>130</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D131" s="1">
-        <v>4</v>
-      </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>131</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D132" s="1">
-        <v>5</v>
-      </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>132</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D133" s="1">
-        <v>6</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -17634,8 +16720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -17649,25 +16735,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1146</v>
+        <v>1084</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1147</v>
+        <v>1085</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1148</v>
+        <v>1086</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1149</v>
+        <v>1087</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1150</v>
+        <v>1088</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1151</v>
+        <v>1089</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1152</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -17678,14 +16764,14 @@
         <v>1201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1153</v>
+        <v>1091</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1154</v>
+        <v>1092</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>1155</v>
+        <v>1093</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -17697,14 +16783,14 @@
         <v>1202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1156</v>
+        <v>1094</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>1155</v>
+        <v>1093</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -17716,14 +16802,14 @@
         <v>1203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1157</v>
+        <v>1095</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1158</v>
+        <v>1096</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>1155</v>
+        <v>1093</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -17735,14 +16821,14 @@
         <v>1204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1159</v>
+        <v>1097</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1160</v>
+        <v>1098</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>1161</v>
+        <v>1099</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -17754,14 +16840,14 @@
         <v>1205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1162</v>
+        <v>1100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1163</v>
+        <v>1101</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>1161</v>
+        <v>1099</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -17773,14 +16859,14 @@
         <v>1206</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1164</v>
+        <v>1102</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1165</v>
+        <v>1103</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>1161</v>
+        <v>1099</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -17792,14 +16878,14 @@
         <v>1207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1166</v>
+        <v>1104</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1167</v>
+        <v>1105</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>1168</v>
+        <v>1106</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -17811,14 +16897,14 @@
         <v>1208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1169</v>
+        <v>1107</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1170</v>
+        <v>1108</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>1171</v>
+        <v>1109</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -17830,14 +16916,14 @@
         <v>1209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1172</v>
+        <v>1110</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1173</v>
+        <v>1111</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>1171</v>
+        <v>1109</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -17849,14 +16935,14 @@
         <v>1210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1174</v>
+        <v>1112</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1175</v>
+        <v>1113</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>1176</v>
+        <v>1114</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -17868,14 +16954,14 @@
         <v>1211</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1177</v>
+        <v>1115</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1178</v>
+        <v>1116</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>1179</v>
+        <v>1117</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -17887,14 +16973,14 @@
         <v>1212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1180</v>
+        <v>1118</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1181</v>
+        <v>1119</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>1182</v>
+        <v>1120</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -17906,14 +16992,14 @@
         <v>1213</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1183</v>
+        <v>1121</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1184</v>
+        <v>1122</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>1182</v>
+        <v>1120</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -17925,14 +17011,14 @@
         <v>1214</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1185</v>
+        <v>1123</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1186</v>
+        <v>1124</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>1182</v>
+        <v>1120</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -17944,14 +17030,14 @@
         <v>1215</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1187</v>
+        <v>1125</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1188</v>
+        <v>1126</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>1189</v>
+        <v>1127</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -17963,14 +17049,14 @@
         <v>1216</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1190</v>
+        <v>1128</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1191</v>
+        <v>1129</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>1182</v>
+        <v>1120</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -17982,14 +17068,14 @@
         <v>1217</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1192</v>
+        <v>1130</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1193</v>
+        <v>1131</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>1182</v>
+        <v>1120</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -18001,14 +17087,14 @@
         <v>1218</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1194</v>
+        <v>1132</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1195</v>
+        <v>1133</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>1196</v>
+        <v>1134</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -18020,14 +17106,14 @@
         <v>1219</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1197</v>
+        <v>1135</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1198</v>
+        <v>1136</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>1199</v>
+        <v>1137</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -18039,14 +17125,14 @@
         <v>1220</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1200</v>
+        <v>1138</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1188</v>
+        <v>1126</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>1201</v>
+        <v>1139</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -18058,14 +17144,14 @@
         <v>1221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1202</v>
+        <v>1140</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1203</v>
+        <v>1141</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>1204</v>
+        <v>1142</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -18077,14 +17163,14 @@
         <v>1222</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1205</v>
+        <v>1143</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1206</v>
+        <v>1144</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>1207</v>
+        <v>1145</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -18096,14 +17182,14 @@
         <v>1223</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1208</v>
+        <v>1146</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1209</v>
+        <v>1147</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>1210</v>
+        <v>1148</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -18115,14 +17201,14 @@
         <v>1224</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1211</v>
+        <v>1149</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1212</v>
+        <v>1150</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>1168</v>
+        <v>1106</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -18134,12 +17220,12 @@
         <v>1225</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1213</v>
+        <v>1151</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>1168</v>
+        <v>1106</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -18151,14 +17237,14 @@
         <v>1226</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1214</v>
+        <v>1152</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1215</v>
+        <v>1153</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1216</v>
+        <v>1154</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -18170,12 +17256,12 @@
         <v>1227</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1217</v>
+        <v>1155</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>1216</v>
+        <v>1154</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -18187,14 +17273,14 @@
         <v>1230</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1218</v>
+        <v>1156</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1219</v>
+        <v>1157</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>1220</v>
+        <v>1158</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -18206,12 +17292,12 @@
         <v>1231</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1221</v>
+        <v>1159</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>1222</v>
+        <v>1160</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -18223,12 +17309,12 @@
         <v>1232</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1223</v>
+        <v>1161</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>1224</v>
+        <v>1162</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -18240,7 +17326,7 @@
         <v>1302</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1225</v>
+        <v>1163</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="language" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1172">
   <si>
     <t>myself</t>
   </si>
@@ -4035,15 +4035,9 @@
     <t>APPLICATIONSCENARIOS</t>
   </si>
   <si>
-    <t>煤层气井</t>
-  </si>
-  <si>
     <t>应用场景</t>
   </si>
   <si>
-    <t>油井</t>
-  </si>
-  <si>
     <t>正常</t>
   </si>
   <si>
@@ -4132,9 +4126,6 @@
     <t>ru</t>
   </si>
   <si>
-    <t>其他</t>
-  </si>
-  <si>
     <t>MD_TYPE</t>
   </si>
   <si>
@@ -4162,36 +4153,6 @@
     <t>TXBJYSTMD</t>
   </si>
   <si>
-    <t>USER_TITLE</t>
-  </si>
-  <si>
-    <t>中控室</t>
-  </si>
-  <si>
-    <t>工况巡检一组</t>
-  </si>
-  <si>
-    <t>工况巡检二组</t>
-  </si>
-  <si>
-    <t>工况巡检三组</t>
-  </si>
-  <si>
-    <t>工况巡检四组</t>
-  </si>
-  <si>
-    <t>USER_TYPE</t>
-  </si>
-  <si>
-    <t>数据分析员</t>
-  </si>
-  <si>
-    <t>系统管理员</t>
-  </si>
-  <si>
-    <t>数据管理员</t>
-  </si>
-  <si>
     <t>YXBJQJYS</t>
   </si>
   <si>
@@ -4201,9 +4162,6 @@
     <t>YXBJYSTMD</t>
   </si>
   <si>
-    <t>alarmType</t>
-  </si>
-  <si>
     <t>开关量报警</t>
   </si>
   <si>
@@ -4224,10 +4182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RESULENAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RESULTDESCRIPTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4533,6 +4487,22 @@
   </si>
   <si>
     <t>data export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALARMTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTNAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5481,7 +5451,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1169</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -9268,7 +9238,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1167</v>
+        <v>1152</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>428</v>
@@ -15222,10 +15192,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -15243,7 +15213,7 @@
         <v>1016</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1164</v>
+        <v>1149</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1017</v>
@@ -15269,7 +15239,7 @@
         <v>1022</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1170</v>
+        <v>1155</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -15286,7 +15256,7 @@
         <v>1022</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1171</v>
+        <v>1156</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -15303,7 +15273,7 @@
         <v>1022</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1172</v>
+        <v>1157</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -15320,7 +15290,7 @@
         <v>1022</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1173</v>
+        <v>1158</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -15337,7 +15307,7 @@
         <v>1023</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1024</v>
+        <v>1169</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -15345,7 +15315,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15356,7 +15326,7 @@
         <v>1023</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1026</v>
+        <v>1170</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -15364,7 +15334,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -15372,10 +15342,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1166</v>
+        <v>1151</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -15389,7 +15359,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>235</v>
@@ -15406,7 +15376,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>236</v>
@@ -15423,7 +15393,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>237</v>
@@ -15440,10 +15410,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1165</v>
+        <v>1150</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D12" s="1">
         <v>400</v>
@@ -15457,10 +15427,10 @@
         <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -15474,10 +15444,10 @@
         <v>28</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>1030</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>1032</v>
       </c>
       <c r="D14" s="1">
         <v>100</v>
@@ -15491,10 +15461,10 @@
         <v>29</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D15" s="1">
         <v>200</v>
@@ -15508,10 +15478,10 @@
         <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D16" s="1">
         <v>300</v>
@@ -15525,10 +15495,10 @@
         <v>31</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -15542,10 +15512,10 @@
         <v>32</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D18" s="1">
         <v>100</v>
@@ -15559,10 +15529,10 @@
         <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D19" s="1">
         <v>200</v>
@@ -15576,10 +15546,10 @@
         <v>34</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D20" s="1">
         <v>300</v>
@@ -15593,10 +15563,10 @@
         <v>35</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>1035</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>1037</v>
       </c>
       <c r="D21" s="1">
         <v>400</v>
@@ -15610,7 +15580,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -15627,7 +15597,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -15644,7 +15614,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
@@ -15661,7 +15631,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -15678,7 +15648,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C26" s="5">
         <v>0</v>
@@ -15695,7 +15665,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C27" s="5">
         <v>0</v>
@@ -15712,7 +15682,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
@@ -15729,7 +15699,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -15746,10 +15716,10 @@
         <v>46</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D30" s="1">
         <v>101</v>
@@ -15763,10 +15733,10 @@
         <v>47</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>1040</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>1042</v>
       </c>
       <c r="D31" s="1">
         <v>201</v>
@@ -15780,10 +15750,10 @@
         <v>48</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D32" s="1">
         <v>300</v>
@@ -15797,10 +15767,10 @@
         <v>49</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D33" s="1">
         <v>-44</v>
@@ -15814,10 +15784,10 @@
         <v>50</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D34" s="1">
         <v>-55</v>
@@ -15831,10 +15801,10 @@
         <v>51</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D35" s="1">
         <v>-66</v>
@@ -15848,10 +15818,10 @@
         <v>52</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D36" s="1">
         <v>-77</v>
@@ -15865,10 +15835,10 @@
         <v>53</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D37" s="1">
         <v>-88</v>
@@ -15882,10 +15852,10 @@
         <v>54</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D38" s="1">
         <v>-99</v>
@@ -15899,10 +15869,10 @@
         <v>55</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -15916,10 +15886,10 @@
         <v>56</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1174</v>
+        <v>1159</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -15933,10 +15903,10 @@
         <v>57</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -15950,10 +15920,10 @@
         <v>58</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>1052</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>1054</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -15967,10 +15937,10 @@
         <v>59</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -15984,10 +15954,10 @@
         <v>80</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1175</v>
+        <v>1160</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1176</v>
+        <v>1161</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -16001,10 +15971,10 @@
         <v>81</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1177</v>
+        <v>1162</v>
       </c>
       <c r="D45" s="1">
         <v>2</v>
@@ -16018,10 +15988,10 @@
         <v>90</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -16035,10 +16005,10 @@
         <v>91</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D47" s="1">
         <v>2</v>
@@ -16052,10 +16022,10 @@
         <v>94</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1178</v>
+        <v>1163</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -16069,10 +16039,10 @@
         <v>95</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1179</v>
+        <v>1164</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -16086,10 +16056,10 @@
         <v>96</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1180</v>
+        <v>1165</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -16103,10 +16073,10 @@
         <v>97</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1181</v>
+        <v>1166</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -16120,10 +16090,10 @@
         <v>98</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1182</v>
+        <v>1167</v>
       </c>
       <c r="D52" s="1">
         <v>4</v>
@@ -16137,10 +16107,10 @@
         <v>99</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -16154,10 +16124,10 @@
         <v>100</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -16171,10 +16141,10 @@
         <v>101</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D55" s="1">
         <v>2</v>
@@ -16188,10 +16158,10 @@
         <v>102</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -16205,10 +16175,10 @@
         <v>103</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -16222,10 +16192,10 @@
         <v>104</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D58" s="1">
         <v>2</v>
@@ -16239,7 +16209,7 @@
         <v>105</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C59" s="5">
         <v>0</v>
@@ -16256,7 +16226,7 @@
         <v>106</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C60" s="5">
         <v>0</v>
@@ -16273,7 +16243,7 @@
         <v>107</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C61" s="5">
         <v>0</v>
@@ -16287,13 +16257,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>1067</v>
+        <v>1030</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -16304,13 +16274,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>1068</v>
+        <v>1034</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -16321,13 +16291,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1069</v>
+        <v>1031</v>
       </c>
       <c r="D64" s="1">
         <v>2</v>
@@ -16338,16 +16308,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>1070</v>
+        <v>1030</v>
       </c>
       <c r="D65" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -16355,16 +16325,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1071</v>
+        <v>1034</v>
       </c>
       <c r="D66" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -16372,16 +16342,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>1056</v>
+        <v>1031</v>
       </c>
       <c r="D67" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -16389,13 +16359,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>1073</v>
+        <v>1065</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -16406,13 +16376,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>1074</v>
+        <v>1065</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -16423,13 +16393,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>1075</v>
+        <v>1065</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
@@ -16440,13 +16410,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1076</v>
+        <v>1168</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>1032</v>
+        <v>1066</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -16457,13 +16427,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1076</v>
+        <v>1168</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>1036</v>
+        <v>1067</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -16474,13 +16444,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1076</v>
+        <v>1168</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>1033</v>
+        <v>1068</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
@@ -16491,16 +16461,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1077</v>
+        <v>1168</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>1032</v>
+        <v>1069</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -16508,16 +16478,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1077</v>
+        <v>1168</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="D75" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -16525,16 +16495,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1077</v>
+        <v>1168</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>1033</v>
+        <v>1068</v>
       </c>
       <c r="D76" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -16542,173 +16512,20 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C77" s="5">
-        <v>0</v>
+        <v>1168</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>1027</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>124</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C78" s="5">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1">
-        <v>1</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>125</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C79" s="5">
-        <v>0</v>
-      </c>
-      <c r="D79" s="1">
-        <v>2</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>126</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>127</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D81" s="1">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>128</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D82" s="1">
-        <v>2</v>
-      </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>129</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D83" s="1">
-        <v>3</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>130</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D84" s="1">
-        <v>4</v>
-      </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>131</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D85" s="1">
-        <v>5</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>132</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D86" s="1">
-        <v>6</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16720,12 +16537,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" customWidth="1"/>
     <col min="4" max="4" width="93.109375" customWidth="1"/>
     <col min="5" max="5" width="19.109375" customWidth="1"/>
@@ -16735,25 +16553,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1086</v>
+        <v>1171</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -16764,14 +16582,14 @@
         <v>1201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -16783,14 +16601,14 @@
         <v>1202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -16802,14 +16620,14 @@
         <v>1203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1095</v>
+        <v>1080</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -16821,14 +16639,14 @@
         <v>1204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1097</v>
+        <v>1082</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -16840,14 +16658,14 @@
         <v>1205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -16859,14 +16677,14 @@
         <v>1206</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1102</v>
+        <v>1087</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1103</v>
+        <v>1088</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -16878,14 +16696,14 @@
         <v>1207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1104</v>
+        <v>1089</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1105</v>
+        <v>1090</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -16897,14 +16715,14 @@
         <v>1208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1107</v>
+        <v>1092</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1108</v>
+        <v>1093</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -16916,14 +16734,14 @@
         <v>1209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -16935,14 +16753,14 @@
         <v>1210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -16954,14 +16772,14 @@
         <v>1211</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1115</v>
+        <v>1100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>1117</v>
+        <v>1102</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -16973,14 +16791,14 @@
         <v>1212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1118</v>
+        <v>1103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1119</v>
+        <v>1104</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -16992,14 +16810,14 @@
         <v>1213</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1122</v>
+        <v>1107</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -17011,14 +16829,14 @@
         <v>1214</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1123</v>
+        <v>1108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1124</v>
+        <v>1109</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -17030,14 +16848,14 @@
         <v>1215</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>1127</v>
+        <v>1112</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -17049,14 +16867,14 @@
         <v>1216</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -17068,14 +16886,14 @@
         <v>1217</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1130</v>
+        <v>1115</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -17087,14 +16905,14 @@
         <v>1218</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>1134</v>
+        <v>1119</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -17106,14 +16924,14 @@
         <v>1219</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>1137</v>
+        <v>1122</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -17125,14 +16943,14 @@
         <v>1220</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1138</v>
+        <v>1123</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>1139</v>
+        <v>1124</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -17144,14 +16962,14 @@
         <v>1221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1140</v>
+        <v>1125</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1141</v>
+        <v>1126</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>1142</v>
+        <v>1127</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -17163,14 +16981,14 @@
         <v>1222</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1143</v>
+        <v>1128</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1144</v>
+        <v>1129</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>1145</v>
+        <v>1130</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -17182,14 +17000,14 @@
         <v>1223</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -17201,14 +17019,14 @@
         <v>1224</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1150</v>
+        <v>1135</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -17220,12 +17038,12 @@
         <v>1225</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1151</v>
+        <v>1136</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -17237,14 +17055,14 @@
         <v>1226</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1152</v>
+        <v>1137</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1154</v>
+        <v>1139</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -17256,12 +17074,12 @@
         <v>1227</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1155</v>
+        <v>1140</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>1154</v>
+        <v>1139</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -17273,14 +17091,14 @@
         <v>1230</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1157</v>
+        <v>1142</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>1158</v>
+        <v>1143</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -17292,12 +17110,12 @@
         <v>1231</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1159</v>
+        <v>1144</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>1160</v>
+        <v>1145</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -17309,12 +17127,12 @@
         <v>1232</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1161</v>
+        <v>1146</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>1162</v>
+        <v>1147</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -17326,7 +17144,7 @@
         <v>1302</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1163</v>
+        <v>1148</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -4038,9 +4038,6 @@
     <t>应用场景</t>
   </si>
   <si>
-    <t>正常</t>
-  </si>
-  <si>
     <t>工况报警</t>
   </si>
   <si>
@@ -4198,9 +4195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽喷</t>
-  </si>
-  <si>
     <t>图形在下理论载荷线附近，呈条带状；动液面接近于井口；产量较高，接近或大于理论排量。</t>
   </si>
   <si>
@@ -4210,213 +4204,126 @@
     <t>图形呈平行四边形；充满系数≥0.6。</t>
   </si>
   <si>
-    <t>充满不足</t>
-  </si>
-  <si>
     <t>图形四角明显呈角度；增、卸载线平行；0.3≤充满系数﹤0.6。</t>
   </si>
   <si>
-    <t>供液不足</t>
-  </si>
-  <si>
     <t>图形四角明显呈角度；0.1≤充满系数﹤0.3；沉没度较低。</t>
   </si>
   <si>
     <t>间抽或降低冲次</t>
   </si>
   <si>
-    <t>供液极差</t>
-  </si>
-  <si>
     <t>图形下面部分呈角度；充满系数﹤0.1。</t>
   </si>
   <si>
-    <t>抽空</t>
-  </si>
-  <si>
     <t>图形呈条状；产量为零。</t>
   </si>
   <si>
-    <t>泵下堵</t>
-  </si>
-  <si>
     <t>充满系数﹤0.3；沉没度较高。</t>
   </si>
   <si>
     <t>洗井或加药</t>
   </si>
   <si>
-    <t>气锁</t>
-  </si>
-  <si>
     <t>图形靠近上理论载荷线；增、卸载过程缓慢，卸载线平缓；产量为零。</t>
   </si>
   <si>
     <t>合理控制气体</t>
   </si>
   <si>
-    <t>气影响</t>
-  </si>
-  <si>
     <t>图形四角圆滑呈弧度，气油比越高，圆弧的曲率半径越大；增载缓慢，增、卸载线不明显。</t>
   </si>
   <si>
-    <t>间隙漏</t>
-  </si>
-  <si>
     <t>图形上部分倾斜；图形上、下载荷线不平行。</t>
   </si>
   <si>
     <t>检泵</t>
   </si>
   <si>
-    <t>油管漏</t>
-  </si>
-  <si>
     <t>图形呈条带状；图形在下理论载荷线附近；产量下降。</t>
   </si>
   <si>
     <t>油管打压试验</t>
   </si>
   <si>
-    <t>游动凡尔漏失</t>
-  </si>
-  <si>
     <t>图形上部分圆滑、缺损；上载荷线低于上理论载荷线；增载过程缓慢，卸载提前。</t>
   </si>
   <si>
     <t>洗井、碰泵或检泵</t>
   </si>
   <si>
-    <t>固定凡尔漏失</t>
-  </si>
-  <si>
     <t>图形下部分圆滑、缺损；下载荷线高于下理论载荷线；增载提前，卸载过程缓慢。</t>
   </si>
   <si>
-    <t>双凡尔漏失</t>
-  </si>
-  <si>
     <t>图形呈椭圆状；图形在上、下理论载荷线之间；漏失严重时，油井不出油。</t>
   </si>
   <si>
-    <t>游动凡尔失灵/油管漏</t>
-  </si>
-  <si>
     <t>图形呈条带状；图形在下理论载荷线附近；产量为零。</t>
   </si>
   <si>
     <t>洗井、碰泵或检泵/打压、更换油管</t>
   </si>
   <si>
-    <t>固定凡尔失灵</t>
-  </si>
-  <si>
     <t>图形呈条带状；图形在上理论载荷线附近；产量为零。</t>
   </si>
   <si>
-    <t>双凡尔失灵</t>
-  </si>
-  <si>
     <t>图形呈条带状；图形在上、下理论载荷线之间；产量为零。</t>
   </si>
   <si>
-    <t>上死点别、碰</t>
-  </si>
-  <si>
     <t>图形右上角凸起。</t>
   </si>
   <si>
     <t>校正井口设备</t>
   </si>
   <si>
-    <t>碰泵</t>
-  </si>
-  <si>
     <t>图形左下角拖尾。</t>
   </si>
   <si>
     <t>上提（增大）防冲距</t>
   </si>
   <si>
-    <t>活塞/底部断脱/未入工作筒</t>
-  </si>
-  <si>
     <t>检泵/下放（缩小）防冲距</t>
   </si>
   <si>
-    <t>柱塞脱出工作筒</t>
-  </si>
-  <si>
     <t>图形右边缺损；右下角拖尾；增载过程中突然卸载。</t>
   </si>
   <si>
     <t>下放（缩小）防冲距</t>
   </si>
   <si>
-    <t>杆断脱</t>
-  </si>
-  <si>
     <t>图形呈条带状，两端尖；图形在下理论载荷线下方，断杆位置距井口越近图形越下移；产量突然为零。</t>
   </si>
   <si>
     <t>替换抽油杆</t>
   </si>
   <si>
-    <t>杆(泵)卡</t>
-  </si>
-  <si>
     <t>图形呈斜条带状；可通过图形拐点找到被卡位置；油井不出油。</t>
   </si>
   <si>
     <t>洗井或检泵</t>
   </si>
   <si>
-    <t>结蜡</t>
-  </si>
-  <si>
     <t>图形肥大；产量下降。</t>
   </si>
   <si>
-    <t>严重结蜡</t>
-  </si>
-  <si>
-    <t>出砂</t>
-  </si>
-  <si>
     <t>图形呈不规则、不重复的锯齿状；油井出油正常。</t>
   </si>
   <si>
     <t>防砂</t>
   </si>
   <si>
-    <t>严重出砂</t>
-  </si>
-  <si>
-    <t>惯性载荷大</t>
-  </si>
-  <si>
     <t>图形顺时针偏转。</t>
   </si>
   <si>
     <t>降低冲次</t>
   </si>
   <si>
-    <t>应力超标</t>
-  </si>
-  <si>
     <t>优化抽油杆柱组合</t>
   </si>
   <si>
-    <t>采集异常</t>
-  </si>
-  <si>
     <t>检查采集仪表</t>
   </si>
   <si>
-    <t>停抽</t>
-  </si>
-  <si>
     <t>ITEMCODE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4503,6 +4410,104 @@
   </si>
   <si>
     <t>RESULTNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code1202</t>
+  </si>
+  <si>
+    <t>code1203</t>
+  </si>
+  <si>
+    <t>code1204</t>
+  </si>
+  <si>
+    <t>code1205</t>
+  </si>
+  <si>
+    <t>code1206</t>
+  </si>
+  <si>
+    <t>code1207</t>
+  </si>
+  <si>
+    <t>code1208</t>
+  </si>
+  <si>
+    <t>code1209</t>
+  </si>
+  <si>
+    <t>code1210</t>
+  </si>
+  <si>
+    <t>code1211</t>
+  </si>
+  <si>
+    <t>code1212</t>
+  </si>
+  <si>
+    <t>code1213</t>
+  </si>
+  <si>
+    <t>code1214</t>
+  </si>
+  <si>
+    <t>code1215</t>
+  </si>
+  <si>
+    <t>code1216</t>
+  </si>
+  <si>
+    <t>code1217</t>
+  </si>
+  <si>
+    <t>code1218</t>
+  </si>
+  <si>
+    <t>code1219</t>
+  </si>
+  <si>
+    <t>code1220</t>
+  </si>
+  <si>
+    <t>code1221</t>
+  </si>
+  <si>
+    <t>code1222</t>
+  </si>
+  <si>
+    <t>code1223</t>
+  </si>
+  <si>
+    <t>code1224</t>
+  </si>
+  <si>
+    <t>code1225</t>
+  </si>
+  <si>
+    <t>code1226</t>
+  </si>
+  <si>
+    <t>code1227</t>
+  </si>
+  <si>
+    <t>code1230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code1231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code1232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code1233</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5451,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1154</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -9238,7 +9243,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1152</v>
+        <v>1121</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>428</v>
@@ -15194,8 +15199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -15213,7 +15218,7 @@
         <v>1016</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1149</v>
+        <v>1118</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1017</v>
@@ -15239,7 +15244,7 @@
         <v>1022</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1155</v>
+        <v>1124</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -15256,7 +15261,7 @@
         <v>1022</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1156</v>
+        <v>1125</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -15273,7 +15278,7 @@
         <v>1022</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1157</v>
+        <v>1126</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -15290,7 +15295,7 @@
         <v>1022</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1158</v>
+        <v>1127</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -15307,7 +15312,7 @@
         <v>1023</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1169</v>
+        <v>1138</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -15326,7 +15331,7 @@
         <v>1023</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1170</v>
+        <v>1139</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -15342,10 +15347,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1150</v>
+        <v>1119</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1151</v>
+        <v>1120</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -15359,7 +15364,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1150</v>
+        <v>1119</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>235</v>
@@ -15376,7 +15381,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1150</v>
+        <v>1119</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>236</v>
@@ -15393,7 +15398,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1150</v>
+        <v>1119</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>237</v>
@@ -15410,10 +15415,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1150</v>
+        <v>1119</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1153</v>
+        <v>1122</v>
       </c>
       <c r="D12" s="1">
         <v>400</v>
@@ -15427,10 +15432,10 @@
         <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>1028</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>1029</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -15444,10 +15449,10 @@
         <v>28</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D14" s="1">
         <v>100</v>
@@ -15461,10 +15466,10 @@
         <v>29</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D15" s="1">
         <v>200</v>
@@ -15478,10 +15483,10 @@
         <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D16" s="1">
         <v>300</v>
@@ -15495,10 +15500,10 @@
         <v>31</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>1033</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>1034</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -15512,10 +15517,10 @@
         <v>32</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D18" s="1">
         <v>100</v>
@@ -15529,10 +15534,10 @@
         <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D19" s="1">
         <v>200</v>
@@ -15546,10 +15551,10 @@
         <v>34</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D20" s="1">
         <v>300</v>
@@ -15563,10 +15568,10 @@
         <v>35</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D21" s="1">
         <v>400</v>
@@ -15580,7 +15585,7 @@
         <v>36</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -15597,7 +15602,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -15614,7 +15619,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
@@ -15631,7 +15636,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -15648,7 +15653,7 @@
         <v>40</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C26" s="5">
         <v>0</v>
@@ -15665,7 +15670,7 @@
         <v>41</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C27" s="5">
         <v>0</v>
@@ -15682,7 +15687,7 @@
         <v>42</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
@@ -15699,7 +15704,7 @@
         <v>43</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -15716,10 +15721,10 @@
         <v>46</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>1038</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>1039</v>
       </c>
       <c r="D30" s="1">
         <v>101</v>
@@ -15733,10 +15738,10 @@
         <v>47</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D31" s="1">
         <v>201</v>
@@ -15750,10 +15755,10 @@
         <v>48</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D32" s="1">
         <v>300</v>
@@ -15767,10 +15772,10 @@
         <v>49</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1159</v>
+        <v>1128</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D33" s="1">
         <v>-44</v>
@@ -15784,10 +15789,10 @@
         <v>50</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1159</v>
+        <v>1128</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D34" s="1">
         <v>-55</v>
@@ -15801,10 +15806,10 @@
         <v>51</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1159</v>
+        <v>1128</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D35" s="1">
         <v>-66</v>
@@ -15818,10 +15823,10 @@
         <v>52</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1159</v>
+        <v>1128</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D36" s="1">
         <v>-77</v>
@@ -15835,10 +15840,10 @@
         <v>53</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1159</v>
+        <v>1128</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D37" s="1">
         <v>-88</v>
@@ -15852,10 +15857,10 @@
         <v>54</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1159</v>
+        <v>1128</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D38" s="1">
         <v>-99</v>
@@ -15869,10 +15874,10 @@
         <v>55</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1159</v>
+        <v>1128</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -15886,10 +15891,10 @@
         <v>56</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1159</v>
+        <v>1128</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -15903,10 +15908,10 @@
         <v>57</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>1050</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>1051</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -15920,10 +15925,10 @@
         <v>58</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D42" s="1">
         <v>2</v>
@@ -15937,10 +15942,10 @@
         <v>59</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -15954,10 +15959,10 @@
         <v>80</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1160</v>
+        <v>1129</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1161</v>
+        <v>1130</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -15971,10 +15976,10 @@
         <v>81</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1162</v>
+        <v>1131</v>
       </c>
       <c r="D45" s="1">
         <v>2</v>
@@ -15988,10 +15993,10 @@
         <v>90</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>1055</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>1056</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -16005,10 +16010,10 @@
         <v>91</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D47" s="1">
         <v>2</v>
@@ -16022,10 +16027,10 @@
         <v>94</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1163</v>
+        <v>1132</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -16039,10 +16044,10 @@
         <v>95</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>1164</v>
+        <v>1133</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -16056,10 +16061,10 @@
         <v>96</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>1165</v>
+        <v>1134</v>
       </c>
       <c r="D50" s="1">
         <v>2</v>
@@ -16073,10 +16078,10 @@
         <v>97</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>1166</v>
+        <v>1135</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -16090,10 +16095,10 @@
         <v>98</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>1167</v>
+        <v>1136</v>
       </c>
       <c r="D52" s="1">
         <v>4</v>
@@ -16107,10 +16112,10 @@
         <v>99</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>1059</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>1060</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -16124,10 +16129,10 @@
         <v>100</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -16141,10 +16146,10 @@
         <v>101</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D55" s="1">
         <v>2</v>
@@ -16158,10 +16163,10 @@
         <v>102</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -16175,10 +16180,10 @@
         <v>103</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -16192,10 +16197,10 @@
         <v>104</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D58" s="1">
         <v>2</v>
@@ -16209,7 +16214,7 @@
         <v>105</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C59" s="5">
         <v>0</v>
@@ -16226,7 +16231,7 @@
         <v>106</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C60" s="5">
         <v>0</v>
@@ -16243,7 +16248,7 @@
         <v>107</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C61" s="5">
         <v>0</v>
@@ -16260,10 +16265,10 @@
         <v>117</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -16277,10 +16282,10 @@
         <v>118</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -16294,10 +16299,10 @@
         <v>119</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D64" s="1">
         <v>2</v>
@@ -16311,10 +16316,10 @@
         <v>120</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
@@ -16328,10 +16333,10 @@
         <v>121</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -16345,10 +16350,10 @@
         <v>122</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D67" s="1">
         <v>2</v>
@@ -16362,7 +16367,7 @@
         <v>123</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C68" s="5">
         <v>0</v>
@@ -16379,7 +16384,7 @@
         <v>124</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C69" s="5">
         <v>0</v>
@@ -16396,7 +16401,7 @@
         <v>125</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C70" s="5">
         <v>0</v>
@@ -16413,10 +16418,10 @@
         <v>126</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1168</v>
+        <v>1137</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -16430,10 +16435,10 @@
         <v>127</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1168</v>
+        <v>1137</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -16447,10 +16452,10 @@
         <v>128</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1168</v>
+        <v>1137</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
@@ -16464,10 +16469,10 @@
         <v>129</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1168</v>
+        <v>1137</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D74" s="1">
         <v>3</v>
@@ -16481,10 +16486,10 @@
         <v>130</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1168</v>
+        <v>1137</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D75" s="1">
         <v>4</v>
@@ -16498,10 +16503,10 @@
         <v>131</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1168</v>
+        <v>1137</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D76" s="1">
         <v>5</v>
@@ -16515,10 +16520,10 @@
         <v>132</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1168</v>
+        <v>1137</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D77" s="1">
         <v>6</v>
@@ -16537,8 +16542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -16553,25 +16558,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1074</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -16582,14 +16587,14 @@
         <v>1201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1076</v>
+        <v>1141</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -16601,14 +16606,14 @@
         <v>1202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1025</v>
+        <v>1142</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -16620,14 +16625,14 @@
         <v>1203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1080</v>
+        <v>1143</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -16639,14 +16644,14 @@
         <v>1204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1082</v>
+        <v>1144</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -16658,14 +16663,14 @@
         <v>1205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1085</v>
+        <v>1145</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -16677,14 +16682,14 @@
         <v>1206</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1087</v>
+        <v>1146</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -16696,14 +16701,14 @@
         <v>1207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1089</v>
+        <v>1147</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -16715,14 +16720,14 @@
         <v>1208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1092</v>
+        <v>1148</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -16734,14 +16739,14 @@
         <v>1209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1095</v>
+        <v>1149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -16753,14 +16758,14 @@
         <v>1210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1097</v>
+        <v>1150</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -16772,14 +16777,14 @@
         <v>1211</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1100</v>
+        <v>1151</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -16791,14 +16796,14 @@
         <v>1212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1103</v>
+        <v>1152</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -16810,14 +16815,14 @@
         <v>1213</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1106</v>
+        <v>1153</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -16829,14 +16834,14 @@
         <v>1214</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1108</v>
+        <v>1154</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -16848,14 +16853,14 @@
         <v>1215</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1110</v>
+        <v>1155</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -16867,14 +16872,14 @@
         <v>1216</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1113</v>
+        <v>1156</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1114</v>
+        <v>1098</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -16886,14 +16891,14 @@
         <v>1217</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1115</v>
+        <v>1157</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -16905,14 +16910,14 @@
         <v>1218</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1117</v>
+        <v>1158</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1118</v>
+        <v>1100</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>1119</v>
+        <v>1101</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -16924,14 +16929,14 @@
         <v>1219</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1120</v>
+        <v>1159</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>1122</v>
+        <v>1103</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -16943,14 +16948,14 @@
         <v>1220</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1123</v>
+        <v>1160</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>1124</v>
+        <v>1104</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -16962,14 +16967,14 @@
         <v>1221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1125</v>
+        <v>1161</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1126</v>
+        <v>1105</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>1127</v>
+        <v>1106</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -16981,14 +16986,14 @@
         <v>1222</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1128</v>
+        <v>1162</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1129</v>
+        <v>1107</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>1130</v>
+        <v>1108</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -17000,14 +17005,14 @@
         <v>1223</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1131</v>
+        <v>1163</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1132</v>
+        <v>1109</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>1133</v>
+        <v>1110</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -17019,14 +17024,14 @@
         <v>1224</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1134</v>
+        <v>1164</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1135</v>
+        <v>1111</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -17038,12 +17043,12 @@
         <v>1225</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1136</v>
+        <v>1165</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -17055,14 +17060,14 @@
         <v>1226</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1137</v>
+        <v>1166</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1138</v>
+        <v>1112</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1139</v>
+        <v>1113</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -17074,12 +17079,12 @@
         <v>1227</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1140</v>
+        <v>1167</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>1139</v>
+        <v>1113</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -17091,14 +17096,14 @@
         <v>1230</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1141</v>
+        <v>1168</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1142</v>
+        <v>1114</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>1143</v>
+        <v>1115</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -17110,12 +17115,12 @@
         <v>1231</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1144</v>
+        <v>1169</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>1145</v>
+        <v>1116</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -17127,12 +17132,12 @@
         <v>1232</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1146</v>
+        <v>1170</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>1147</v>
+        <v>1117</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -17144,7 +17149,7 @@
         <v>1302</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1148</v>
+        <v>1171</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="language" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="module" sheetId="4" r:id="rId4"/>
     <sheet name="tbl_code" sheetId="5" r:id="rId5"/>
     <sheet name="worktype" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="1174">
   <si>
     <t>myself</t>
   </si>
@@ -4044,37 +4045,6 @@
     <t>运行状态报警</t>
   </si>
   <si>
-    <t>BJQJYS</t>
-  </si>
-  <si>
-    <t>000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc2828</t>
-  </si>
-  <si>
-    <t>f09614</t>
-  </si>
-  <si>
-    <t>fae600</t>
-  </si>
-  <si>
-    <t>BJYS</t>
-  </si>
-  <si>
-    <t>00ff00</t>
-  </si>
-  <si>
-    <t>#808080</t>
-  </si>
-  <si>
-    <t>BJYSTMD</t>
-  </si>
-  <si>
-    <t>BJYSTMD3</t>
-  </si>
-  <si>
     <t>DEVICETYPE</t>
   </si>
   <si>
@@ -4126,39 +4096,9 @@
     <t>MD_TYPE</t>
   </si>
   <si>
-    <t>PROTOCOL</t>
-  </si>
-  <si>
-    <t>modbus-tcp</t>
-  </si>
-  <si>
-    <t>modbus-rtu</t>
-  </si>
-  <si>
     <t>SYSTEMACTION</t>
   </si>
   <si>
-    <t>TXBJQJYS</t>
-  </si>
-  <si>
-    <t>6c6262</t>
-  </si>
-  <si>
-    <t>TXBJYS</t>
-  </si>
-  <si>
-    <t>TXBJYSTMD</t>
-  </si>
-  <si>
-    <t>YXBJQJYS</t>
-  </si>
-  <si>
-    <t>YXBJYS</t>
-  </si>
-  <si>
-    <t>YXBJYSTMD</t>
-  </si>
-  <si>
     <t>开关量报警</t>
   </si>
   <si>
@@ -4187,328 +4127,405 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEMCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALARMLEVEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offline</t>
+  </si>
+  <si>
+    <t>offline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTSTATUS</t>
+  </si>
+  <si>
+    <t>MD_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>driver configuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALARMTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULTNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code1202</t>
+  </si>
+  <si>
+    <t>code1203</t>
+  </si>
+  <si>
+    <t>code1204</t>
+  </si>
+  <si>
+    <t>code1205</t>
+  </si>
+  <si>
+    <t>code1206</t>
+  </si>
+  <si>
+    <t>code1207</t>
+  </si>
+  <si>
+    <t>code1208</t>
+  </si>
+  <si>
+    <t>code1209</t>
+  </si>
+  <si>
+    <t>code1210</t>
+  </si>
+  <si>
+    <t>code1211</t>
+  </si>
+  <si>
+    <t>code1212</t>
+  </si>
+  <si>
+    <t>code1213</t>
+  </si>
+  <si>
+    <t>code1214</t>
+  </si>
+  <si>
+    <t>code1215</t>
+  </si>
+  <si>
+    <t>code1216</t>
+  </si>
+  <si>
+    <t>code1217</t>
+  </si>
+  <si>
+    <t>code1218</t>
+  </si>
+  <si>
+    <t>code1219</t>
+  </si>
+  <si>
+    <t>code1220</t>
+  </si>
+  <si>
+    <t>code1221</t>
+  </si>
+  <si>
+    <t>code1222</t>
+  </si>
+  <si>
+    <t>code1223</t>
+  </si>
+  <si>
+    <t>code1224</t>
+  </si>
+  <si>
+    <t>code1225</t>
+  </si>
+  <si>
+    <t>code1226</t>
+  </si>
+  <si>
+    <t>code1227</t>
+  </si>
+  <si>
+    <t>code1230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code1231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code1232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggestion1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>OPTIMIZATIONSUGGESTION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>REMARK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形在下理论载荷线附近，呈条带状；动液面接近于井口；产量较高，接近或大于理论排量。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>图形呈平行四边形；充满系数≥0.6。</t>
-  </si>
-  <si>
-    <t>图形四角明显呈角度；增、卸载线平行；0.3≤充满系数﹤0.6。</t>
-  </si>
-  <si>
-    <t>图形四角明显呈角度；0.1≤充满系数﹤0.3；沉没度较低。</t>
-  </si>
-  <si>
-    <t>间抽或降低冲次</t>
-  </si>
-  <si>
-    <t>图形下面部分呈角度；充满系数﹤0.1。</t>
-  </si>
-  <si>
-    <t>图形呈条状；产量为零。</t>
-  </si>
-  <si>
-    <t>充满系数﹤0.3；沉没度较高。</t>
-  </si>
-  <si>
-    <t>洗井或加药</t>
-  </si>
-  <si>
-    <t>图形靠近上理论载荷线；增、卸载过程缓慢，卸载线平缓；产量为零。</t>
-  </si>
-  <si>
-    <t>合理控制气体</t>
-  </si>
-  <si>
-    <t>图形四角圆滑呈弧度，气油比越高，圆弧的曲率半径越大；增载缓慢，增、卸载线不明显。</t>
-  </si>
-  <si>
-    <t>图形上部分倾斜；图形上、下载荷线不平行。</t>
-  </si>
-  <si>
-    <t>检泵</t>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在下理论载荷线附近；产量下降。</t>
-  </si>
-  <si>
-    <t>油管打压试验</t>
-  </si>
-  <si>
-    <t>图形上部分圆滑、缺损；上载荷线低于上理论载荷线；增载过程缓慢，卸载提前。</t>
-  </si>
-  <si>
-    <t>洗井、碰泵或检泵</t>
-  </si>
-  <si>
-    <t>图形下部分圆滑、缺损；下载荷线高于下理论载荷线；增载提前，卸载过程缓慢。</t>
-  </si>
-  <si>
-    <t>图形呈椭圆状；图形在上、下理论载荷线之间；漏失严重时，油井不出油。</t>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在下理论载荷线附近；产量为零。</t>
-  </si>
-  <si>
-    <t>洗井、碰泵或检泵/打压、更换油管</t>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在上理论载荷线附近；产量为零。</t>
-  </si>
-  <si>
-    <t>图形呈条带状；图形在上、下理论载荷线之间；产量为零。</t>
-  </si>
-  <si>
-    <t>图形右上角凸起。</t>
-  </si>
-  <si>
-    <t>校正井口设备</t>
-  </si>
-  <si>
-    <t>图形左下角拖尾。</t>
-  </si>
-  <si>
-    <t>上提（增大）防冲距</t>
-  </si>
-  <si>
-    <t>检泵/下放（缩小）防冲距</t>
-  </si>
-  <si>
-    <t>图形右边缺损；右下角拖尾；增载过程中突然卸载。</t>
-  </si>
-  <si>
-    <t>下放（缩小）防冲距</t>
-  </si>
-  <si>
-    <t>图形呈条带状，两端尖；图形在下理论载荷线下方，断杆位置距井口越近图形越下移；产量突然为零。</t>
-  </si>
-  <si>
-    <t>替换抽油杆</t>
-  </si>
-  <si>
-    <t>图形呈斜条带状；可通过图形拐点找到被卡位置；油井不出油。</t>
-  </si>
-  <si>
-    <t>洗井或检泵</t>
-  </si>
-  <si>
-    <t>图形肥大；产量下降。</t>
-  </si>
-  <si>
-    <t>图形呈不规则、不重复的锯齿状；油井出油正常。</t>
-  </si>
-  <si>
-    <t>防砂</t>
-  </si>
-  <si>
-    <t>图形顺时针偏转。</t>
-  </si>
-  <si>
-    <t>降低冲次</t>
-  </si>
-  <si>
-    <t>优化抽油杆柱组合</t>
-  </si>
-  <si>
-    <t>检查采集仪表</t>
-  </si>
-  <si>
-    <t>ITEMCODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALARMLEVEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>offline</t>
-  </si>
-  <si>
-    <t>offline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>control</t>
+    <t>suggestion1202</t>
+  </si>
+  <si>
+    <t>suggestion1203</t>
+  </si>
+  <si>
+    <t>suggestion1204</t>
+  </si>
+  <si>
+    <t>suggestion1205</t>
+  </si>
+  <si>
+    <t>suggestion1206</t>
+  </si>
+  <si>
+    <t>suggestion1207</t>
+  </si>
+  <si>
+    <t>suggestion1208</t>
+  </si>
+  <si>
+    <t>suggestion1209</t>
+  </si>
+  <si>
+    <t>suggestion1210</t>
+  </si>
+  <si>
+    <t>suggestion1211</t>
+  </si>
+  <si>
+    <t>suggestion1212</t>
+  </si>
+  <si>
+    <t>suggestion1213</t>
+  </si>
+  <si>
+    <t>suggestion1214</t>
+  </si>
+  <si>
+    <t>suggestion1215</t>
+  </si>
+  <si>
+    <t>suggestion1216</t>
+  </si>
+  <si>
+    <t>suggestion1217</t>
+  </si>
+  <si>
+    <t>suggestion1218</t>
+  </si>
+  <si>
+    <t>suggestion1219</t>
+  </si>
+  <si>
+    <t>suggestion1220</t>
+  </si>
+  <si>
+    <t>suggestion1221</t>
+  </si>
+  <si>
+    <t>suggestion1222</t>
+  </si>
+  <si>
+    <t>suggestion1223</t>
+  </si>
+  <si>
+    <t>suggestion1224</t>
+  </si>
+  <si>
+    <t>suggestion1225</t>
+  </si>
+  <si>
+    <t>suggestion1226</t>
+  </si>
+  <si>
+    <t>suggestion1227</t>
+  </si>
+  <si>
+    <t>suggestion1230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggestion1231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggestion1232</t>
+  </si>
+  <si>
+    <t>code1302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggestion1302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description1202</t>
+  </si>
+  <si>
+    <t>description1203</t>
+  </si>
+  <si>
+    <t>description1204</t>
+  </si>
+  <si>
+    <t>description1205</t>
+  </si>
+  <si>
+    <t>description1206</t>
+  </si>
+  <si>
+    <t>description1207</t>
+  </si>
+  <si>
+    <t>description1208</t>
+  </si>
+  <si>
+    <t>description1209</t>
+  </si>
+  <si>
+    <t>description1210</t>
+  </si>
+  <si>
+    <t>description1211</t>
+  </si>
+  <si>
+    <t>description1212</t>
+  </si>
+  <si>
+    <t>description1213</t>
+  </si>
+  <si>
+    <t>description1214</t>
+  </si>
+  <si>
+    <t>description1215</t>
+  </si>
+  <si>
+    <t>description1216</t>
+  </si>
+  <si>
+    <t>description1217</t>
+  </si>
+  <si>
+    <t>description1218</t>
+  </si>
+  <si>
+    <t>description1219</t>
+  </si>
+  <si>
+    <t>description1220</t>
+  </si>
+  <si>
+    <t>description1221</t>
+  </si>
+  <si>
+    <t>description1222</t>
+  </si>
+  <si>
+    <t>description1223</t>
+  </si>
+  <si>
+    <t>description1224</t>
+  </si>
+  <si>
+    <t>description1225</t>
+  </si>
+  <si>
+    <t>description1226</t>
+  </si>
+  <si>
+    <t>description1227</t>
+  </si>
+  <si>
+    <t>description1230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description1231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description1232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description1302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RESULTSTATUS</t>
-  </si>
-  <si>
-    <t>MD_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>driver configuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module access</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALARMTYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cbm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULTNAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code1201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code1202</t>
-  </si>
-  <si>
-    <t>code1203</t>
-  </si>
-  <si>
-    <t>code1204</t>
-  </si>
-  <si>
-    <t>code1205</t>
-  </si>
-  <si>
-    <t>code1206</t>
-  </si>
-  <si>
-    <t>code1207</t>
-  </si>
-  <si>
-    <t>code1208</t>
-  </si>
-  <si>
-    <t>code1209</t>
-  </si>
-  <si>
-    <t>code1210</t>
-  </si>
-  <si>
-    <t>code1211</t>
-  </si>
-  <si>
-    <t>code1212</t>
-  </si>
-  <si>
-    <t>code1213</t>
-  </si>
-  <si>
-    <t>code1214</t>
-  </si>
-  <si>
-    <t>code1215</t>
-  </si>
-  <si>
-    <t>code1216</t>
-  </si>
-  <si>
-    <t>code1217</t>
-  </si>
-  <si>
-    <t>code1218</t>
-  </si>
-  <si>
-    <t>code1219</t>
-  </si>
-  <si>
-    <t>code1220</t>
-  </si>
-  <si>
-    <t>code1221</t>
-  </si>
-  <si>
-    <t>code1222</t>
-  </si>
-  <si>
-    <t>code1223</t>
-  </si>
-  <si>
-    <t>code1224</t>
-  </si>
-  <si>
-    <t>code1225</t>
-  </si>
-  <si>
-    <t>code1226</t>
-  </si>
-  <si>
-    <t>code1227</t>
-  </si>
-  <si>
-    <t>code1230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code1231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code1232</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code1233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRPCalculate</t>
   </si>
 </sst>
 </file>
@@ -5456,7 +5473,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1123</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -8249,8 +8266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C865"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9243,7 +9260,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1121</v>
+        <v>1057</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>428</v>
@@ -9331,7 +9348,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>258</v>
+        <v>1173</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>258</v>
@@ -15197,10 +15214,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -15218,7 +15235,7 @@
         <v>1016</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1118</v>
+        <v>1054</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1017</v>
@@ -15244,7 +15261,7 @@
         <v>1022</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1124</v>
+        <v>1060</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -15261,7 +15278,7 @@
         <v>1022</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1125</v>
+        <v>1061</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -15278,7 +15295,7 @@
         <v>1022</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1126</v>
+        <v>1062</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -15295,7 +15312,7 @@
         <v>1022</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1127</v>
+        <v>1063</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -15312,7 +15329,7 @@
         <v>1023</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1138</v>
+        <v>1074</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -15331,7 +15348,7 @@
         <v>1023</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1139</v>
+        <v>1075</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -15347,10 +15364,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1119</v>
+        <v>1055</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1120</v>
+        <v>1056</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -15364,7 +15381,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1119</v>
+        <v>1055</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>235</v>
@@ -15381,7 +15398,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1119</v>
+        <v>1055</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>236</v>
@@ -15398,7 +15415,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1119</v>
+        <v>1055</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>237</v>
@@ -15415,10 +15432,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1119</v>
+        <v>1055</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1122</v>
+        <v>1058</v>
       </c>
       <c r="D12" s="1">
         <v>400</v>
@@ -15429,7 +15446,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>1027</v>
@@ -15438,7 +15455,7 @@
         <v>1028</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -15446,7 +15463,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>1027</v>
@@ -15455,7 +15472,7 @@
         <v>1029</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -15463,7 +15480,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>1027</v>
@@ -15472,7 +15489,7 @@
         <v>1030</v>
       </c>
       <c r="D15" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -15480,16 +15497,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1027</v>
+        <v>1172</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>1031</v>
       </c>
       <c r="D16" s="1">
-        <v>300</v>
+        <v>-44</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -15497,16 +15514,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>1032</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>1033</v>
-      </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -15514,16 +15531,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1032</v>
+        <v>1064</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="D18" s="1">
-        <v>100</v>
+        <v>-66</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -15531,16 +15548,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1032</v>
+        <v>1064</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D19" s="1">
-        <v>200</v>
+        <v>-77</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -15548,16 +15565,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1032</v>
+        <v>1064</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="D20" s="1">
-        <v>300</v>
+        <v>-88</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -15565,16 +15582,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1032</v>
+        <v>1064</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="D21" s="1">
-        <v>400</v>
+        <v>-99</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -15582,13 +15599,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0</v>
+        <v>1064</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1037</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -15599,16 +15616,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
+        <v>1064</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1038</v>
       </c>
       <c r="D23" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -15616,16 +15633,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0</v>
+        <v>1171</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1040</v>
       </c>
       <c r="D24" s="1">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -15633,16 +15650,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0</v>
+        <v>1039</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>1041</v>
       </c>
       <c r="D25" s="1">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -15650,16 +15667,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0</v>
+        <v>1039</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1042</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -15667,16 +15684,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C27" s="5">
+        <v>1065</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D27" s="1">
         <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>100</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -15684,16 +15701,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0</v>
+        <v>1043</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1067</v>
       </c>
       <c r="D28" s="1">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -15701,16 +15718,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C29" s="5">
+        <v>1044</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D29" s="1">
         <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>300</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -15718,16 +15735,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1038</v>
+        <v>1069</v>
       </c>
       <c r="D30" s="1">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -15735,16 +15752,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1039</v>
+        <v>1070</v>
       </c>
       <c r="D31" s="1">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -15752,16 +15769,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1040</v>
+        <v>1071</v>
       </c>
       <c r="D32" s="1">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -15769,16 +15786,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1128</v>
+        <v>1044</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1041</v>
+        <v>1072</v>
       </c>
       <c r="D33" s="1">
-        <v>-44</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -15786,16 +15803,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1128</v>
+        <v>1073</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="D34" s="1">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -15803,16 +15820,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1128</v>
+        <v>1073</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="D35" s="1">
-        <v>-66</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -15820,16 +15837,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1128</v>
+        <v>1073</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="D36" s="1">
-        <v>-77</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -15837,16 +15854,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1128</v>
+        <v>1073</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="D37" s="1">
-        <v>-88</v>
+        <v>3</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -15854,16 +15871,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1128</v>
+        <v>1073</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1046</v>
+        <v>1025</v>
       </c>
       <c r="D38" s="1">
-        <v>-99</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -15871,16 +15888,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1128</v>
+        <v>1073</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -15888,649 +15905,20 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1128</v>
+        <v>1073</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1048</v>
+        <v>1026</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>57</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>58</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>59</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>80</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>81</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>90</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>91</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>94</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>95</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>96</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>97</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D51" s="1">
-        <v>3</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>98</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D52" s="1">
-        <v>4</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>99</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>100</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>101</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>102</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>103</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>104</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D58" s="1">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>105</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C59" s="5">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>106</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C60" s="5">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>107</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C61" s="5">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>117</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>118</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>119</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D64" s="1">
-        <v>2</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>120</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>121</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D66" s="1">
-        <v>1</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>122</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D67" s="1">
-        <v>2</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>123</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C68" s="5">
-        <v>0</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>124</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C69" s="5">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>125</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C70" s="5">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1">
-        <v>2</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>126</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>127</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D72" s="1">
-        <v>1</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>128</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D73" s="1">
-        <v>2</v>
-      </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>129</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D74" s="1">
-        <v>3</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>130</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D75" s="1">
-        <v>4</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>131</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D76" s="1">
-        <v>5</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>132</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D77" s="1">
-        <v>6</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16542,8 +15930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -16558,25 +15946,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1140</v>
+        <v>1076</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1072</v>
+        <v>1052</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1073</v>
+        <v>1108</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1074</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -16587,14 +15975,14 @@
         <v>1201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1141</v>
+        <v>1106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1075</v>
+        <v>1140</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>1076</v>
+        <v>1107</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -16606,14 +15994,14 @@
         <v>1202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1142</v>
+        <v>1077</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1077</v>
+        <v>1141</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>1076</v>
+        <v>1109</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -16625,14 +16013,14 @@
         <v>1203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1143</v>
+        <v>1078</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1078</v>
+        <v>1142</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>1076</v>
+        <v>1110</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -16644,14 +16032,14 @@
         <v>1204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1144</v>
+        <v>1079</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1079</v>
+        <v>1143</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>1080</v>
+        <v>1111</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -16663,14 +16051,14 @@
         <v>1205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1145</v>
+        <v>1080</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1081</v>
+        <v>1144</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>1080</v>
+        <v>1112</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -16682,14 +16070,14 @@
         <v>1206</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1146</v>
+        <v>1081</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1082</v>
+        <v>1145</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>1080</v>
+        <v>1113</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -16701,14 +16089,14 @@
         <v>1207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1147</v>
+        <v>1082</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1083</v>
+        <v>1146</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>1084</v>
+        <v>1114</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -16720,14 +16108,14 @@
         <v>1208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1148</v>
+        <v>1083</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1085</v>
+        <v>1147</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>1086</v>
+        <v>1115</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -16739,14 +16127,14 @@
         <v>1209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1149</v>
+        <v>1084</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1087</v>
+        <v>1148</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>1086</v>
+        <v>1116</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -16758,14 +16146,14 @@
         <v>1210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1150</v>
+        <v>1085</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1088</v>
+        <v>1149</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>1089</v>
+        <v>1117</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -16777,14 +16165,14 @@
         <v>1211</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1151</v>
+        <v>1086</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1090</v>
+        <v>1150</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>1091</v>
+        <v>1118</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -16796,14 +16184,14 @@
         <v>1212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1152</v>
+        <v>1087</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1092</v>
+        <v>1151</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>1093</v>
+        <v>1119</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -16815,14 +16203,14 @@
         <v>1213</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1153</v>
+        <v>1088</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1094</v>
+        <v>1152</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>1093</v>
+        <v>1120</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -16834,14 +16222,14 @@
         <v>1214</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1154</v>
+        <v>1089</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1095</v>
+        <v>1153</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>1093</v>
+        <v>1121</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -16853,14 +16241,14 @@
         <v>1215</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1155</v>
+        <v>1090</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1096</v>
+        <v>1154</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>1097</v>
+        <v>1122</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -16872,14 +16260,14 @@
         <v>1216</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1156</v>
+        <v>1091</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1098</v>
+        <v>1155</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>1093</v>
+        <v>1123</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -16891,14 +16279,14 @@
         <v>1217</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1157</v>
+        <v>1092</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1099</v>
+        <v>1156</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>1093</v>
+        <v>1124</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -16910,14 +16298,14 @@
         <v>1218</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1158</v>
+        <v>1093</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1100</v>
+        <v>1157</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>1101</v>
+        <v>1125</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -16929,14 +16317,14 @@
         <v>1219</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1159</v>
+        <v>1094</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1102</v>
+        <v>1158</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>1103</v>
+        <v>1126</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -16948,14 +16336,14 @@
         <v>1220</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1160</v>
+        <v>1095</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1096</v>
+        <v>1159</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>1104</v>
+        <v>1127</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -16967,14 +16355,14 @@
         <v>1221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1161</v>
+        <v>1096</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1105</v>
+        <v>1160</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>1106</v>
+        <v>1128</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -16986,14 +16374,14 @@
         <v>1222</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1162</v>
+        <v>1097</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1107</v>
+        <v>1161</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>1108</v>
+        <v>1129</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -17005,14 +16393,14 @@
         <v>1223</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1163</v>
+        <v>1098</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1109</v>
+        <v>1162</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>1110</v>
+        <v>1130</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -17024,14 +16412,14 @@
         <v>1224</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1164</v>
+        <v>1099</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1111</v>
+        <v>1163</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>1084</v>
+        <v>1131</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -17043,12 +16431,14 @@
         <v>1225</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>1100</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1164</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>1084</v>
+        <v>1132</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -17060,14 +16450,14 @@
         <v>1226</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1166</v>
+        <v>1101</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1112</v>
+        <v>1165</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1113</v>
+        <v>1133</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -17079,12 +16469,14 @@
         <v>1227</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>1102</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1166</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>1113</v>
+        <v>1134</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -17096,14 +16488,14 @@
         <v>1230</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1168</v>
+        <v>1103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1114</v>
+        <v>1167</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>1115</v>
+        <v>1135</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -17115,12 +16507,14 @@
         <v>1231</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>1104</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1168</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>1116</v>
+        <v>1136</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -17132,12 +16526,14 @@
         <v>1232</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>1105</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>1169</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>1117</v>
+        <v>1137</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -17149,15 +16545,35 @@
         <v>1302</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>1138</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>1170</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>1139</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="1175">
   <si>
     <t>myself</t>
   </si>
@@ -1019,10 +1019,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RPCCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nothing</t>
   </si>
   <si>
@@ -4526,6 +4522,14 @@
   </si>
   <si>
     <t>SRPCalculate</t>
+  </si>
+  <si>
+    <t>roleLanguageEdit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5086,10 +5090,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5097,10 +5101,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5108,10 +5112,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5119,10 +5123,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5130,10 +5134,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5141,10 +5145,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5152,10 +5156,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5163,10 +5167,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5269,10 +5273,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5280,10 +5284,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5302,10 +5306,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5313,10 +5317,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5448,10 +5452,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5473,7 +5477,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5503,10 +5507,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5525,10 +5529,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5536,10 +5540,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5547,10 +5551,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -5558,10 +5562,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -5569,10 +5573,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -5580,10 +5584,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -5591,10 +5595,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -5602,10 +5606,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -5613,10 +5617,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -5624,10 +5628,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -5635,10 +5639,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -5646,10 +5650,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -5657,10 +5661,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -5668,10 +5672,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5679,10 +5683,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5690,10 +5694,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -5701,10 +5705,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -5712,10 +5716,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -5723,10 +5727,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -5734,10 +5738,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5745,10 +5749,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5756,10 +5760,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6589,10 +6593,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -6600,10 +6604,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6611,10 +6615,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6622,10 +6626,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -6633,10 +6637,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6644,10 +6648,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6655,10 +6659,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6666,10 +6670,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6677,10 +6681,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6688,10 +6692,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6699,10 +6703,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6710,10 +6714,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6721,10 +6725,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6732,10 +6736,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6743,10 +6747,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6754,10 +6758,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6765,10 +6769,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6776,10 +6780,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6787,10 +6791,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6798,10 +6802,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6809,10 +6813,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6820,10 +6824,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6831,10 +6835,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6842,10 +6846,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6853,10 +6857,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -6864,10 +6868,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6875,10 +6879,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6886,10 +6890,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6897,10 +6901,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -6908,10 +6912,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6919,10 +6923,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6930,10 +6934,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6941,10 +6945,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -6952,10 +6956,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -6963,10 +6967,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -6974,10 +6978,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -6985,10 +6989,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -6996,10 +7000,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -7007,10 +7011,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -7018,10 +7022,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7029,10 +7033,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -7040,10 +7044,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -7051,10 +7055,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -7062,10 +7066,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -7073,10 +7077,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -7084,10 +7088,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -7095,10 +7099,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -7106,10 +7110,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -7117,10 +7121,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -7128,10 +7132,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -7139,10 +7143,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -7150,10 +7154,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -7161,10 +7165,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -7172,10 +7176,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -7183,10 +7187,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -7194,10 +7198,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -7205,10 +7209,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -7216,10 +7220,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -7227,10 +7231,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -7238,10 +7242,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -7249,10 +7253,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -7260,10 +7264,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -7271,10 +7275,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -7282,10 +7286,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -7293,10 +7297,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -7304,10 +7308,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -7315,10 +7319,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -7326,10 +7330,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -7337,10 +7341,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -7348,10 +7352,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -7359,10 +7363,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -7370,10 +7374,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -7381,10 +7385,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -7392,10 +7396,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -7403,10 +7407,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -7414,10 +7418,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -7425,10 +7429,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -7436,10 +7440,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -7447,10 +7451,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -7458,10 +7462,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -7469,10 +7473,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -7480,10 +7484,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -7491,10 +7495,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -7502,10 +7506,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -7513,10 +7517,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -7524,10 +7528,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -7535,10 +7539,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -7546,10 +7550,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -7557,10 +7561,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -7568,10 +7572,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -7579,10 +7583,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -7590,10 +7594,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -7601,10 +7605,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -7612,10 +7616,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -7623,10 +7627,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -7634,10 +7638,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -7645,10 +7649,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -7656,10 +7660,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -7667,10 +7671,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -7678,10 +7682,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -7689,10 +7693,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -7700,10 +7704,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -7711,10 +7715,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -7722,10 +7726,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -7733,10 +7737,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -7744,10 +7748,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -7755,10 +7759,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -7766,10 +7770,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -7777,10 +7781,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -7788,10 +7792,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -7799,10 +7803,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -7810,10 +7814,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -7821,10 +7825,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -7832,10 +7836,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -7843,10 +7847,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -7854,10 +7858,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -7865,10 +7869,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -7876,10 +7880,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -7887,10 +7891,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -7898,10 +7902,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -7909,10 +7913,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -7920,10 +7924,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -7931,10 +7935,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -7942,10 +7946,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -7953,10 +7957,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -7964,10 +7968,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -7975,10 +7979,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -7986,10 +7990,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -7997,10 +8001,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -8008,10 +8012,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -8019,10 +8023,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -8030,10 +8034,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -8041,10 +8045,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -8052,10 +8056,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -8063,10 +8067,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -8074,10 +8078,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -8085,10 +8089,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -8096,10 +8100,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -8107,10 +8111,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -8118,10 +8122,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -8129,10 +8133,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -8140,10 +8144,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -8151,10 +8155,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -8162,10 +8166,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -8173,10 +8177,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -8184,10 +8188,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -8195,10 +8199,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -8206,10 +8210,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -8217,10 +8221,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -8228,10 +8232,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -8239,10 +8243,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -8250,10 +8254,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -8264,10 +8268,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C865"/>
+  <dimension ref="A1:C866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="C317" sqref="C317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8369,10 +8373,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -8523,10 +8527,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8567,10 +8571,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8666,10 +8670,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8677,10 +8681,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8765,10 +8769,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8776,10 +8780,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8787,10 +8791,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8798,10 +8802,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -8809,10 +8813,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -8941,10 +8945,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -8952,10 +8956,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -8963,10 +8967,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -9260,10 +9264,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -9315,10 +9319,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -9348,10 +9352,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>258</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -9436,10 +9440,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -9447,10 +9451,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -9458,10 +9462,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -9469,10 +9473,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -9480,10 +9484,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -9491,10 +9495,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -9502,10 +9506,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -9513,10 +9517,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -9524,10 +9528,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -9535,10 +9539,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -9546,10 +9550,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -9557,10 +9561,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -9568,10 +9572,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -9579,10 +9583,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -9590,10 +9594,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -9601,10 +9605,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -9612,10 +9616,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -9623,10 +9627,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -9634,10 +9638,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -9645,10 +9649,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -9656,10 +9660,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -9667,10 +9671,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -9678,10 +9682,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -9689,10 +9693,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -9700,10 +9704,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -9711,10 +9715,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -9722,10 +9726,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -9733,10 +9737,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -9744,10 +9748,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -9755,10 +9759,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -9766,10 +9770,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -9777,10 +9781,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -9788,10 +9792,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -9799,10 +9803,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -9810,10 +9814,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -9821,10 +9825,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -9832,10 +9836,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -9843,10 +9847,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -9854,10 +9858,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -9865,10 +9869,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -9876,10 +9880,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -9887,10 +9891,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -9898,10 +9902,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -9909,10 +9913,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -9920,10 +9924,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -9931,10 +9935,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -9942,10 +9946,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -9953,10 +9957,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -9964,10 +9968,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -9975,10 +9979,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -9986,10 +9990,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -9997,10 +10001,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -10008,10 +10012,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -10019,10 +10023,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -10030,10 +10034,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -10041,10 +10045,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -10052,10 +10056,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -10063,10 +10067,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -10074,10 +10078,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -10085,10 +10089,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -10096,10 +10100,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -10107,10 +10111,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -10118,10 +10122,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -10129,10 +10133,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -10140,10 +10144,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -10151,10 +10155,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -10162,10 +10166,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -10173,10 +10177,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -10184,10 +10188,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -10195,10 +10199,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -10206,10 +10210,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -10217,10 +10221,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -10228,10 +10232,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -10239,10 +10243,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -10250,10 +10254,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -10261,10 +10265,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -10272,10 +10276,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -10283,10 +10287,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -10294,10 +10298,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -10305,10 +10309,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -10316,10 +10320,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -10327,10 +10331,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -10338,10 +10342,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -10349,10 +10353,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -10360,10 +10364,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -10371,10 +10375,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -10382,10 +10386,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -10393,10 +10397,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -10404,10 +10408,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -10415,10 +10419,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -10426,10 +10430,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -10437,10 +10441,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -10448,10 +10452,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -10459,10 +10463,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -10470,10 +10474,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -10481,10 +10485,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -10492,10 +10496,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -10503,10 +10507,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -10514,10 +10518,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -10525,10 +10529,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -10536,10 +10540,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -10547,10 +10551,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -10558,10 +10562,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -10569,10 +10573,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -10580,10 +10584,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -10591,10 +10595,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -10602,10 +10606,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -10613,10 +10617,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -10624,10 +10628,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -10635,10 +10639,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -10646,10 +10650,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -10657,10 +10661,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -10668,10 +10672,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -10679,10 +10683,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -10690,10 +10694,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -10701,10 +10705,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -10712,10 +10716,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -10723,10 +10727,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -10734,10 +10738,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -10745,10 +10749,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -10756,10 +10760,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -10767,10 +10771,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -10778,10 +10782,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -10789,10 +10793,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -10800,10 +10804,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -10811,10 +10815,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -10822,10 +10826,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -10833,10 +10837,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -10844,10 +10848,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -10855,10 +10859,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -10866,10 +10870,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -10877,10 +10881,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -10888,10 +10892,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -10899,10 +10903,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -10910,10 +10914,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -10921,10 +10925,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -10932,10 +10936,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -10943,10 +10947,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -10954,10 +10958,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -10965,10 +10969,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -10976,10 +10980,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -10987,10 +10991,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -10998,10 +11002,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -11009,10 +11013,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -11020,10 +11024,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -11031,10 +11035,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -11042,10 +11046,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -11053,10 +11057,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -11064,10 +11068,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -11075,10 +11079,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -11086,10 +11090,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -11097,10 +11101,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -11108,10 +11112,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -11119,10 +11123,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -11130,10 +11134,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -11141,10 +11145,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -11152,10 +11156,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -11163,10 +11167,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -11174,10 +11178,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -11185,10 +11189,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -11196,10 +11200,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -11207,10 +11211,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -11218,10 +11222,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -11229,10 +11233,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -11240,10 +11244,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -11251,10 +11255,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -11262,10 +11266,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -11273,10 +11277,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -11284,10 +11288,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -11295,10 +11299,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -11306,10 +11310,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -11317,10 +11321,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -11328,10 +11332,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -11339,10 +11343,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -11350,10 +11354,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -11361,10 +11365,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -11372,10 +11376,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -11383,10 +11387,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -11394,10 +11398,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -11405,10 +11409,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -11416,10 +11420,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -11427,10 +11431,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -11438,10 +11442,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -11449,10 +11453,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -11460,10 +11464,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -11471,10 +11475,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -11482,10 +11486,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -11493,10 +11497,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -11504,10 +11508,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -11515,10 +11519,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -11526,10 +11530,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -11537,10 +11541,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -11548,10 +11552,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -11559,10 +11563,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -11570,10 +11574,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -11581,10 +11585,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -11592,10 +11596,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -11603,10 +11607,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -11614,10 +11618,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -11625,10 +11629,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -11636,10 +11640,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -11647,10 +11651,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -11658,10 +11662,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -11669,10 +11673,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -11680,10 +11684,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -11691,10 +11695,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -11702,10 +11706,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -11713,10 +11717,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -11724,10 +11728,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -11735,10 +11739,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -11746,10 +11750,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -11757,10 +11761,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>562</v>
+        <v>1173</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>563</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -11768,10 +11772,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -11779,10 +11783,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -11790,10 +11794,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -11801,10 +11805,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -11812,10 +11816,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -11823,10 +11827,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -11834,10 +11838,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -11845,10 +11849,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -11856,7 +11860,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>586</v>
@@ -11867,10 +11871,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -11878,10 +11882,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -11889,10 +11893,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -11900,10 +11904,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -11911,10 +11915,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -11922,10 +11926,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -11933,10 +11937,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -11944,10 +11948,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -11955,10 +11959,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -11966,10 +11970,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -11977,10 +11981,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -11988,10 +11992,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -11999,10 +12003,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -12010,10 +12014,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -12021,10 +12025,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -12032,10 +12036,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -12043,10 +12047,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -12054,10 +12058,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -12065,10 +12069,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>755</v>
+        <v>595</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>754</v>
+        <v>595</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -12076,10 +12080,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>617</v>
+        <v>754</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>618</v>
+        <v>753</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -12087,10 +12091,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -12098,10 +12102,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -12109,10 +12113,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -12120,10 +12124,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -12131,10 +12135,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -12142,10 +12146,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -12153,10 +12157,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -12164,10 +12168,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -12175,10 +12179,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -12186,10 +12190,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -12197,10 +12201,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -12208,10 +12212,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -12219,10 +12223,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -12230,10 +12234,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -12241,10 +12245,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -12252,10 +12256,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -12263,10 +12267,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -12274,10 +12278,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -12285,10 +12289,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -12296,10 +12300,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -12307,7 +12311,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>640</v>
@@ -12318,10 +12322,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>680</v>
+        <v>634</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>681</v>
+        <v>639</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -12329,10 +12333,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>636</v>
+        <v>679</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>638</v>
+        <v>680</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -12340,10 +12344,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -12351,10 +12355,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -12362,10 +12366,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -12373,10 +12377,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -12384,10 +12388,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>682</v>
+        <v>645</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>696</v>
+        <v>646</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -12395,10 +12399,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -12406,10 +12410,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -12417,10 +12421,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -12428,10 +12432,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -12439,10 +12443,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -12450,10 +12454,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -12461,10 +12465,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -12472,10 +12476,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -12483,10 +12487,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -12494,10 +12498,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -12505,10 +12509,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -12516,10 +12520,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -12527,10 +12531,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -12538,10 +12542,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -12549,10 +12553,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -12560,10 +12564,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -12571,10 +12575,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -12582,10 +12586,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -12593,10 +12597,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -12604,10 +12608,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -12615,10 +12619,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -12626,10 +12630,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -12637,10 +12641,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -12648,10 +12652,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -12659,10 +12663,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -12670,10 +12674,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -12681,10 +12685,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -12692,10 +12696,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -12703,10 +12707,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -12714,10 +12718,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -12725,10 +12729,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -12736,10 +12740,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -12747,10 +12751,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -12758,10 +12762,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -12769,10 +12773,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -12780,10 +12784,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -12791,10 +12795,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -12802,10 +12806,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -12813,10 +12817,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>782</v>
+        <v>728</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>783</v>
+        <v>728</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -12824,10 +12828,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -12835,10 +12839,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -12846,10 +12850,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -12857,10 +12861,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -12868,10 +12872,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -12879,10 +12883,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -12890,10 +12894,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -12901,10 +12905,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>834</v>
+        <v>793</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>830</v>
+        <v>793</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -12912,10 +12916,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -12923,10 +12927,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -12934,10 +12938,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -12945,10 +12949,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -12956,10 +12960,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -12967,10 +12971,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -12978,10 +12982,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -12989,10 +12993,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -13000,10 +13004,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -13011,10 +13015,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -13022,10 +13026,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1009</v>
+        <v>841</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1009</v>
+        <v>841</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -13033,10 +13037,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -13044,16 +13048,22 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C434" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1">
+        <v>434</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="1"/>
-      <c r="B435" s="1"/>
-      <c r="C435" s="1"/>
+      <c r="C435" s="1" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
@@ -15204,6 +15214,11 @@
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A866" s="1"/>
+      <c r="B866" s="1"/>
+      <c r="C866" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15232,25 +15247,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -15258,10 +15273,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -15275,10 +15290,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -15292,10 +15307,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -15309,10 +15324,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -15326,10 +15341,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -15337,7 +15352,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -15345,10 +15360,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -15356,7 +15371,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -15364,10 +15379,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>1055</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1056</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -15381,7 +15396,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>235</v>
@@ -15398,7 +15413,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>236</v>
@@ -15415,7 +15430,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>237</v>
@@ -15432,10 +15447,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D12" s="1">
         <v>400</v>
@@ -15449,10 +15464,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>1027</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>1028</v>
       </c>
       <c r="D13" s="1">
         <v>101</v>
@@ -15466,10 +15481,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D14" s="1">
         <v>201</v>
@@ -15483,10 +15498,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D15" s="1">
         <v>300</v>
@@ -15500,10 +15515,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D16" s="1">
         <v>-44</v>
@@ -15517,10 +15532,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D17" s="1">
         <v>-55</v>
@@ -15534,10 +15549,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D18" s="1">
         <v>-66</v>
@@ -15551,10 +15566,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D19" s="1">
         <v>-77</v>
@@ -15568,10 +15583,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D20" s="1">
         <v>-88</v>
@@ -15585,10 +15600,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D21" s="1">
         <v>-99</v>
@@ -15602,10 +15617,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -15619,10 +15634,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -15636,10 +15651,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -15653,10 +15668,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -15670,10 +15685,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -15687,10 +15702,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>1065</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>1066</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
@@ -15704,10 +15719,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -15721,10 +15736,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -15738,10 +15753,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -15755,10 +15770,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D31" s="1">
         <v>2</v>
@@ -15772,10 +15787,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -15789,10 +15804,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
@@ -15806,10 +15821,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -15823,10 +15838,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -15840,10 +15855,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -15857,10 +15872,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -15874,10 +15889,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D38" s="1">
         <v>4</v>
@@ -15891,10 +15906,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
@@ -15908,10 +15923,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D40" s="1">
         <v>6</v>
@@ -15946,25 +15961,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1052</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -15975,14 +15990,14 @@
         <v>1201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -15994,14 +16009,14 @@
         <v>1202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -16013,14 +16028,14 @@
         <v>1203</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -16032,14 +16047,14 @@
         <v>1204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -16051,14 +16066,14 @@
         <v>1205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -16070,14 +16085,14 @@
         <v>1206</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -16089,14 +16104,14 @@
         <v>1207</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -16108,14 +16123,14 @@
         <v>1208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -16127,14 +16142,14 @@
         <v>1209</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -16146,14 +16161,14 @@
         <v>1210</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -16165,14 +16180,14 @@
         <v>1211</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -16184,14 +16199,14 @@
         <v>1212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -16203,14 +16218,14 @@
         <v>1213</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -16222,14 +16237,14 @@
         <v>1214</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -16241,14 +16256,14 @@
         <v>1215</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -16260,14 +16275,14 @@
         <v>1216</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -16279,14 +16294,14 @@
         <v>1217</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -16298,14 +16313,14 @@
         <v>1218</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -16317,14 +16332,14 @@
         <v>1219</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -16336,14 +16351,14 @@
         <v>1220</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -16355,14 +16370,14 @@
         <v>1221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -16374,14 +16389,14 @@
         <v>1222</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -16393,14 +16408,14 @@
         <v>1223</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -16412,14 +16427,14 @@
         <v>1224</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -16431,14 +16446,14 @@
         <v>1225</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -16450,14 +16465,14 @@
         <v>1226</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -16469,14 +16484,14 @@
         <v>1227</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -16488,14 +16503,14 @@
         <v>1230</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -16507,14 +16522,14 @@
         <v>1231</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -16526,14 +16541,14 @@
         <v>1232</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -16545,14 +16560,14 @@
         <v>1302</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G32" s="1"/>
     </row>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="1176">
   <si>
     <t>myself</t>
   </si>
@@ -4524,11 +4524,15 @@
     <t>SRPCalculate</t>
   </si>
   <si>
+    <t>language edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>roleLanguageEdit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>language edit</t>
+    <t>unnamed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8268,10 +8272,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C866"/>
+  <dimension ref="A1:C867"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="C317" sqref="C317"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="C273" sqref="C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11277,10 +11281,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>492</v>
+        <v>1175</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>492</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -11288,10 +11292,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -11299,10 +11303,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -11310,10 +11314,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -11321,10 +11325,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -11332,10 +11336,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -11343,10 +11347,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -11354,10 +11358,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -11365,10 +11369,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -11376,10 +11380,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -11387,10 +11391,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -11398,10 +11402,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -11409,10 +11413,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -11420,10 +11424,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -11431,10 +11435,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -11442,10 +11446,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -11453,10 +11457,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -11464,10 +11468,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -11475,10 +11479,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -11486,10 +11490,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -11497,10 +11501,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -11508,10 +11512,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -11519,10 +11523,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -11530,10 +11534,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>648</v>
+        <v>519</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>647</v>
+        <v>519</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -11541,10 +11545,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>520</v>
+        <v>648</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>520</v>
+        <v>647</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -11552,10 +11556,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -11563,10 +11567,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -11574,10 +11578,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -11585,10 +11589,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -11596,10 +11600,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>750</v>
+        <v>536</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>750</v>
+        <v>535</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -11607,10 +11611,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -11618,10 +11622,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -11629,10 +11633,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>537</v>
+        <v>752</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>545</v>
+        <v>752</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -11640,10 +11644,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -11651,10 +11655,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -11662,10 +11666,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -11673,10 +11677,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -11684,10 +11688,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -11695,10 +11699,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -11706,10 +11710,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -11717,10 +11721,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -11728,10 +11732,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -11739,10 +11743,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -11750,10 +11754,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -11761,10 +11765,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1173</v>
+        <v>559</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1174</v>
+        <v>560</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -11772,10 +11776,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>561</v>
+        <v>1174</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>562</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -11783,10 +11787,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -11794,10 +11798,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -11805,10 +11809,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -11816,10 +11820,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -11827,10 +11831,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -11838,10 +11842,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -11849,10 +11853,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -11860,10 +11864,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -11871,10 +11875,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -11882,10 +11886,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -11893,10 +11897,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -11904,10 +11908,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -11915,10 +11919,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -11926,10 +11930,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -11937,10 +11941,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -11948,10 +11952,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -11959,10 +11963,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -11970,10 +11974,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -11981,10 +11985,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -11992,10 +11996,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -12003,10 +12007,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -12014,10 +12018,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -12025,10 +12029,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -12036,10 +12040,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -12047,10 +12051,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -12058,10 +12062,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -12069,10 +12073,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -12080,10 +12084,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>754</v>
+        <v>595</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>753</v>
+        <v>595</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -12091,10 +12095,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>616</v>
+        <v>754</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>617</v>
+        <v>753</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -12102,10 +12106,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -12113,10 +12117,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -12124,10 +12128,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -12135,10 +12139,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -12146,10 +12150,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -12157,10 +12161,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -12168,10 +12172,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -12179,10 +12183,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -12190,10 +12194,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -12201,10 +12205,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -12212,10 +12216,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -12223,10 +12227,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -12234,10 +12238,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -12245,10 +12249,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -12256,10 +12260,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -12267,10 +12271,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -12278,10 +12282,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -12289,10 +12293,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -12300,10 +12304,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -12311,10 +12315,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -12322,10 +12326,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -12333,10 +12337,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>679</v>
+        <v>634</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>680</v>
+        <v>639</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -12344,10 +12348,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>637</v>
+        <v>680</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -12355,10 +12359,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -12366,10 +12370,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -12377,10 +12381,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -12388,10 +12392,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -12399,10 +12403,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>681</v>
+        <v>645</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>695</v>
+        <v>646</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -12410,10 +12414,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -12421,10 +12425,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -12432,10 +12436,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -12443,10 +12447,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -12454,10 +12458,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -12465,10 +12469,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -12476,10 +12480,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -12487,10 +12491,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -12498,10 +12502,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -12509,10 +12513,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -12520,10 +12524,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -12531,10 +12535,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -12542,10 +12546,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -12553,10 +12557,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -12564,10 +12568,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -12575,10 +12579,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -12586,10 +12590,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -12597,10 +12601,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -12608,10 +12612,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -12619,10 +12623,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -12630,10 +12634,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -12641,10 +12645,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -12652,10 +12656,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -12663,10 +12667,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -12674,10 +12678,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -12685,10 +12689,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -12696,10 +12700,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -12707,10 +12711,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -12718,10 +12722,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -12729,10 +12733,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -12740,10 +12744,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -12751,10 +12755,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -12762,10 +12766,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -12773,10 +12777,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -12784,10 +12788,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -12795,10 +12799,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -12806,10 +12810,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -12817,10 +12821,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -12828,10 +12832,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>781</v>
+        <v>728</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>782</v>
+        <v>728</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -12839,10 +12843,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -12850,10 +12854,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -12861,10 +12865,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -12872,10 +12876,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -12883,10 +12887,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -12894,10 +12898,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -12905,10 +12909,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -12916,10 +12920,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>833</v>
+        <v>793</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>829</v>
+        <v>793</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -12927,10 +12931,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -12938,10 +12942,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -12949,10 +12953,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -12960,10 +12964,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -12971,10 +12975,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -12982,10 +12986,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -12993,10 +12997,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -13004,10 +13008,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -13015,10 +13019,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -13026,10 +13030,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -13037,10 +13041,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1008</v>
+        <v>841</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1008</v>
+        <v>841</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -13048,10 +13052,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -13059,16 +13063,22 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1">
+        <v>435</v>
+      </c>
+      <c r="B436" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="C435" s="1" t="s">
+      <c r="C436" s="1" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436" s="1"/>
-      <c r="B436" s="1"/>
-      <c r="C436" s="1"/>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
@@ -15219,6 +15229,11 @@
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A867" s="1"/>
+      <c r="B867" s="1"/>
+      <c r="C867" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="language" sheetId="1" r:id="rId1"/>
+    <sheet name="general" sheetId="1" r:id="rId1"/>
     <sheet name="oem" sheetId="2" r:id="rId2"/>
     <sheet name="calculate" sheetId="3" r:id="rId3"/>
     <sheet name="function" sheetId="4" r:id="rId4"/>
@@ -6134,8 +6134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22167,8 +22167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" activeCellId="1" sqref="C5 C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="1578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="1610">
   <si>
     <t>myself</t>
   </si>
@@ -5754,6 +5754,134 @@
   </si>
   <si>
     <t>operator</t>
+  </si>
+  <si>
+    <t>deleteSuccessfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteFailure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete failure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete successfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicationScenarios0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicationScenarios1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contextMenu_insertRowAbove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contextMenu_insertRowBelow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contextMenu_insertColumnLeft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contextMenu_insertColumnRight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contextMenu_removeRow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contextMenu_removeColumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contextMenu_mergeCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contextMenu_copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contextMenu_cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contextMenu_paste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert column right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert column left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert row below</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert row above</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collision info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collisionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourcesMonitoringHistoryCountTip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of history records saved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collisionInfo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the device already exists in the same organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6132,15 +6260,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
     <col min="3" max="3" width="50.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6618,10 +6746,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>193</v>
+        <v>1578</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>193</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -6629,10 +6757,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>194</v>
+        <v>1579</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>194</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -6640,10 +6768,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6651,57 +6779,57 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5</v>
+        <v>425</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1058</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -6709,10 +6837,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,10 +6848,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>7</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6731,10 +6859,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>426</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6742,10 +6870,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6753,10 +6881,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>322</v>
+        <v>426</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>326</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6764,10 +6892,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>323</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>343</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6775,10 +6903,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6786,10 +6914,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6797,10 +6925,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6808,10 +6936,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6819,10 +6947,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6830,10 +6958,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6841,10 +6969,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6852,10 +6980,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6863,10 +6991,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6874,10 +7002,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6885,10 +7013,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6896,10 +7024,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6907,10 +7035,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -6918,10 +7046,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6929,10 +7057,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6940,10 +7068,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6951,10 +7079,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -6962,10 +7090,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>410</v>
+        <v>347</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>411</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6973,10 +7101,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>413</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6984,71 +7112,143 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-    </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1603</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1602</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1601</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1600</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1599</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1598</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1597</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1595</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1596</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
@@ -7099,6 +7299,16 @@
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9492,15 +9702,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C867"/>
+  <dimension ref="A1:C870"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="C351" sqref="C351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9916,10 +10126,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>139</v>
+        <v>1606</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>141</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -9927,10 +10137,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -9938,10 +10148,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -9949,10 +10159,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -9960,10 +10170,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -9971,10 +10181,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -9982,10 +10192,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -9993,10 +10203,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>735</v>
+        <v>151</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>736</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -10004,10 +10214,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -10015,10 +10225,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -10026,10 +10236,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -10037,10 +10247,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -10048,10 +10258,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>153</v>
+        <v>738</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>153</v>
+        <v>738</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -10059,10 +10269,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -10070,10 +10280,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -10081,10 +10291,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -10092,10 +10302,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -10103,10 +10313,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -10114,10 +10324,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -10125,10 +10335,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -10136,10 +10346,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -10147,10 +10357,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -10158,7 +10368,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>167</v>
@@ -10169,10 +10379,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>749</v>
+        <v>166</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>746</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -10180,10 +10390,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -10191,10 +10401,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -10202,10 +10412,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>171</v>
+        <v>748</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>172</v>
+        <v>748</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -10213,10 +10423,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -10224,10 +10434,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -10235,10 +10445,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -10246,10 +10456,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -10257,10 +10467,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -10268,10 +10478,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -10279,10 +10489,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -10290,10 +10500,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -10301,10 +10511,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -10312,10 +10522,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -10323,10 +10533,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -10334,10 +10544,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -10345,10 +10555,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -10356,10 +10566,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -10367,10 +10577,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -10378,10 +10588,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -10389,10 +10599,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -10400,10 +10610,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -10411,10 +10621,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -10422,10 +10632,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -10433,10 +10643,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -10444,10 +10654,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -10455,10 +10665,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -10466,10 +10676,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -10477,10 +10687,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -10488,10 +10698,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1056</v>
+        <v>237</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>427</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -10499,10 +10709,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>238</v>
+        <v>1056</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>238</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -10510,10 +10720,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -10521,10 +10731,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -10532,10 +10742,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -10543,10 +10753,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>743</v>
+        <v>240</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>743</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -10554,10 +10764,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>249</v>
+        <v>743</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>249</v>
+        <v>743</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -10565,10 +10775,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -10576,10 +10786,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1172</v>
+        <v>250</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1172</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -10587,10 +10797,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>251</v>
+        <v>1172</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>251</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -10598,10 +10808,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -10609,10 +10819,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -10620,10 +10830,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -10631,10 +10841,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -10642,10 +10852,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -10653,10 +10863,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -10664,10 +10874,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -10675,10 +10885,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -10686,10 +10896,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -10697,10 +10907,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>484</v>
+        <v>261</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>485</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -10708,10 +10918,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>710</v>
+        <v>484</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>710</v>
+        <v>485</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -10719,10 +10929,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -10730,10 +10940,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>262</v>
+        <v>711</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>262</v>
+        <v>712</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -10741,10 +10951,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -10752,10 +10962,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -10763,10 +10973,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -10774,10 +10984,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>458</v>
+        <v>265</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>457</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -10785,10 +10995,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>266</v>
+        <v>458</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>266</v>
+        <v>457</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -10796,10 +11006,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>474</v>
+        <v>266</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>474</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -10807,10 +11017,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>267</v>
+        <v>474</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>267</v>
+        <v>474</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -10818,10 +11028,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>475</v>
+        <v>267</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>475</v>
+        <v>267</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -10829,10 +11039,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>268</v>
+        <v>475</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>268</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -10840,10 +11050,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>480</v>
+        <v>268</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>480</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -10851,10 +11061,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>269</v>
+        <v>480</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>269</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -10862,10 +11072,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -10873,10 +11083,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -10884,10 +11094,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -10895,10 +11105,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -10906,10 +11116,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -10917,10 +11127,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -10928,10 +11138,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -10939,10 +11149,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -10950,10 +11160,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -10961,10 +11171,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -10972,10 +11182,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -10983,10 +11193,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -10994,10 +11204,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -11005,10 +11215,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -11016,10 +11226,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -11027,10 +11237,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -11038,10 +11248,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -11049,10 +11259,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -11060,10 +11270,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -11071,10 +11281,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>483</v>
+        <v>290</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>482</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -11082,10 +11292,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>296</v>
+        <v>483</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>295</v>
+        <v>482</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -11093,10 +11303,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -11104,10 +11314,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -11115,10 +11325,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -11126,10 +11336,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -11137,10 +11347,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -11148,10 +11358,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>755</v>
+        <v>316</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>761</v>
+        <v>315</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -11159,10 +11369,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -11170,10 +11380,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -11181,10 +11391,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -11192,10 +11402,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -11203,10 +11413,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -11214,10 +11424,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>357</v>
+        <v>763</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>357</v>
+        <v>760</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -11225,10 +11435,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>455</v>
+        <v>357</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -11236,10 +11446,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -11247,10 +11457,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -11258,10 +11468,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -11269,10 +11479,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -11280,10 +11490,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -11291,10 +11501,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>358</v>
+        <v>456</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>358</v>
+        <v>456</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -11302,10 +11512,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -11313,10 +11523,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>767</v>
+        <v>359</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>767</v>
+        <v>359</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -11324,10 +11534,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -11335,10 +11545,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>360</v>
+        <v>768</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>360</v>
+        <v>768</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -11346,10 +11556,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -11357,10 +11567,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -11368,10 +11578,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -11379,10 +11589,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -11390,10 +11600,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -11401,10 +11611,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -11412,10 +11622,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -11423,10 +11633,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -11434,10 +11644,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -11445,10 +11655,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -11456,10 +11666,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -11467,10 +11677,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>486</v>
+        <v>376</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>487</v>
+        <v>374</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -11478,10 +11688,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>377</v>
+        <v>486</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>377</v>
+        <v>487</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -11489,10 +11699,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -11500,10 +11710,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -11511,10 +11721,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -11522,10 +11732,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -11533,10 +11743,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -11544,10 +11754,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -11555,10 +11765,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -11566,10 +11776,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>471</v>
+        <v>385</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>471</v>
+        <v>385</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -11577,10 +11787,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>386</v>
+        <v>471</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>386</v>
+        <v>471</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -11588,10 +11798,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -11599,10 +11809,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -11610,10 +11820,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -11621,10 +11831,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -11632,10 +11842,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -11643,10 +11853,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -11654,10 +11864,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -11665,10 +11875,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -11676,10 +11886,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -11687,10 +11897,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -11698,10 +11908,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -11709,10 +11919,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -11720,10 +11930,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -11731,10 +11941,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -11742,10 +11952,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -11753,10 +11963,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -11764,10 +11974,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -11775,10 +11985,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -11786,10 +11996,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -11797,10 +12007,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -11808,10 +12018,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -11819,10 +12029,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -11830,10 +12040,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -11841,10 +12051,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -11852,10 +12062,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -11863,10 +12073,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -11874,10 +12084,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -11885,10 +12095,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -11896,10 +12106,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -11907,10 +12117,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -11918,10 +12128,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -11929,10 +12139,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -11940,10 +12150,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -11951,10 +12161,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -11962,10 +12172,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -11973,10 +12183,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -11984,10 +12194,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -11995,10 +12205,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -12006,10 +12216,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>745</v>
+        <v>440</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>744</v>
+        <v>440</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -12017,10 +12227,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>778</v>
+        <v>745</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>778</v>
+        <v>744</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -12028,10 +12238,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>442</v>
+        <v>778</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>442</v>
+        <v>778</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -12039,10 +12249,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -12050,10 +12260,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -12061,10 +12271,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -12072,10 +12282,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>779</v>
+        <v>444</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>779</v>
+        <v>444</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -12083,10 +12293,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>445</v>
+        <v>779</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>445</v>
+        <v>779</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -12094,10 +12304,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -12105,10 +12315,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -12116,10 +12326,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -12127,10 +12337,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>780</v>
+        <v>447</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>780</v>
+        <v>447</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -12138,10 +12348,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>448</v>
+        <v>780</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>448</v>
+        <v>780</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -12149,10 +12359,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -12160,10 +12370,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -12171,10 +12381,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -12182,10 +12392,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -12193,10 +12403,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -12204,10 +12414,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>769</v>
+        <v>441</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>769</v>
+        <v>441</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -12215,10 +12425,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -12226,10 +12436,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -12237,10 +12447,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -12248,10 +12458,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -12259,10 +12469,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -12270,10 +12480,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -12281,10 +12491,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -12292,10 +12502,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -12303,32 +12513,32 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>459</v>
+        <v>777</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -12336,10 +12546,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -12347,10 +12557,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -12358,10 +12568,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -12369,10 +12579,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -12380,10 +12590,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -12391,10 +12601,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -12402,10 +12612,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -12413,10 +12623,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -12424,10 +12634,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -12435,10 +12645,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -12446,10 +12656,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -12457,10 +12667,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>521</v>
+        <v>470</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>522</v>
+        <v>470</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -12468,10 +12678,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -12479,10 +12689,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -12490,10 +12700,10 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -12501,10 +12711,10 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1175</v>
+        <v>525</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1175</v>
+        <v>528</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -12512,10 +12722,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>492</v>
+        <v>1175</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>492</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -12523,10 +12733,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -12534,10 +12744,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -12545,10 +12755,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -12556,10 +12766,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -12567,10 +12777,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -12578,10 +12788,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -12589,10 +12799,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -12600,10 +12810,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -12611,10 +12821,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -12622,10 +12832,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -12633,10 +12843,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -12644,10 +12854,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -12655,10 +12865,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -12666,10 +12876,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -12677,10 +12887,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -12688,10 +12898,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -12699,10 +12909,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -12710,10 +12920,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -12721,10 +12931,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -12732,10 +12942,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -12743,10 +12953,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -12754,10 +12964,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -12765,10 +12975,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>648</v>
+        <v>519</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>647</v>
+        <v>519</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -12776,10 +12986,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>520</v>
+        <v>648</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>520</v>
+        <v>647</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -12787,10 +12997,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -12798,10 +13008,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -12809,10 +13019,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -12820,10 +13030,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -12831,10 +13041,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>750</v>
+        <v>536</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>750</v>
+        <v>535</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -12842,10 +13052,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -12853,10 +13063,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -12864,10 +13074,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>537</v>
+        <v>752</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>545</v>
+        <v>752</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -12875,10 +13085,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -12886,10 +13096,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -12897,10 +13107,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -12908,10 +13118,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -12919,10 +13129,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -12930,10 +13140,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -12941,10 +13151,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -12952,10 +13162,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -12963,10 +13173,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -12974,10 +13184,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -12985,10 +13195,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -12996,10 +13206,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1174</v>
+        <v>559</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1173</v>
+        <v>560</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -13007,10 +13217,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>561</v>
+        <v>1174</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>562</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -13018,10 +13228,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -13029,10 +13239,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -13040,10 +13250,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -13051,10 +13261,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -13062,10 +13272,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -13073,10 +13283,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -13084,10 +13294,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -13095,10 +13305,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -13106,10 +13316,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -13117,10 +13327,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -13128,10 +13338,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -13139,10 +13349,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -13150,10 +13360,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -13161,10 +13371,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -13172,10 +13382,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -13183,10 +13393,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -13194,10 +13404,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -13205,10 +13415,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -13216,10 +13426,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -13227,10 +13437,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -13238,10 +13448,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -13249,10 +13459,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -13260,10 +13470,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -13271,10 +13481,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>590</v>
+        <v>1605</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>592</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -13282,10 +13492,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -13293,10 +13503,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -13304,10 +13514,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>595</v>
+        <v>1608</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>595</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -13315,10 +13525,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>754</v>
+        <v>593</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>753</v>
+        <v>593</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -13326,10 +13536,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -13337,10 +13547,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -13348,10 +13558,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>596</v>
+        <v>754</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>605</v>
+        <v>753</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -13359,10 +13569,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -13370,10 +13580,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -13381,10 +13591,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -13392,10 +13602,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -13403,10 +13613,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -13414,10 +13624,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -13425,10 +13635,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -13436,10 +13646,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -13447,10 +13657,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -13458,10 +13668,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -13469,10 +13679,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>632</v>
+        <v>603</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -13480,10 +13690,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -13491,10 +13701,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -13502,10 +13712,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -13513,10 +13723,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -13524,10 +13734,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -13535,10 +13745,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -13546,10 +13756,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -13557,10 +13767,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -13568,10 +13778,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>679</v>
+        <v>626</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>680</v>
+        <v>631</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -13579,10 +13789,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -13590,10 +13800,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -13601,10 +13811,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>641</v>
+        <v>679</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>642</v>
+        <v>680</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -13612,10 +13822,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -13623,10 +13833,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -13634,10 +13844,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>681</v>
+        <v>641</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>695</v>
+        <v>642</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -13645,10 +13855,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>682</v>
+        <v>643</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>696</v>
+        <v>644</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -13656,10 +13866,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>683</v>
+        <v>645</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>683</v>
+        <v>646</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -13667,10 +13877,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -13678,10 +13888,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -13689,10 +13899,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -13700,10 +13910,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -13711,10 +13921,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -13722,10 +13932,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -13733,10 +13943,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -13744,10 +13954,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -13755,10 +13965,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -13766,10 +13976,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -13777,10 +13987,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -13788,10 +13998,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -13799,10 +14009,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -13810,10 +14020,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -13821,10 +14031,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -13832,10 +14042,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -13843,10 +14053,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -13854,10 +14064,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -13865,10 +14075,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -13876,10 +14086,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -13887,10 +14097,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -13898,10 +14108,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -13909,10 +14119,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -13920,10 +14130,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -13931,10 +14141,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -13942,10 +14152,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -13953,10 +14163,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -13964,10 +14174,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -13975,10 +14185,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -13986,10 +14196,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -13997,10 +14207,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -14008,10 +14218,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -14019,10 +14229,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -14030,10 +14240,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -14041,10 +14251,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -14052,10 +14262,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -14063,10 +14273,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>781</v>
+        <v>726</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>782</v>
+        <v>726</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -14074,10 +14284,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>783</v>
+        <v>727</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>784</v>
+        <v>727</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -14085,10 +14295,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>785</v>
+        <v>728</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>786</v>
+        <v>728</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -14096,10 +14306,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -14107,10 +14317,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -14118,10 +14328,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -14129,10 +14339,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -14140,10 +14350,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -14151,10 +14361,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>833</v>
+        <v>791</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>829</v>
+        <v>791</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -14162,10 +14372,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>830</v>
+        <v>792</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>830</v>
+        <v>792</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -14173,10 +14383,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>831</v>
+        <v>793</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>831</v>
+        <v>793</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -14184,10 +14394,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -14195,10 +14405,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -14206,10 +14416,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -14217,10 +14427,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -14228,10 +14438,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -14239,10 +14449,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -14250,10 +14460,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -14261,10 +14471,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -14272,10 +14482,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1008</v>
+        <v>839</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1008</v>
+        <v>839</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -14283,10 +14493,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1009</v>
+        <v>840</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1009</v>
+        <v>840</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -14294,36 +14504,66 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1">
+        <v>436</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1">
+        <v>437</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1">
+        <v>438</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="C436" s="1" t="s">
+      <c r="C439" s="1" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="1"/>
-      <c r="B437" s="1"/>
-      <c r="C437" s="1"/>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="1"/>
-      <c r="B438" s="1"/>
-      <c r="C438" s="1"/>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439" s="1"/>
-      <c r="B439" s="1"/>
-      <c r="C439" s="1"/>
-    </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="1"/>
-      <c r="B440" s="1"/>
-      <c r="C440" s="1"/>
+      <c r="A440" s="1">
+        <v>439</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="1"/>
-      <c r="B441" s="1"/>
-      <c r="C441" s="1"/>
+      <c r="A441" s="1">
+        <v>440</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>1074</v>
+      </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
@@ -16454,6 +16694,21 @@
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A868" s="1"/>
+      <c r="B868" s="1"/>
+      <c r="C868" s="1"/>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A869" s="1"/>
+      <c r="B869" s="1"/>
+      <c r="C869" s="1"/>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A870" s="1"/>
+      <c r="B870" s="1"/>
+      <c r="C870" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16467,7 +16722,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="1610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="1642">
   <si>
     <t>myself</t>
   </si>
@@ -5876,11 +5876,137 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>the device already exists in the same organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>collisionInfo3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>the device already exists in the same organization</t>
+    <t>historyQueryDeviceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history query device list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagram overlay data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagramOverlayData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagram data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSDiagramData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command is being sent, please wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commandSending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data formatting error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataFormattingError</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>details data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailsData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device operation log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceOperationLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allPCPCalculateWell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All SRP under the selected organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All PCP under the selected organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allSRPCalculateWell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeEffectScope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateMaintainingConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calculateMaintainingEditSuccessInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take effect scope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This operation will cause the selected historical data to be overwritten by the current production data. Whether to perform this operation</t>
+  </si>
+  <si>
+    <t>Save successfully, start recalculating, click the refresh button in the lower left corner to view the value of the calculated status column, if no calculation is not completed, the calculation is complete</t>
+  </si>
+  <si>
+    <t>Please select a record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noSelectionRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recalculating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recalculationComplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recalculating, please wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recalculation complete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9702,10 +9828,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C870"/>
+  <dimension ref="A1:C886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="C351" sqref="C351"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10126,10 +10252,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1606</v>
+        <v>1617</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1607</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -10137,10 +10263,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>139</v>
+        <v>1619</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>141</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -10148,10 +10274,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>140</v>
+        <v>1606</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>142</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -10159,10 +10285,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -10170,10 +10296,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -10181,10 +10307,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -10192,10 +10318,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -10203,10 +10329,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>151</v>
+        <v>1610</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>152</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -10214,10 +10340,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>735</v>
+        <v>147</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>736</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -10225,10 +10351,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>741</v>
+        <v>148</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>739</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -10236,10 +10362,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>742</v>
+        <v>151</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>740</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -10247,10 +10373,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -10258,10 +10384,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -10269,10 +10395,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>153</v>
+        <v>742</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>153</v>
+        <v>740</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -10280,10 +10406,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>154</v>
+        <v>737</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>154</v>
+        <v>737</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -10291,10 +10417,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>216</v>
+        <v>738</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>216</v>
+        <v>738</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -10302,10 +10428,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -10313,10 +10439,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>156</v>
+        <v>1621</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>156</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -10324,10 +10450,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -10335,10 +10461,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -10346,10 +10472,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -10357,10 +10483,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -10368,10 +10494,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -10379,10 +10505,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -10390,10 +10516,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>749</v>
+        <v>162</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>746</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -10401,10 +10527,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>747</v>
+        <v>163</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>747</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -10412,10 +10538,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>748</v>
+        <v>165</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>748</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -10423,10 +10549,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -10434,10 +10560,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>176</v>
+        <v>749</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>174</v>
+        <v>746</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -10445,10 +10571,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>173</v>
+        <v>747</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>175</v>
+        <v>747</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -10456,10 +10582,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>178</v>
+        <v>748</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>177</v>
+        <v>748</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -10467,10 +10593,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>179</v>
+        <v>1613</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>180</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -10478,10 +10604,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>181</v>
+        <v>1615</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>186</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -10489,10 +10615,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -10500,10 +10626,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -10511,10 +10637,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -10522,10 +10648,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -10533,10 +10659,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -10544,10 +10670,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -10555,10 +10681,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -10566,10 +10692,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -10577,10 +10703,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -10588,10 +10714,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -10599,10 +10725,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -10610,10 +10736,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -10621,10 +10747,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -10632,10 +10758,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -10643,10 +10769,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -10654,10 +10780,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -10665,10 +10791,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -10676,10 +10802,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -10687,10 +10813,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -10698,10 +10824,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -10709,10 +10835,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1056</v>
+        <v>232</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>427</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -10720,10 +10846,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -10731,10 +10857,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -10742,10 +10868,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -10753,10 +10879,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -10764,10 +10890,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>743</v>
+        <v>237</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>743</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -10775,10 +10901,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>249</v>
+        <v>1056</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>249</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -10786,10 +10912,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -10797,10 +10923,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1172</v>
+        <v>248</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1172</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -10808,10 +10934,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -10819,10 +10945,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -10830,10 +10956,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>253</v>
+        <v>743</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>253</v>
+        <v>743</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -10841,10 +10967,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -10852,10 +10978,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -10863,10 +10989,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>256</v>
+        <v>1623</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>256</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -10874,10 +11000,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>257</v>
+        <v>1624</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>257</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -10885,10 +11011,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>258</v>
+        <v>1172</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>258</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -10896,10 +11022,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -10907,10 +11033,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -10918,10 +11044,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>484</v>
+        <v>253</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>485</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -10929,10 +11055,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>710</v>
+        <v>254</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>710</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -10940,10 +11066,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>711</v>
+        <v>255</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>712</v>
+        <v>255</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -10951,10 +11077,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -10962,10 +11088,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -10973,10 +11099,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -10984,10 +11110,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -10995,10 +11121,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>458</v>
+        <v>1629</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>457</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -11006,10 +11132,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>266</v>
+        <v>1626</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>266</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -11017,10 +11143,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>474</v>
+        <v>1630</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>474</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -11028,10 +11154,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>267</v>
+        <v>1631</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>267</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -11039,10 +11165,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>475</v>
+        <v>1632</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>475</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -11050,10 +11176,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>268</v>
+        <v>1638</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>268</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -11061,10 +11187,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>480</v>
+        <v>1639</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>480</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -11072,10 +11198,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>269</v>
+        <v>1637</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>269</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -11083,10 +11209,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -11094,10 +11220,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>271</v>
+        <v>484</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>271</v>
+        <v>485</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -11105,10 +11231,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>272</v>
+        <v>710</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>272</v>
+        <v>710</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -11116,10 +11242,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>273</v>
+        <v>711</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>273</v>
+        <v>712</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -11127,10 +11253,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -11138,10 +11264,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -11149,10 +11275,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -11160,10 +11286,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -11171,10 +11297,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>278</v>
+        <v>458</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>278</v>
+        <v>457</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -11182,10 +11308,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -11193,10 +11319,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>280</v>
+        <v>474</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>280</v>
+        <v>474</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -11204,10 +11330,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -11215,10 +11341,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>282</v>
+        <v>475</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>282</v>
+        <v>475</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -11226,10 +11352,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -11237,10 +11363,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>284</v>
+        <v>480</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>289</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -11248,10 +11374,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -11259,10 +11385,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -11270,10 +11396,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -11281,10 +11407,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -11292,10 +11418,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>483</v>
+        <v>273</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>482</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -11303,10 +11429,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -11314,10 +11440,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -11325,10 +11451,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>354</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -11336,10 +11462,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>355</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -11347,10 +11473,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>356</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -11358,10 +11484,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -11369,10 +11495,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>755</v>
+        <v>280</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>761</v>
+        <v>280</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -11380,10 +11506,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>764</v>
+        <v>281</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>756</v>
+        <v>281</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -11391,10 +11517,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>765</v>
+        <v>282</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>757</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -11402,10 +11528,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>766</v>
+        <v>283</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>758</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -11413,10 +11539,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>762</v>
+        <v>284</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>759</v>
+        <v>289</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -11424,10 +11550,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>763</v>
+        <v>285</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>760</v>
+        <v>286</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -11435,10 +11561,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>357</v>
+        <v>288</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -11446,10 +11572,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>455</v>
+        <v>291</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>452</v>
+        <v>292</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -11457,10 +11583,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>453</v>
+        <v>290</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>453</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -11468,10 +11594,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -11479,10 +11605,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>472</v>
+        <v>296</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>472</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -11490,10 +11616,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>473</v>
+        <v>294</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>473</v>
+        <v>297</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -11501,10 +11627,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>456</v>
+        <v>313</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>456</v>
+        <v>354</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -11512,10 +11638,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>358</v>
+        <v>314</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -11523,10 +11649,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -11534,10 +11660,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>767</v>
+        <v>316</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>767</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -11545,10 +11671,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -11556,10 +11682,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>360</v>
+        <v>764</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>360</v>
+        <v>756</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -11567,10 +11693,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>361</v>
+        <v>765</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>361</v>
+        <v>757</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -11578,10 +11704,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>362</v>
+        <v>766</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>362</v>
+        <v>758</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -11589,10 +11715,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>363</v>
+        <v>762</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>363</v>
+        <v>759</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -11600,10 +11726,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>364</v>
+        <v>763</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>364</v>
+        <v>760</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -11611,10 +11737,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -11622,10 +11748,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>369</v>
+        <v>455</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>372</v>
+        <v>452</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -11633,10 +11759,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>370</v>
+        <v>453</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>373</v>
+        <v>453</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -11644,10 +11770,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>365</v>
+        <v>454</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>365</v>
+        <v>454</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -11655,10 +11781,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>366</v>
+        <v>472</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>366</v>
+        <v>472</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -11666,10 +11792,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>367</v>
+        <v>473</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>367</v>
+        <v>473</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -11677,10 +11803,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -11688,10 +11814,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>486</v>
+        <v>358</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>487</v>
+        <v>358</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -11699,10 +11825,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -11710,10 +11836,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>378</v>
+        <v>767</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>375</v>
+        <v>767</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -11721,10 +11847,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>379</v>
+        <v>768</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>380</v>
+        <v>768</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -11732,10 +11858,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -11743,10 +11869,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -11754,10 +11880,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -11765,10 +11891,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -11776,10 +11902,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -11787,10 +11913,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>471</v>
+        <v>368</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>471</v>
+        <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -11798,10 +11924,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -11809,10 +11935,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -11820,10 +11946,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -11831,10 +11957,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -11842,10 +11968,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -11853,10 +11979,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -11864,10 +11990,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>403</v>
+        <v>486</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>402</v>
+        <v>487</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -11875,10 +12001,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -11886,10 +12012,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -11897,10 +12023,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -11908,10 +12034,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -11919,10 +12045,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -11930,10 +12056,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -11941,10 +12067,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -11952,10 +12078,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -11963,10 +12089,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>399</v>
+        <v>471</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>399</v>
+        <v>471</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -11974,10 +12100,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -11985,10 +12111,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -11996,10 +12122,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -12007,10 +12133,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -12018,10 +12144,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -12029,10 +12155,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -12040,10 +12166,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -12051,10 +12177,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -12062,10 +12188,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -12073,10 +12199,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -12084,10 +12210,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -12095,10 +12221,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -12106,10 +12232,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -12117,10 +12243,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -12128,10 +12254,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -12139,10 +12265,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -12150,10 +12276,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -12161,10 +12287,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -12172,10 +12298,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -12183,10 +12309,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -12194,10 +12320,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -12205,10 +12331,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -12216,10 +12342,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -12227,10 +12353,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>745</v>
+        <v>421</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>744</v>
+        <v>421</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -12238,10 +12364,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>778</v>
+        <v>422</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>778</v>
+        <v>422</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -12249,10 +12375,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -12260,10 +12386,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -12271,10 +12397,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -12282,10 +12408,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -12293,10 +12419,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>779</v>
+        <v>431</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>779</v>
+        <v>431</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -12304,10 +12430,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -12315,10 +12441,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -12326,10 +12452,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -12337,10 +12463,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -12348,10 +12474,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>780</v>
+        <v>436</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>780</v>
+        <v>436</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -12359,10 +12485,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -12370,10 +12496,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -12381,10 +12507,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -12392,10 +12518,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -12403,10 +12529,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>451</v>
+        <v>745</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>451</v>
+        <v>744</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -12414,10 +12540,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>441</v>
+        <v>778</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>441</v>
+        <v>778</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -12425,10 +12551,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>769</v>
+        <v>442</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>769</v>
+        <v>442</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -12436,10 +12562,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>770</v>
+        <v>443</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>770</v>
+        <v>443</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -12447,10 +12573,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>771</v>
+        <v>476</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>771</v>
+        <v>476</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -12458,10 +12584,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>789</v>
+        <v>444</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>782</v>
+        <v>444</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -12469,10 +12595,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -12480,10 +12606,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>773</v>
+        <v>445</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>773</v>
+        <v>445</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -12491,10 +12617,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>774</v>
+        <v>446</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>774</v>
+        <v>446</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -12502,10 +12628,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>775</v>
+        <v>477</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>775</v>
+        <v>477</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -12513,10 +12639,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>776</v>
+        <v>447</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>776</v>
+        <v>447</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -12524,21 +12650,21 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -12546,10 +12672,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -12557,10 +12683,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -12568,10 +12694,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -12579,10 +12705,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -12590,10 +12716,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -12601,10 +12727,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>464</v>
+        <v>769</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>464</v>
+        <v>769</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -12612,10 +12738,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>465</v>
+        <v>770</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>465</v>
+        <v>770</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -12623,10 +12749,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>466</v>
+        <v>771</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>466</v>
+        <v>771</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -12634,10 +12760,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>467</v>
+        <v>789</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>467</v>
+        <v>782</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -12645,10 +12771,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>468</v>
+        <v>772</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>468</v>
+        <v>772</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -12656,10 +12782,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>469</v>
+        <v>773</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>469</v>
+        <v>773</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -12667,10 +12793,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>470</v>
+        <v>774</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>470</v>
+        <v>774</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -12678,10 +12804,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>521</v>
+        <v>775</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>522</v>
+        <v>775</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -12689,10 +12815,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>523</v>
+        <v>776</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>526</v>
+        <v>776</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -12700,21 +12826,21 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>524</v>
+        <v>777</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>528</v>
+        <v>459</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -12722,10 +12848,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1175</v>
+        <v>460</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1175</v>
+        <v>460</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -12733,10 +12859,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -12744,10 +12870,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -12755,10 +12881,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -12766,10 +12892,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -12777,10 +12903,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -12788,10 +12914,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -12799,10 +12925,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -12810,10 +12936,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -12821,10 +12947,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -12832,10 +12958,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -12843,10 +12969,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -12854,10 +12980,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -12865,10 +12991,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -12876,10 +13002,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -12887,10 +13013,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -12898,10 +13024,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>510</v>
+        <v>1175</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>513</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -12909,10 +13035,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -12920,10 +13046,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -12931,10 +13057,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -12942,10 +13068,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -12953,10 +13079,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -12964,10 +13090,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -12975,10 +13101,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -12986,10 +13112,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>648</v>
+        <v>499</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>647</v>
+        <v>499</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -12997,10 +13123,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -13008,10 +13134,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -13019,10 +13145,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -13030,10 +13156,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -13041,10 +13167,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -13052,10 +13178,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>750</v>
+        <v>506</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>750</v>
+        <v>507</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -13063,10 +13189,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>751</v>
+        <v>508</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>751</v>
+        <v>509</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -13074,10 +13200,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>752</v>
+        <v>510</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>752</v>
+        <v>513</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -13085,10 +13211,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -13096,10 +13222,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -13107,10 +13233,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>547</v>
+        <v>515</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -13118,10 +13244,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -13129,10 +13255,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -13140,10 +13266,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -13151,10 +13277,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -13162,10 +13288,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>542</v>
+        <v>648</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>554</v>
+        <v>647</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -13173,10 +13299,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -13184,10 +13310,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -13195,10 +13321,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -13206,10 +13332,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -13217,10 +13343,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1174</v>
+        <v>536</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1173</v>
+        <v>535</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -13228,10 +13354,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>561</v>
+        <v>750</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>562</v>
+        <v>750</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -13239,10 +13365,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>564</v>
+        <v>751</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>564</v>
+        <v>751</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -13250,10 +13376,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>565</v>
+        <v>752</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>565</v>
+        <v>752</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -13261,10 +13387,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -13272,10 +13398,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -13283,10 +13409,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -13294,10 +13420,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -13305,10 +13431,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -13316,10 +13442,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>586</v>
+        <v>552</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -13327,10 +13453,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -13338,10 +13464,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -13349,10 +13475,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -13360,10 +13486,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -13371,10 +13497,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -13382,10 +13508,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -13393,10 +13519,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>578</v>
+        <v>1174</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>578</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -13404,10 +13530,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -13415,10 +13541,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -13426,10 +13552,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -13437,10 +13563,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -13448,10 +13574,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -13459,10 +13585,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -13470,10 +13596,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -13481,10 +13607,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1605</v>
+        <v>570</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1604</v>
+        <v>570</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -13492,10 +13618,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -13503,10 +13629,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -13514,10 +13640,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>1608</v>
+        <v>573</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1609</v>
+        <v>573</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -13525,10 +13651,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -13536,10 +13662,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -13547,10 +13673,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -13558,10 +13684,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>754</v>
+        <v>577</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>753</v>
+        <v>577</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -13569,10 +13695,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>616</v>
+        <v>578</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>617</v>
+        <v>578</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -13580,10 +13706,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>619</v>
+        <v>579</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -13591,10 +13717,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -13602,10 +13728,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -13613,10 +13739,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -13624,10 +13750,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -13635,10 +13761,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -13646,10 +13772,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -13657,10 +13783,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>615</v>
+        <v>1605</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>611</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -13668,10 +13794,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -13679,10 +13805,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -13690,10 +13816,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>604</v>
+        <v>1609</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>614</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -13701,10 +13827,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -13712,10 +13838,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -13723,10 +13849,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -13734,10 +13860,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>622</v>
+        <v>754</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>628</v>
+        <v>753</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -13745,10 +13871,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -13756,10 +13882,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -13767,10 +13893,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -13778,10 +13904,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>626</v>
+        <v>597</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -13789,10 +13915,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -13800,10 +13926,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>634</v>
+        <v>599</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -13811,10 +13937,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>679</v>
+        <v>600</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>680</v>
+        <v>609</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -13822,10 +13948,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -13833,10 +13959,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -13844,10 +13970,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>641</v>
+        <v>602</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -13855,10 +13981,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>643</v>
+        <v>603</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -13866,10 +13992,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>645</v>
+        <v>604</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -13877,10 +14003,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>681</v>
+        <v>620</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>695</v>
+        <v>620</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -13888,10 +14014,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>682</v>
+        <v>632</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>696</v>
+        <v>632</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -13899,10 +14025,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>683</v>
+        <v>621</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>683</v>
+        <v>627</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -13910,10 +14036,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>685</v>
+        <v>622</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>684</v>
+        <v>628</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -13921,10 +14047,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>686</v>
+        <v>623</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>686</v>
+        <v>629</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -13932,10 +14058,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>687</v>
+        <v>624</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>687</v>
+        <v>630</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -13943,10 +14069,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>688</v>
+        <v>625</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>688</v>
+        <v>611</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -13954,10 +14080,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>689</v>
+        <v>626</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>689</v>
+        <v>631</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -13965,10 +14091,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>690</v>
+        <v>633</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>690</v>
+        <v>640</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -13976,10 +14102,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>691</v>
+        <v>634</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>691</v>
+        <v>639</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -13987,10 +14113,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -13998,10 +14124,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>693</v>
+        <v>635</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>693</v>
+        <v>637</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -14009,10 +14135,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>694</v>
+        <v>636</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>694</v>
+        <v>638</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -14020,10 +14146,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>697</v>
+        <v>641</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>697</v>
+        <v>642</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -14031,10 +14157,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>700</v>
+        <v>643</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>700</v>
+        <v>644</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -14042,10 +14168,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>698</v>
+        <v>645</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>698</v>
+        <v>646</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -14053,10 +14179,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -14064,10 +14190,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -14075,10 +14201,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -14086,10 +14212,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -14097,10 +14223,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -14108,10 +14234,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -14119,10 +14245,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -14130,10 +14256,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -14141,10 +14267,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -14152,10 +14278,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -14163,10 +14289,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -14174,10 +14300,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -14185,10 +14311,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -14196,10 +14322,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -14207,10 +14333,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -14218,10 +14344,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -14229,10 +14355,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -14240,10 +14366,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -14251,10 +14377,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -14262,10 +14388,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -14273,10 +14399,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -14284,10 +14410,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -14295,10 +14421,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -14306,10 +14432,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>781</v>
+        <v>709</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>782</v>
+        <v>708</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -14317,10 +14443,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>783</v>
+        <v>713</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>784</v>
+        <v>713</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -14328,10 +14454,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>785</v>
+        <v>714</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>786</v>
+        <v>714</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -14339,10 +14465,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>787</v>
+        <v>715</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>788</v>
+        <v>715</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -14350,10 +14476,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>790</v>
+        <v>716</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>790</v>
+        <v>716</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -14361,10 +14487,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>791</v>
+        <v>717</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>791</v>
+        <v>717</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -14372,10 +14498,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>792</v>
+        <v>718</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>792</v>
+        <v>718</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -14383,10 +14509,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>793</v>
+        <v>719</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>793</v>
+        <v>719</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -14394,10 +14520,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>833</v>
+        <v>720</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>829</v>
+        <v>720</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -14405,10 +14531,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>830</v>
+        <v>721</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>830</v>
+        <v>721</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -14416,10 +14542,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>831</v>
+        <v>722</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>831</v>
+        <v>723</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -14427,10 +14553,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>832</v>
+        <v>724</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>832</v>
+        <v>724</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -14438,10 +14564,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>834</v>
+        <v>725</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>835</v>
+        <v>725</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -14449,10 +14575,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>836</v>
+        <v>726</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>836</v>
+        <v>726</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -14460,10 +14586,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>837</v>
+        <v>727</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -14471,10 +14597,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>838</v>
+        <v>728</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>838</v>
+        <v>728</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -14482,10 +14608,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>839</v>
+        <v>781</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>839</v>
+        <v>782</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -14493,10 +14619,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>840</v>
+        <v>783</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>840</v>
+        <v>784</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -14504,10 +14630,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>841</v>
+        <v>785</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>841</v>
+        <v>786</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -14515,10 +14641,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>1008</v>
+        <v>787</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1008</v>
+        <v>788</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -14526,10 +14652,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1009</v>
+        <v>790</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1009</v>
+        <v>790</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -14537,10 +14663,10 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1011</v>
+        <v>791</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1010</v>
+        <v>791</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -14548,10 +14674,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C440" s="5" t="s">
-        <v>1073</v>
+        <v>792</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -14559,91 +14685,187 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
+        <v>441</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1">
+        <v>442</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1">
+        <v>443</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>444</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>445</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>446</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>447</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>448</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>449</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>450</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>451</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>452</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>453</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>454</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>455</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>456</v>
+      </c>
+      <c r="B457" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="C441" s="5" t="s">
+      <c r="C457" s="5" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="1"/>
-      <c r="B442" s="1"/>
-      <c r="C442" s="1"/>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443" s="1"/>
-      <c r="B443" s="1"/>
-      <c r="C443" s="1"/>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" s="1"/>
-      <c r="B444" s="1"/>
-      <c r="C444" s="1"/>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445" s="1"/>
-      <c r="B445" s="1"/>
-      <c r="C445" s="1"/>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="1"/>
-      <c r="B446" s="1"/>
-      <c r="C446" s="1"/>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="1"/>
-      <c r="B447" s="1"/>
-      <c r="C447" s="1"/>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="1"/>
-      <c r="B448" s="1"/>
-      <c r="C448" s="1"/>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" s="1"/>
-      <c r="B449" s="1"/>
-      <c r="C449" s="1"/>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="1"/>
-      <c r="B450" s="1"/>
-      <c r="C450" s="1"/>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="1"/>
-      <c r="B451" s="1"/>
-      <c r="C451" s="1"/>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="1"/>
-      <c r="B452" s="1"/>
-      <c r="C452" s="1"/>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="1"/>
-      <c r="B453" s="1"/>
-      <c r="C453" s="1"/>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454" s="1"/>
-      <c r="B454" s="1"/>
-      <c r="C454" s="1"/>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" s="1"/>
-      <c r="B455" s="1"/>
-      <c r="C455" s="1"/>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" s="1"/>
-      <c r="B456" s="1"/>
-      <c r="C456" s="1"/>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="1"/>
-      <c r="B457" s="1"/>
-      <c r="C457" s="1"/>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
@@ -16709,6 +16931,86 @@
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A871" s="1"/>
+      <c r="B871" s="1"/>
+      <c r="C871" s="1"/>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A872" s="1"/>
+      <c r="B872" s="1"/>
+      <c r="C872" s="1"/>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A873" s="1"/>
+      <c r="B873" s="1"/>
+      <c r="C873" s="1"/>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A874" s="1"/>
+      <c r="B874" s="1"/>
+      <c r="C874" s="1"/>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A875" s="1"/>
+      <c r="B875" s="1"/>
+      <c r="C875" s="1"/>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A876" s="1"/>
+      <c r="B876" s="1"/>
+      <c r="C876" s="1"/>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A877" s="1"/>
+      <c r="B877" s="1"/>
+      <c r="C877" s="1"/>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A878" s="1"/>
+      <c r="B878" s="1"/>
+      <c r="C878" s="1"/>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A879" s="1"/>
+      <c r="B879" s="1"/>
+      <c r="C879" s="1"/>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A880" s="1"/>
+      <c r="B880" s="1"/>
+      <c r="C880" s="1"/>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A881" s="1"/>
+      <c r="B881" s="1"/>
+      <c r="C881" s="1"/>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A882" s="1"/>
+      <c r="B882" s="1"/>
+      <c r="C882" s="1"/>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A883" s="1"/>
+      <c r="B883" s="1"/>
+      <c r="C883" s="1"/>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A884" s="1"/>
+      <c r="B884" s="1"/>
+      <c r="C884" s="1"/>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A885" s="1"/>
+      <c r="B885" s="1"/>
+      <c r="C885" s="1"/>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A886" s="1"/>
+      <c r="B886" s="1"/>
+      <c r="C886" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="1642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="1649">
   <si>
     <t>myself</t>
   </si>
@@ -6007,6 +6007,33 @@
   </si>
   <si>
     <t>recalculation complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCPCalculateRequestData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elecInverCalculateRequestData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elecInverCalculateRequestData</t>
+  </si>
+  <si>
+    <t>totalCalculateRequestData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCalculateRequestData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9828,10 +9855,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C886"/>
+  <dimension ref="A1:C890"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11099,10 +11126,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>258</v>
+        <v>1642</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>258</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -11110,10 +11137,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>259</v>
+        <v>1643</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>260</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -11121,10 +11148,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1629</v>
+        <v>1645</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1627</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -11132,10 +11159,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1626</v>
+        <v>1647</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1628</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -11143,10 +11170,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1630</v>
+        <v>258</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1633</v>
+        <v>258</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -11154,10 +11181,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1631</v>
+        <v>259</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1634</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -11165,10 +11192,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1635</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -11176,10 +11203,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1638</v>
+        <v>1626</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1640</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -11187,10 +11214,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1641</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -11198,10 +11225,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1637</v>
+        <v>1631</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -11209,10 +11236,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>261</v>
+        <v>1632</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>261</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -11220,10 +11247,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>484</v>
+        <v>1638</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>485</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -11231,10 +11258,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>710</v>
+        <v>1639</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>710</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -11242,10 +11269,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>711</v>
+        <v>1637</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>712</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -11253,10 +11280,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -11264,10 +11291,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>263</v>
+        <v>484</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>263</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -11275,10 +11302,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>264</v>
+        <v>710</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>264</v>
+        <v>710</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -11286,10 +11313,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>265</v>
+        <v>711</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>265</v>
+        <v>712</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -11297,10 +11324,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>458</v>
+        <v>262</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>457</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -11308,10 +11335,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -11319,10 +11346,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>474</v>
+        <v>264</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>474</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -11330,10 +11357,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -11341,10 +11368,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -11352,10 +11379,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -11363,10 +11390,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -11374,10 +11401,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -11385,10 +11412,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>270</v>
+        <v>475</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>270</v>
+        <v>475</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -11396,10 +11423,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -11407,10 +11434,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>272</v>
+        <v>480</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>272</v>
+        <v>480</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -11418,10 +11445,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -11429,10 +11456,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -11440,10 +11467,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -11451,10 +11478,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -11462,10 +11489,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -11473,10 +11500,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -11484,10 +11511,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -11495,10 +11522,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -11506,10 +11533,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -11517,10 +11544,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -11528,10 +11555,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -11539,10 +11566,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -11550,10 +11577,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -11561,10 +11588,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -11572,10 +11599,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -11583,10 +11610,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -11594,10 +11621,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>483</v>
+        <v>285</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>482</v>
+        <v>286</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -11605,10 +11632,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -11616,10 +11643,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -11627,10 +11654,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -11638,10 +11665,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>314</v>
+        <v>483</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>355</v>
+        <v>482</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -11649,10 +11676,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -11660,10 +11687,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -11671,10 +11698,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>755</v>
+        <v>313</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>761</v>
+        <v>354</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -11682,10 +11709,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>764</v>
+        <v>314</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>756</v>
+        <v>355</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -11693,10 +11720,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>765</v>
+        <v>353</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>757</v>
+        <v>356</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -11704,10 +11731,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>766</v>
+        <v>316</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>758</v>
+        <v>315</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -11715,10 +11742,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -11726,10 +11753,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -11737,10 +11764,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>357</v>
+        <v>765</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>357</v>
+        <v>757</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -11748,10 +11775,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>455</v>
+        <v>766</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>452</v>
+        <v>758</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -11759,10 +11786,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>453</v>
+        <v>762</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>453</v>
+        <v>759</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -11770,10 +11797,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>454</v>
+        <v>763</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>454</v>
+        <v>760</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -11781,10 +11808,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>472</v>
+        <v>357</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>472</v>
+        <v>357</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -11792,10 +11819,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -11803,10 +11830,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -11814,10 +11841,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>358</v>
+        <v>454</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>358</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -11825,10 +11852,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>359</v>
+        <v>472</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>359</v>
+        <v>472</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -11836,10 +11863,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>767</v>
+        <v>473</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>767</v>
+        <v>473</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -11847,10 +11874,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>768</v>
+        <v>456</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>768</v>
+        <v>456</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -11858,10 +11885,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -11869,10 +11896,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -11880,10 +11907,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>362</v>
+        <v>767</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>362</v>
+        <v>767</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -11891,10 +11918,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>363</v>
+        <v>768</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>363</v>
+        <v>768</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -11902,10 +11929,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -11913,10 +11940,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -11924,10 +11951,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -11935,10 +11962,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -11946,10 +11973,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -11957,10 +11984,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -11968,10 +11995,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -11979,10 +12006,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -11990,10 +12017,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>486</v>
+        <v>365</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>487</v>
+        <v>365</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -12001,10 +12028,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -12012,10 +12039,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -12023,10 +12050,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -12034,10 +12061,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>381</v>
+        <v>486</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>381</v>
+        <v>487</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -12045,10 +12072,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -12056,10 +12083,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -12067,10 +12094,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -12078,10 +12105,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -12089,10 +12116,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>471</v>
+        <v>382</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>471</v>
+        <v>382</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -12100,10 +12127,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -12111,10 +12138,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -12122,10 +12149,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -12133,10 +12160,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>389</v>
+        <v>471</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>389</v>
+        <v>471</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -12144,10 +12171,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -12155,10 +12182,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -12166,10 +12193,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -12177,10 +12204,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -12188,10 +12215,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -12199,10 +12226,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -12210,10 +12237,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -12221,10 +12248,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -12232,10 +12259,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -12243,10 +12270,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -12254,10 +12281,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -12265,10 +12292,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -12276,10 +12303,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -12287,10 +12314,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -12298,10 +12325,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -12309,10 +12336,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -12320,10 +12347,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -12331,10 +12358,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -12342,10 +12369,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -12353,10 +12380,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -12364,10 +12391,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -12375,10 +12402,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -12386,10 +12413,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -12397,10 +12424,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -12408,10 +12435,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -12419,10 +12446,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -12430,10 +12457,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -12441,10 +12468,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -12452,10 +12479,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -12463,10 +12490,10 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -12474,10 +12501,10 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -12485,10 +12512,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -12496,10 +12523,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -12507,10 +12534,10 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -12518,10 +12545,10 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -12529,10 +12556,10 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>745</v>
+        <v>437</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>744</v>
+        <v>437</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -12540,10 +12567,10 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>778</v>
+        <v>438</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>778</v>
+        <v>438</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -12551,10 +12578,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -12562,10 +12589,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -12573,10 +12600,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>476</v>
+        <v>745</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>476</v>
+        <v>744</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -12584,10 +12611,10 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>444</v>
+        <v>778</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -12595,10 +12622,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>779</v>
+        <v>442</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>779</v>
+        <v>442</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -12606,10 +12633,10 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -12617,10 +12644,10 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -12628,10 +12655,10 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -12639,10 +12666,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>447</v>
+        <v>779</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>447</v>
+        <v>779</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -12650,10 +12677,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>780</v>
+        <v>445</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>780</v>
+        <v>445</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -12661,10 +12688,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -12672,10 +12699,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -12683,10 +12710,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -12694,10 +12721,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>450</v>
+        <v>780</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>450</v>
+        <v>780</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -12705,10 +12732,10 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -12716,10 +12743,10 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -12727,10 +12754,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>769</v>
+        <v>478</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>769</v>
+        <v>479</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -12738,10 +12765,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>770</v>
+        <v>450</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>770</v>
+        <v>450</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -12749,10 +12776,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>771</v>
+        <v>451</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>771</v>
+        <v>451</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -12760,10 +12787,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>789</v>
+        <v>441</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>782</v>
+        <v>441</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -12771,10 +12798,10 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -12782,10 +12809,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -12793,10 +12820,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -12804,10 +12831,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -12815,10 +12842,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -12826,21 +12853,21 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>459</v>
+        <v>774</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>459</v>
+        <v>774</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -12848,10 +12875,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>460</v>
+        <v>775</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>460</v>
+        <v>775</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -12859,10 +12886,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>461</v>
+        <v>776</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>461</v>
+        <v>776</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -12870,21 +12897,21 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>462</v>
+        <v>777</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -12892,10 +12919,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -12903,10 +12930,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -12914,10 +12941,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -12925,10 +12952,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -12936,10 +12963,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -12947,10 +12974,10 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -12958,10 +12985,10 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -12969,10 +12996,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -12980,10 +13007,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>521</v>
+        <v>467</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>522</v>
+        <v>467</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -12991,10 +13018,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>523</v>
+        <v>468</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>526</v>
+        <v>468</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -13002,10 +13029,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>524</v>
+        <v>469</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>527</v>
+        <v>469</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -13013,10 +13040,10 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>525</v>
+        <v>470</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>528</v>
+        <v>470</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -13024,10 +13051,10 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1175</v>
+        <v>521</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>1175</v>
+        <v>522</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -13035,10 +13062,10 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -13046,10 +13073,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -13057,10 +13084,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -13068,10 +13095,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>495</v>
+        <v>1175</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>495</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -13079,10 +13106,10 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -13090,10 +13117,10 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -13101,10 +13128,10 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -13112,10 +13139,10 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -13123,10 +13150,10 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -13134,10 +13161,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -13145,10 +13172,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -13156,10 +13183,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -13167,10 +13194,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -13178,10 +13205,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -13189,10 +13216,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -13200,10 +13227,10 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -13211,10 +13238,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -13222,10 +13249,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -13233,10 +13260,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -13244,10 +13271,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -13255,10 +13282,10 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -13266,10 +13293,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -13277,10 +13304,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -13288,10 +13315,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>648</v>
+        <v>516</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>647</v>
+        <v>516</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -13299,10 +13326,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -13310,10 +13337,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -13321,10 +13348,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -13332,10 +13359,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>533</v>
+        <v>648</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -13343,10 +13370,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -13354,10 +13381,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>750</v>
+        <v>532</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>750</v>
+        <v>530</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -13365,10 +13392,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>751</v>
+        <v>529</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>751</v>
+        <v>531</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -13376,10 +13403,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>752</v>
+        <v>533</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>752</v>
+        <v>534</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -13387,10 +13414,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -13398,10 +13425,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>538</v>
+        <v>750</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>546</v>
+        <v>750</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -13409,10 +13436,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>539</v>
+        <v>751</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>547</v>
+        <v>751</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -13420,10 +13447,10 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>540</v>
+        <v>752</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>548</v>
+        <v>752</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -13431,10 +13458,10 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -13442,10 +13469,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -13453,10 +13480,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -13464,10 +13491,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -13475,10 +13502,10 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -13486,10 +13513,10 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -13497,10 +13524,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -13508,10 +13535,10 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -13519,10 +13546,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1174</v>
+        <v>543</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1173</v>
+        <v>555</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -13530,10 +13557,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -13541,10 +13568,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -13552,10 +13579,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -13563,10 +13590,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>566</v>
+        <v>1174</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>566</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -13574,10 +13601,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -13585,10 +13612,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -13596,10 +13623,10 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -13607,10 +13634,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -13618,10 +13645,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -13629,10 +13656,10 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -13640,10 +13667,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -13651,10 +13678,10 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -13662,10 +13689,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -13673,10 +13700,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -13684,10 +13711,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -13695,10 +13722,10 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -13706,10 +13733,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -13717,10 +13744,10 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -13728,10 +13755,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -13739,10 +13766,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -13750,10 +13777,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -13761,10 +13788,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -13772,10 +13799,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -13783,10 +13810,10 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1605</v>
+        <v>582</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1604</v>
+        <v>582</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -13794,10 +13821,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -13805,10 +13832,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -13816,10 +13843,10 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1609</v>
+        <v>587</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1608</v>
+        <v>588</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -13827,10 +13854,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>593</v>
+        <v>1605</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>593</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -13838,10 +13865,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -13849,10 +13876,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -13860,10 +13887,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>754</v>
+        <v>1609</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>753</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -13871,10 +13898,10 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -13882,10 +13909,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -13893,10 +13920,10 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -13904,10 +13931,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>597</v>
+        <v>754</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>606</v>
+        <v>753</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -13915,10 +13942,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -13926,10 +13953,10 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -13937,10 +13964,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -13948,10 +13975,10 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -13959,10 +13986,10 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -13970,10 +13997,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -13981,10 +14008,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -13992,10 +14019,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -14003,10 +14030,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -14014,10 +14041,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -14025,10 +14052,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -14036,10 +14063,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -14047,10 +14074,10 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -14058,10 +14085,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -14069,10 +14096,10 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -14080,10 +14107,10 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -14091,10 +14118,10 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -14102,10 +14129,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -14113,10 +14140,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>679</v>
+        <v>625</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>680</v>
+        <v>611</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -14124,10 +14151,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -14135,10 +14162,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -14146,10 +14173,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -14157,10 +14184,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>643</v>
+        <v>679</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -14168,10 +14195,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -14179,10 +14206,10 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>681</v>
+        <v>636</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>695</v>
+        <v>638</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -14190,10 +14217,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>682</v>
+        <v>641</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>696</v>
+        <v>642</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -14201,10 +14228,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>683</v>
+        <v>643</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>683</v>
+        <v>644</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -14212,10 +14239,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>685</v>
+        <v>645</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>684</v>
+        <v>646</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -14223,10 +14250,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -14234,10 +14261,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -14245,10 +14272,10 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -14256,10 +14283,10 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -14267,10 +14294,10 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -14278,10 +14305,10 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -14289,10 +14316,10 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -14300,10 +14327,10 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -14311,10 +14338,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -14322,10 +14349,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -14333,10 +14360,10 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -14344,10 +14371,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -14355,10 +14382,10 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -14366,10 +14393,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -14377,10 +14404,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -14388,10 +14415,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -14399,10 +14426,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -14410,10 +14437,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -14421,10 +14448,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -14432,10 +14459,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -14443,10 +14470,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -14454,10 +14481,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -14465,10 +14492,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -14476,10 +14503,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -14487,10 +14514,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -14498,10 +14525,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -14509,10 +14536,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -14520,10 +14547,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -14531,10 +14558,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -14542,10 +14569,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -14553,10 +14580,10 @@
         <v>428</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -14564,10 +14591,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -14575,10 +14602,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -14586,10 +14613,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -14597,10 +14624,10 @@
         <v>432</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -14608,10 +14635,10 @@
         <v>433</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>781</v>
+        <v>725</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>782</v>
+        <v>725</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -14619,10 +14646,10 @@
         <v>434</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>783</v>
+        <v>726</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>784</v>
+        <v>726</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -14630,10 +14657,10 @@
         <v>435</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>785</v>
+        <v>727</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>786</v>
+        <v>727</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -14641,10 +14668,10 @@
         <v>436</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>787</v>
+        <v>728</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>788</v>
+        <v>728</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -14652,10 +14679,10 @@
         <v>437</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -14663,10 +14690,10 @@
         <v>438</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -14674,10 +14701,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -14685,10 +14712,10 @@
         <v>440</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -14696,10 +14723,10 @@
         <v>441</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>833</v>
+        <v>790</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>829</v>
+        <v>790</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -14707,10 +14734,10 @@
         <v>442</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>830</v>
+        <v>791</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>830</v>
+        <v>791</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -14718,10 +14745,10 @@
         <v>443</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>831</v>
+        <v>792</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>831</v>
+        <v>792</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -14729,10 +14756,10 @@
         <v>444</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>832</v>
+        <v>793</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>832</v>
+        <v>793</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -14740,10 +14767,10 @@
         <v>445</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -14751,10 +14778,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -14762,10 +14789,10 @@
         <v>447</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -14773,10 +14800,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -14784,10 +14811,10 @@
         <v>449</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -14795,10 +14822,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -14806,10 +14833,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -14817,10 +14844,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1008</v>
+        <v>838</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1008</v>
+        <v>838</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -14828,10 +14855,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1009</v>
+        <v>839</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1009</v>
+        <v>839</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -14839,10 +14866,10 @@
         <v>454</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1011</v>
+        <v>840</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1010</v>
+        <v>840</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -14850,10 +14877,10 @@
         <v>455</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C456" s="5" t="s">
-        <v>1073</v>
+        <v>841</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -14861,31 +14888,55 @@
         <v>456</v>
       </c>
       <c r="B457" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>457</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>458</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>459</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>460</v>
+      </c>
+      <c r="B461" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="C457" s="5" t="s">
+      <c r="C461" s="5" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458" s="1"/>
-      <c r="B458" s="1"/>
-      <c r="C458" s="1"/>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="1"/>
-      <c r="B459" s="1"/>
-      <c r="C459" s="1"/>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460" s="1"/>
-      <c r="B460" s="1"/>
-      <c r="C460" s="1"/>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" s="1"/>
-      <c r="B461" s="1"/>
-      <c r="C461" s="1"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
@@ -17011,6 +17062,26 @@
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A887" s="1"/>
+      <c r="B887" s="1"/>
+      <c r="C887" s="1"/>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A888" s="1"/>
+      <c r="B888" s="1"/>
+      <c r="C888" s="1"/>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A889" s="1"/>
+      <c r="B889" s="1"/>
+      <c r="C889" s="1"/>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A890" s="1"/>
+      <c r="B890" s="1"/>
+      <c r="C890" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WebRoot/oem/cnpc/locale/locale-en.xlsx
+++ b/WebRoot/oem/cnpc/locale/locale-en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -5081,46 +5081,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Maximum load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimum load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stroke</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Liquid production</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diagnostic results</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimization suggestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upper load line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lower load line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rod stress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rod stress ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Load</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5145,110 +5109,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pump diagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pump efficiency composition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Percent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Stroke loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Coefficient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Plunger leakage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solids contract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Power Diagram</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Active power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Up stroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Down stroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum upstroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximum downstroke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Degree of balance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current diagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Electricity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Torque curve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current torque curve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Torque</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Crank angle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move toward outside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move toward inside</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expect torque curve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crank torque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Balance torque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Net torque</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Crude Oil Density</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7488,6 +7368,126 @@
   </si>
   <si>
     <t>cbm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liquid Production</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diagnostic Results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimization Suggestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rod Stress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rod Stress Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper Load Line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower Load Line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pump Efficiency Composition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stroke Loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plunger Leakage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solids Contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up Stroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Down Stroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Upstroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Downstroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree of Balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crank Angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Torque Curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Torque Curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Toward Outside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Toward Inside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expect Torque Curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crank Torque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balance Torque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net Torque</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pump Diagram</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9113,8 +9113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9153,7 +9153,7 @@
         <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -9164,7 +9164,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -9186,7 +9186,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1403</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -9197,7 +9197,7 @@
         <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1404</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -9208,7 +9208,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -9230,7 +9230,7 @@
         <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1406</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -9241,7 +9241,7 @@
         <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1407</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -9252,7 +9252,7 @@
         <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1408</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -9263,7 +9263,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1409</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -9274,7 +9274,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1410</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -9285,7 +9285,7 @@
         <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1411</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -9296,7 +9296,7 @@
         <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1412</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -9307,7 +9307,7 @@
         <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -9318,7 +9318,7 @@
         <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -9329,7 +9329,7 @@
         <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -9340,7 +9340,7 @@
         <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -9351,7 +9351,7 @@
         <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1419</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -9362,7 +9362,7 @@
         <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1420</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -9373,7 +9373,7 @@
         <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -9384,7 +9384,7 @@
         <v>1351</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1422</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -9395,7 +9395,7 @@
         <v>1352</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -9406,7 +9406,7 @@
         <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1424</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -9417,7 +9417,7 @@
         <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1425</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -9428,7 +9428,7 @@
         <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -9439,7 +9439,7 @@
         <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1427</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -9450,7 +9450,7 @@
         <v>84</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1428</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -9461,7 +9461,7 @@
         <v>85</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1429</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -9472,7 +9472,7 @@
         <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1430</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -9483,7 +9483,7 @@
         <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1431</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -9494,7 +9494,7 @@
         <v>86</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1432</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -9505,7 +9505,7 @@
         <v>87</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1433</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -9516,7 +9516,7 @@
         <v>88</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1434</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -9527,7 +9527,7 @@
         <v>89</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1435</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -9538,7 +9538,7 @@
         <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1436</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -9549,7 +9549,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1437</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -9560,7 +9560,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1438</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -9571,7 +9571,7 @@
         <v>92</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1439</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -9582,7 +9582,7 @@
         <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1440</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -9593,7 +9593,7 @@
         <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1441</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -9604,7 +9604,7 @@
         <v>94</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1442</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -9615,7 +9615,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1443</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -9626,7 +9626,7 @@
         <v>96</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1444</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -9637,7 +9637,7 @@
         <v>489</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1445</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -9648,7 +9648,7 @@
         <v>490</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1446</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -9659,7 +9659,7 @@
         <v>491</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1447</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -9670,7 +9670,7 @@
         <v>492</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1448</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -9681,7 +9681,7 @@
         <v>493</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1449</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -9692,7 +9692,7 @@
         <v>494</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1450</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -9703,7 +9703,7 @@
         <v>495</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1449</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -9714,7 +9714,7 @@
         <v>496</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1450</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -9725,7 +9725,7 @@
         <v>497</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1451</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -9736,7 +9736,7 @@
         <v>498</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1451</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -9747,7 +9747,7 @@
         <v>499</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1452</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -9758,7 +9758,7 @@
         <v>500</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1453</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -9769,7 +9769,7 @@
         <v>501</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1454</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -9780,7 +9780,7 @@
         <v>502</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1455</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -9791,7 +9791,7 @@
         <v>503</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1456</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -9802,7 +9802,7 @@
         <v>504</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1457</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -9813,7 +9813,7 @@
         <v>505</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1458</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -9824,7 +9824,7 @@
         <v>506</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1459</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -9835,7 +9835,7 @@
         <v>507</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1460</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -9846,7 +9846,7 @@
         <v>508</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1461</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -9857,7 +9857,7 @@
         <v>509</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1462</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -9868,7 +9868,7 @@
         <v>510</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1463</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -9879,7 +9879,7 @@
         <v>625</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1464</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -9890,7 +9890,7 @@
         <v>626</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1465</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -9901,7 +9901,7 @@
         <v>627</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1466</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -9912,7 +9912,7 @@
         <v>628</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1467</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -9923,7 +9923,7 @@
         <v>629</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1468</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -9934,7 +9934,7 @@
         <v>630</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1469</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -9945,7 +9945,7 @@
         <v>631</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1470</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -9956,7 +9956,7 @@
         <v>632</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1471</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -9967,7 +9967,7 @@
         <v>633</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1472</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -9978,7 +9978,7 @@
         <v>634</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1473</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -9989,7 +9989,7 @@
         <v>635</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1474</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -10000,7 +10000,7 @@
         <v>636</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1475</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -10011,7 +10011,7 @@
         <v>637</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1476</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -10022,7 +10022,7 @@
         <v>638</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1477</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -10033,7 +10033,7 @@
         <v>639</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1478</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -10044,7 +10044,7 @@
         <v>640</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1479</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -10055,7 +10055,7 @@
         <v>641</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1480</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -10066,7 +10066,7 @@
         <v>642</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1481</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -10077,7 +10077,7 @@
         <v>643</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1482</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -10088,7 +10088,7 @@
         <v>644</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1483</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -10099,7 +10099,7 @@
         <v>511</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1484</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -10110,7 +10110,7 @@
         <v>512</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1485</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -10121,7 +10121,7 @@
         <v>513</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1486</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -10132,7 +10132,7 @@
         <v>514</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1487</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -10143,7 +10143,7 @@
         <v>515</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1488</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -10154,7 +10154,7 @@
         <v>516</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1489</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -10165,7 +10165,7 @@
         <v>517</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1490</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -10209,7 +10209,7 @@
         <v>622</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1491</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -10220,7 +10220,7 @@
         <v>623</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1492</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -10231,7 +10231,7 @@
         <v>624</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1493</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -10239,10 +10239,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1495</v>
+        <v>1465</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1494</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -10253,7 +10253,7 @@
         <v>645</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1496</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -10264,7 +10264,7 @@
         <v>646</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1497</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -10275,7 +10275,7 @@
         <v>647</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1498</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -10286,7 +10286,7 @@
         <v>659</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1499</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -10297,7 +10297,7 @@
         <v>1350</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1500</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -10308,7 +10308,7 @@
         <v>660</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1501</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -10319,7 +10319,7 @@
         <v>661</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1502</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -10330,7 +10330,7 @@
         <v>662</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1503</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -10341,7 +10341,7 @@
         <v>663</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1504</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -10352,7 +10352,7 @@
         <v>664</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1505</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -10363,7 +10363,7 @@
         <v>665</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1506</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -10374,7 +10374,7 @@
         <v>666</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1507</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -10407,7 +10407,7 @@
         <v>750</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1508</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -10429,7 +10429,7 @@
         <v>672</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>1509</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -10440,7 +10440,7 @@
         <v>673</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1510</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -10451,7 +10451,7 @@
         <v>674</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1511</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -10462,7 +10462,7 @@
         <v>675</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1512</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -10473,7 +10473,7 @@
         <v>676</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1513</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -10484,7 +10484,7 @@
         <v>677</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1514</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -10495,7 +10495,7 @@
         <v>678</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1515</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -10506,7 +10506,7 @@
         <v>679</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1516</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -10517,7 +10517,7 @@
         <v>680</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1517</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -10528,7 +10528,7 @@
         <v>681</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1518</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -10539,7 +10539,7 @@
         <v>682</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1519</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -10550,7 +10550,7 @@
         <v>683</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1520</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -10561,7 +10561,7 @@
         <v>684</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1521</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -10572,7 +10572,7 @@
         <v>685</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1522</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -10583,7 +10583,7 @@
         <v>686</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1523</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -10594,7 +10594,7 @@
         <v>687</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1524</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -10605,7 +10605,7 @@
         <v>688</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1525</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -10616,7 +10616,7 @@
         <v>689</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1526</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -10627,7 +10627,7 @@
         <v>690</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1527</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -10638,7 +10638,7 @@
         <v>691</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1528</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -10649,7 +10649,7 @@
         <v>692</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1529</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -10660,7 +10660,7 @@
         <v>693</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1530</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -10671,7 +10671,7 @@
         <v>669</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1531</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -10682,7 +10682,7 @@
         <v>670</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1532</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -10693,7 +10693,7 @@
         <v>694</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1533</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -10704,7 +10704,7 @@
         <v>695</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1534</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -10715,7 +10715,7 @@
         <v>696</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1535</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -10726,7 +10726,7 @@
         <v>697</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1536</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -10737,7 +10737,7 @@
         <v>698</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1537</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -10748,7 +10748,7 @@
         <v>699</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1538</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -10759,7 +10759,7 @@
         <v>700</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1539</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -10770,7 +10770,7 @@
         <v>701</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1540</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -10781,7 +10781,7 @@
         <v>702</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1540</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -10792,7 +10792,7 @@
         <v>703</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1541</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -10803,7 +10803,7 @@
         <v>704</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1542</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -10814,7 +10814,7 @@
         <v>705</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1543</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -10825,7 +10825,7 @@
         <v>706</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1544</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -10836,7 +10836,7 @@
         <v>707</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1545</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -10847,7 +10847,7 @@
         <v>708</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1546</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -10858,7 +10858,7 @@
         <v>709</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1547</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -10869,7 +10869,7 @@
         <v>710</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1548</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -10880,7 +10880,7 @@
         <v>711</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1549</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -10891,7 +10891,7 @@
         <v>712</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1550</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -10902,7 +10902,7 @@
         <v>713</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1551</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -10913,7 +10913,7 @@
         <v>714</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1552</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -10935,7 +10935,7 @@
         <v>716</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1553</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -10946,7 +10946,7 @@
         <v>717</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1554</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -10957,7 +10957,7 @@
         <v>718</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1555</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -10968,7 +10968,7 @@
         <v>719</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1556</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -10979,7 +10979,7 @@
         <v>720</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1557</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -10990,7 +10990,7 @@
         <v>745</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1558</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -11001,7 +11001,7 @@
         <v>721</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -11012,7 +11012,7 @@
         <v>746</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1559</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -11023,7 +11023,7 @@
         <v>722</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1560</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -11034,7 +11034,7 @@
         <v>723</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1559</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -11045,7 +11045,7 @@
         <v>724</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1561</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -11056,7 +11056,7 @@
         <v>725</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1562</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -11067,7 +11067,7 @@
         <v>726</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1563</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -11078,7 +11078,7 @@
         <v>727</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1564</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -11089,7 +11089,7 @@
         <v>728</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1565</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -11100,7 +11100,7 @@
         <v>729</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1566</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -11111,7 +11111,7 @@
         <v>730</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1567</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -11122,7 +11122,7 @@
         <v>731</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1568</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -11133,7 +11133,7 @@
         <v>732</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1569</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -11144,7 +11144,7 @@
         <v>733</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1570</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -11155,7 +11155,7 @@
         <v>734</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1571</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -11166,7 +11166,7 @@
         <v>735</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1572</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -11177,7 +11177,7 @@
         <v>736</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1573</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -11188,7 +11188,7 @@
         <v>737</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1574</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -11199,7 +11199,7 @@
         <v>738</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1575</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -11210,7 +11210,7 @@
         <v>739</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1576</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -11221,7 +11221,7 @@
         <v>740</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1577</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -11232,7 +11232,7 @@
         <v>741</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1578</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -11243,7 +11243,7 @@
         <v>742</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1579</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -11254,7 +11254,7 @@
         <v>743</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1580</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -11265,7 +11265,7 @@
         <v>744</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1581</v>
+        <v>1551</v>
       </c>
     </row>
   </sheetData>
@@ -11308,7 +11308,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1582</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11319,7 +11319,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1583</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -11330,7 +11330,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1584</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -11341,7 +11341,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1585</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11352,7 +11352,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1586</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -11363,7 +11363,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1587</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -11374,7 +11374,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1588</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11385,7 +11385,7 @@
         <v>431</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1589</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -11396,7 +11396,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1590</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -11407,7 +11407,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1591</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -11418,7 +11418,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1592</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -11429,7 +11429,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1593</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -11440,7 +11440,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1594</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -11451,7 +11451,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1595</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -11462,7 +11462,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1596</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -11473,7 +11473,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1597</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -11484,7 +11484,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1598</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -11495,7 +11495,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1599</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -11506,7 +11506,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1600</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -11517,7 +11517,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1601</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -11528,7 +11528,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1602</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -11550,7 +11550,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1603</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -11561,7 +11561,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1604</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -11572,7 +11572,7 @@
         <v>146</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1605</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -11583,7 +11583,7 @@
         <v>564</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1606</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -11594,7 +11594,7 @@
         <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1607</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -11616,7 +11616,7 @@
         <v>103</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1608</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -11627,7 +11627,7 @@
         <v>104</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1609</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -11638,7 +11638,7 @@
         <v>105</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1610</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -11649,7 +11649,7 @@
         <v>106</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1611</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -11660,7 +11660,7 @@
         <v>107</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1612</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -11682,7 +11682,7 @@
         <v>561</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1613</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -11693,7 +11693,7 @@
         <v>565</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1614</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -11704,7 +11704,7 @@
         <v>1328</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1615</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -11715,7 +11715,7 @@
         <v>1329</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1616</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -11726,7 +11726,7 @@
         <v>1323</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1617</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -11737,7 +11737,7 @@
         <v>110</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1618</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -11748,7 +11748,7 @@
         <v>111</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1619</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -11759,7 +11759,7 @@
         <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1620</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -11770,7 +11770,7 @@
         <v>113</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1621</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -11781,7 +11781,7 @@
         <v>1325</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1622</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -11792,7 +11792,7 @@
         <v>114</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1623</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -11803,7 +11803,7 @@
         <v>115</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1624</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -11814,7 +11814,7 @@
         <v>116</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1625</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -11836,7 +11836,7 @@
         <v>570</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1630</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -11847,7 +11847,7 @@
         <v>571</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1631</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -11858,7 +11858,7 @@
         <v>568</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1632</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -11869,7 +11869,7 @@
         <v>569</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1633</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -11880,7 +11880,7 @@
         <v>117</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1628</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -11891,7 +11891,7 @@
         <v>1330</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1629</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -11902,7 +11902,7 @@
         <v>118</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1634</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -11913,7 +11913,7 @@
         <v>161</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1635</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -11924,7 +11924,7 @@
         <v>119</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1636</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -11935,7 +11935,7 @@
         <v>120</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1637</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -11946,7 +11946,7 @@
         <v>121</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1638</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -11957,7 +11957,7 @@
         <v>122</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1639</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -11968,7 +11968,7 @@
         <v>125</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1640</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -11979,7 +11979,7 @@
         <v>126</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1641</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -11990,7 +11990,7 @@
         <v>127</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1642</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -12001,7 +12001,7 @@
         <v>128</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1642</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -12012,7 +12012,7 @@
         <v>576</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1643</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -12023,7 +12023,7 @@
         <v>574</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1644</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -12034,7 +12034,7 @@
         <v>575</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1645</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -12045,7 +12045,7 @@
         <v>1326</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1646</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -12056,7 +12056,7 @@
         <v>1327</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1647</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -12067,7 +12067,7 @@
         <v>130</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1648</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -12078,7 +12078,7 @@
         <v>132</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1649</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -12089,7 +12089,7 @@
         <v>131</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1650</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -12100,7 +12100,7 @@
         <v>133</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1651</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -12111,7 +12111,7 @@
         <v>134</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1652</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -12122,7 +12122,7 @@
         <v>135</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1653</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -12133,7 +12133,7 @@
         <v>136</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1654</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -12144,7 +12144,7 @@
         <v>137</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1655</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -12155,7 +12155,7 @@
         <v>138</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1656</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -12166,7 +12166,7 @@
         <v>139</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1657</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -12177,7 +12177,7 @@
         <v>162</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1658</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -12188,7 +12188,7 @@
         <v>163</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1659</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -12199,7 +12199,7 @@
         <v>164</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1660</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -12210,7 +12210,7 @@
         <v>165</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1661</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -12221,7 +12221,7 @@
         <v>166</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1662</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -12232,7 +12232,7 @@
         <v>167</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1663</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -12243,7 +12243,7 @@
         <v>168</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1593</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -12254,7 +12254,7 @@
         <v>169</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1592</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -12265,7 +12265,7 @@
         <v>170</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1664</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -12276,7 +12276,7 @@
         <v>171</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1665</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -12287,7 +12287,7 @@
         <v>172</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1666</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -12298,7 +12298,7 @@
         <v>180</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1667</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -12309,7 +12309,7 @@
         <v>173</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1668</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -12320,7 +12320,7 @@
         <v>174</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1669</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -12331,7 +12331,7 @@
         <v>175</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1670</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -12342,7 +12342,7 @@
         <v>176</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1671</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -12353,7 +12353,7 @@
         <v>786</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1672</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -12364,7 +12364,7 @@
         <v>177</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1673</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -12375,7 +12375,7 @@
         <v>181</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1674</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -12386,7 +12386,7 @@
         <v>178</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1675</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -12397,7 +12397,7 @@
         <v>179</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1676</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -12408,7 +12408,7 @@
         <v>572</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1678</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -12419,7 +12419,7 @@
         <v>182</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1677</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -12441,7 +12441,7 @@
         <v>1331</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1679</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -12452,7 +12452,7 @@
         <v>1332</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1680</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -12463,7 +12463,7 @@
         <v>893</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1681</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -12474,7 +12474,7 @@
         <v>184</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1682</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -12485,7 +12485,7 @@
         <v>185</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1683</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -12496,7 +12496,7 @@
         <v>186</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1684</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -12507,7 +12507,7 @@
         <v>187</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1685</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -12518,7 +12518,7 @@
         <v>188</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1686</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -12529,7 +12529,7 @@
         <v>189</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1687</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -12540,7 +12540,7 @@
         <v>190</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1688</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -12551,7 +12551,7 @@
         <v>1346</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1689</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -12562,7 +12562,7 @@
         <v>1347</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1690</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -12573,7 +12573,7 @@
         <v>1348</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1691</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -12584,7 +12584,7 @@
         <v>1349</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1692</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -12606,7 +12606,7 @@
         <v>192</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1693</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -12639,7 +12639,7 @@
         <v>1337</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -12672,7 +12672,7 @@
         <v>1344</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1695</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -12683,7 +12683,7 @@
         <v>1345</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1696</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -12705,7 +12705,7 @@
         <v>193</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1697</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -12716,7 +12716,7 @@
         <v>379</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1698</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -12727,7 +12727,7 @@
         <v>544</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1699</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -12738,7 +12738,7 @@
         <v>545</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1700</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -12749,7 +12749,7 @@
         <v>194</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1701</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -12760,7 +12760,7 @@
         <v>195</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1702</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -12771,7 +12771,7 @@
         <v>196</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1703</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -12782,7 +12782,7 @@
         <v>197</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1704</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -12793,7 +12793,7 @@
         <v>354</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1707</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -12804,7 +12804,7 @@
         <v>198</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1705</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -12815,7 +12815,7 @@
         <v>370</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1706</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -12826,7 +12826,7 @@
         <v>199</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1708</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -12837,7 +12837,7 @@
         <v>371</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1709</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -12848,7 +12848,7 @@
         <v>200</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1710</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -12859,7 +12859,7 @@
         <v>375</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1711</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -12870,7 +12870,7 @@
         <v>201</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1712</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -12881,7 +12881,7 @@
         <v>202</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1713</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -12892,7 +12892,7 @@
         <v>203</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1714</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -12903,7 +12903,7 @@
         <v>204</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1715</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -12914,7 +12914,7 @@
         <v>205</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1716</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -12925,7 +12925,7 @@
         <v>206</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1717</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -12936,7 +12936,7 @@
         <v>207</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1718</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -12947,7 +12947,7 @@
         <v>208</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1719</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -12958,7 +12958,7 @@
         <v>209</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1720</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -12969,7 +12969,7 @@
         <v>210</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1721</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -12980,7 +12980,7 @@
         <v>211</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1722</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -12991,7 +12991,7 @@
         <v>212</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1723</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -13002,7 +13002,7 @@
         <v>213</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1724</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -13013,7 +13013,7 @@
         <v>214</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1725</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -13024,7 +13024,7 @@
         <v>215</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1726</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -13035,7 +13035,7 @@
         <v>216</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1728</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -13046,7 +13046,7 @@
         <v>217</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1727</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -13057,7 +13057,7 @@
         <v>218</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1729</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -13068,7 +13068,7 @@
         <v>220</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1730</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -13079,7 +13079,7 @@
         <v>219</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1731</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -13101,7 +13101,7 @@
         <v>222</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1732</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -13112,7 +13112,7 @@
         <v>221</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1733</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -13123,7 +13123,7 @@
         <v>235</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1734</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -13134,7 +13134,7 @@
         <v>236</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1735</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -13156,7 +13156,7 @@
         <v>237</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1736</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -13167,7 +13167,7 @@
         <v>581</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1737</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -13233,7 +13233,7 @@
         <v>269</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1738</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -13244,7 +13244,7 @@
         <v>352</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1740</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -13255,7 +13255,7 @@
         <v>350</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1739</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -13266,7 +13266,7 @@
         <v>351</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1741</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -13277,7 +13277,7 @@
         <v>368</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1742</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -13288,7 +13288,7 @@
         <v>369</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1743</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -13299,7 +13299,7 @@
         <v>353</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1744</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -13310,7 +13310,7 @@
         <v>270</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1745</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -13321,7 +13321,7 @@
         <v>271</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1746</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -13332,7 +13332,7 @@
         <v>592</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1747</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -13343,7 +13343,7 @@
         <v>593</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1748</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -13354,7 +13354,7 @@
         <v>272</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1749</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -13365,7 +13365,7 @@
         <v>273</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1750</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -13376,7 +13376,7 @@
         <v>274</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1751</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -13387,7 +13387,7 @@
         <v>275</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1752</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -13398,7 +13398,7 @@
         <v>276</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1753</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -13409,7 +13409,7 @@
         <v>280</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1754</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -13420,7 +13420,7 @@
         <v>281</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1755</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -13431,7 +13431,7 @@
         <v>282</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1756</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -13442,7 +13442,7 @@
         <v>277</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1757</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -13453,7 +13453,7 @@
         <v>278</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1758</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -13464,7 +13464,7 @@
         <v>279</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1759</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -13475,7 +13475,7 @@
         <v>284</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1760</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -13486,7 +13486,7 @@
         <v>380</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1761</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -13497,7 +13497,7 @@
         <v>285</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1762</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -13519,7 +13519,7 @@
         <v>287</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1763</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -13530,7 +13530,7 @@
         <v>288</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1764</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -13541,7 +13541,7 @@
         <v>289</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1765</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -13552,7 +13552,7 @@
         <v>290</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1766</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -13563,7 +13563,7 @@
         <v>291</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1767</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -13574,7 +13574,7 @@
         <v>292</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1768</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -13585,7 +13585,7 @@
         <v>367</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1769</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -13596,7 +13596,7 @@
         <v>293</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1770</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -13607,7 +13607,7 @@
         <v>294</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1771</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -13618,7 +13618,7 @@
         <v>295</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1772</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -13629,7 +13629,7 @@
         <v>296</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1773</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -13640,7 +13640,7 @@
         <v>297</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1774</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -13651,7 +13651,7 @@
         <v>298</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1775</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -13662,7 +13662,7 @@
         <v>309</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1776</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -13673,7 +13673,7 @@
         <v>299</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1777</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -13684,7 +13684,7 @@
         <v>300</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1778</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -13695,7 +13695,7 @@
         <v>301</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1779</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -13706,7 +13706,7 @@
         <v>302</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1780</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -13717,7 +13717,7 @@
         <v>310</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1781</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -13728,7 +13728,7 @@
         <v>303</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1782</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -13739,7 +13739,7 @@
         <v>304</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1783</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -13750,7 +13750,7 @@
         <v>305</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1784</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -13761,7 +13761,7 @@
         <v>306</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1785</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -13772,7 +13772,7 @@
         <v>307</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1786</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -13783,7 +13783,7 @@
         <v>308</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1787</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -13794,7 +13794,7 @@
         <v>316</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1788</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -13805,7 +13805,7 @@
         <v>317</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1789</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -13816,7 +13816,7 @@
         <v>318</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1790</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -13827,7 +13827,7 @@
         <v>319</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1791</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -13838,7 +13838,7 @@
         <v>320</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1792</v>
+        <v>1762</v>
       </c>
     </row>